--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="540" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="7400" yWindow="540" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>COMMENT</t>
   </si>
@@ -163,13 +163,28 @@
   </si>
   <si>
     <t>Baseline model with Qi = 6500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SCRIPT?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Bgscat = 0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00#"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +215,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -234,8 +255,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,8 +276,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -258,6 +293,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -265,6 +303,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,47 +635,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+    <row r="1" spans="1:34">
+      <c r="D1" s="2"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -645,24 +685,24 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="3"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="3"/>
       <c r="R1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -673,119 +713,122 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="B3" s="2" t="s">
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:34">
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -796,24 +839,24 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -824,349 +867,454 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
         <v>0.75</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="B7" s="2" t="s">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>15</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
         <v>0.75</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-    </row>
-    <row r="8" spans="1:32">
-      <c r="B8" s="2" t="s">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>15</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
         <v>0.75</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-    </row>
-    <row r="9" spans="1:32">
-      <c r="B9" s="2" t="s">
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="C9" s="8">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>15</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
         <v>0.75</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="B10" s="2" t="s">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="1">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:34">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>7200</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>4500</v>
       </c>
-      <c r="G14" s="1">
-        <v>15</v>
-      </c>
       <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.75</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="B15" s="2" t="s">
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>7200</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>4500</v>
       </c>
-      <c r="G15" s="1">
-        <v>15</v>
-      </c>
       <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
         <v>0.75</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:34" s="5" customFormat="1">
+      <c r="C16" s="8">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16">
+      <c r="E16" s="5">
         <v>7200</v>
       </c>
-      <c r="D16">
+      <c r="F16" s="5">
         <v>4500</v>
       </c>
-      <c r="G16" s="1">
-        <v>15</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="I16" s="7">
+        <v>30</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
         <v>0.75</v>
       </c>
-      <c r="N16">
+      <c r="P16" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:15">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="1">
-        <v>15</v>
-      </c>
       <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
       <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="1">
-        <v>30</v>
-      </c>
       <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="8">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="1">
-        <v>2</v>
-      </c>
-      <c r="M22" s="1">
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1">
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="1">
-        <v>30</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="2" t="s">
+      <c r="I23" s="1">
+        <v>60</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="8">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="8">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="8">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="540" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="20320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$3:$P$37</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>COMMENT</t>
   </si>
@@ -175,6 +179,27 @@
   </si>
   <si>
     <t>Bgscat = 0.01</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_basic</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_crust</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_vlvl</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_score300</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_lcore300</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_Q2000</t>
+  </si>
+  <si>
+    <t>CSIMPLEMOON_Q6500</t>
   </si>
 </sst>
 </file>
@@ -184,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00#"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +246,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +270,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -261,8 +292,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,8 +347,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -296,6 +362,22 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -306,6 +388,22 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,10 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -907,13 +1008,21 @@
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-0.5</v>
+      </c>
       <c r="O6" s="1">
         <v>0.75</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -955,7 +1064,9 @@
       <c r="O7" s="1">
         <v>0.75</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -997,7 +1108,9 @@
       <c r="O8" s="1">
         <v>0.75</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1036,7 +1149,9 @@
       <c r="O9" s="1">
         <v>0.75</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1074,6 +1189,9 @@
       <c r="O10" s="1">
         <v>0.75</v>
       </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
@@ -1098,6 +1216,12 @@
       <c r="O11" s="1">
         <v>0.75</v>
       </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="P12" s="1"/>
     </row>
     <row r="14" spans="1:34">
       <c r="C14" s="8">
@@ -1180,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="C19" s="8">
         <v>1</v>
       </c>
@@ -1196,8 +1320,11 @@
       <c r="O19" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1216,8 +1343,11 @@
       <c r="O20" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1236,8 +1366,11 @@
       <c r="O21" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -1253,8 +1386,11 @@
       <c r="O22" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1270,8 +1406,11 @@
       <c r="O23" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="C26" s="8">
         <v>1</v>
       </c>
@@ -1279,7 +1418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1289,8 +1428,11 @@
       <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1300,8 +1442,11 @@
       <c r="D28" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="C31" s="8">
         <v>1</v>
       </c>
@@ -1309,12 +1454,1492 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="C32" s="8">
         <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="66" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5" customWidth="1"/>
+    <col min="26" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="D1" s="2"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4500</v>
+      </c>
+      <c r="G6" s="9">
+        <f>AE6*AF6*AG6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <f>AH6*AF6*AE6</f>
+        <v>1600000000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V6" s="1">
+        <v>30</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4500</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:G18" si="0">AE7*AF7*AG7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" ref="H7:H18" si="1">AH7*AF7*AE7</f>
+        <v>1600000000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V7" s="1">
+        <v>30</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" ref="X7:X18" si="2">"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4500</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1">
+        <v>10</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V8" s="1">
+        <v>30</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="1"/>
+      <c r="AH8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4500</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1">
+        <v>10</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V9" s="1">
+        <v>30</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4500</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V10" s="1">
+        <v>30</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="1"/>
+      <c r="AH10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4500</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>10</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V11" s="1">
+        <v>30</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4500</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V12" s="1">
+        <v>30</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4500</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>60</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1">
+        <v>10</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V13" s="1">
+        <v>30</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG13" s="1"/>
+      <c r="AH13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4500</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V14" s="1">
+        <v>30</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG14" s="1"/>
+      <c r="AH14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4500</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>60</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V15" s="1">
+        <v>30</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4500</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1">
+        <v>10</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V16" s="1">
+        <v>30</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG16" s="1"/>
+      <c r="AH16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8">
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4500</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>10</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1">
+        <v>10</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V17" s="1">
+        <v>30</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4500</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>10</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1">
+        <v>10</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V18" s="1">
+        <v>30</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="1"/>
+      <c r="AH18">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="20320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>COMMENT</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>CSIMPLEMOON_Q6500</t>
+  </si>
+  <si>
+    <t>CVPREM_001</t>
+  </si>
+  <si>
+    <t>cees</t>
+  </si>
+  <si>
+    <t>PSVPREM</t>
+  </si>
+  <si>
+    <t>001b</t>
   </si>
 </sst>
 </file>
@@ -270,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -324,8 +336,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,8 +406,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -378,6 +440,28 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -404,6 +488,28 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -738,7 +844,7 @@
   </sheetPr>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:P37"/>
     </sheetView>
   </sheetViews>
@@ -1476,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P27" sqref="A27:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1829,10 +1935,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1841,15 +1947,15 @@
         <v>4500</v>
       </c>
       <c r="G7" s="9">
-        <f t="shared" ref="G7:G18" si="0">AE7*AF7*AG7</f>
+        <f>AE7*AF7*AG7</f>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" ref="H7:H18" si="1">AH7*AF7*AE7</f>
+        <f>AH7*AF7*AE7</f>
         <v>1600000000</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1867,7 +1973,7 @@
         <v>-0.5</v>
       </c>
       <c r="O7" s="1">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
@@ -1894,19 +2000,15 @@
         <v>1000</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f t="shared" ref="X7:X18" si="2">"1:10:10"</f>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+        <v>52</v>
+      </c>
       <c r="AB7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
       <c r="AE7" s="9">
         <v>20000000</v>
       </c>
@@ -1926,10 +2028,10 @@
         <v>31</v>
       </c>
       <c r="C8" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1938,15 +2040,15 @@
         <v>4500</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f>AE8*AF8*AG8</f>
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="1"/>
+        <f>AH8*AF8*AE8</f>
         <v>1600000000</v>
       </c>
       <c r="I8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -1964,7 +2066,7 @@
         <v>-0.5</v>
       </c>
       <c r="O8" s="1">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -1991,19 +2093,15 @@
         <v>1000</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y8" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+        <v>52</v>
+      </c>
       <c r="AB8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
       <c r="AE8" s="9">
         <v>20000000</v>
       </c>
@@ -2023,10 +2121,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -2035,15 +2133,15 @@
         <v>4500</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="0"/>
+        <f>AE9*AF9*AG9</f>
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="1"/>
+        <f>AH9*AF9*AE9</f>
         <v>1600000000</v>
       </c>
       <c r="I9" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2061,7 +2159,7 @@
         <v>-0.5</v>
       </c>
       <c r="O9" s="1">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
@@ -2088,11 +2186,11 @@
         <v>1000</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>50</v>
@@ -2116,10 +2214,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2128,15 +2226,15 @@
         <v>4500</v>
       </c>
       <c r="G10" s="9">
-        <f t="shared" si="0"/>
+        <f>AE10*AF10*AG10</f>
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="1"/>
+        <f>AH10*AF10*AE10</f>
         <v>1600000000</v>
       </c>
       <c r="I10" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2154,7 +2252,7 @@
         <v>-0.5</v>
       </c>
       <c r="O10" s="1">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
@@ -2181,11 +2279,11 @@
         <v>1000</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>50</v>
@@ -2209,10 +2307,10 @@
         <v>31</v>
       </c>
       <c r="C11" s="8">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2221,11 +2319,11 @@
         <v>4500</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f>AE11*AF11*AG11</f>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="1"/>
+        <f>AH11*AF11*AE11</f>
         <v>1600000000</v>
       </c>
       <c r="I11" s="1">
@@ -2250,7 +2348,7 @@
         <v>0.75</v>
       </c>
       <c r="P11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
         <v>3</v>
@@ -2274,15 +2372,19 @@
         <v>1000</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y11" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
       <c r="AE11" s="9">
         <v>20000000</v>
       </c>
@@ -2302,10 +2404,10 @@
         <v>31</v>
       </c>
       <c r="C12" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2314,15 +2416,15 @@
         <v>4500</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f>AE12*AF12*AG12</f>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
+        <f>AH12*AF12*AE12</f>
         <v>1600000000</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2340,7 +2442,7 @@
         <v>-0.5</v>
       </c>
       <c r="O12" s="1">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
@@ -2367,15 +2469,19 @@
         <v>1000</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y12" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="9">
         <v>20000000</v>
       </c>
@@ -2395,10 +2501,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2407,15 +2513,15 @@
         <v>4500</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="0"/>
+        <f>AE13*AF13*AG13</f>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
+        <f>AH13*AF13*AE13</f>
         <v>1600000000</v>
       </c>
       <c r="I13" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -2433,7 +2539,7 @@
         <v>-0.5</v>
       </c>
       <c r="O13" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -2460,11 +2566,11 @@
         <v>1000</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>50</v>
@@ -2488,10 +2594,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="8">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2500,15 +2606,15 @@
         <v>4500</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="0"/>
+        <f>AE14*AF14*AG14</f>
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="1"/>
+        <f>AH14*AF14*AE14</f>
         <v>1600000000</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -2526,7 +2632,7 @@
         <v>-0.5</v>
       </c>
       <c r="O14" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -2553,11 +2659,11 @@
         <v>1000</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>50</v>
@@ -2581,10 +2687,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2593,15 +2699,15 @@
         <v>4500</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="0"/>
+        <f>AE15*AF15*AG15</f>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="1"/>
+        <f>AH15*AF15*AE15</f>
         <v>1600000000</v>
       </c>
       <c r="I15" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -2619,10 +2725,10 @@
         <v>-0.5</v>
       </c>
       <c r="O15" s="1">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="3">
         <v>3</v>
@@ -2646,7 +2752,7 @@
         <v>1000</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y15" t="s">
@@ -2686,11 +2792,11 @@
         <v>4500</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" si="0"/>
+        <f>AE16*AF16*AG16</f>
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="1"/>
+        <f>AH16*AF16*AE16</f>
         <v>1600000000</v>
       </c>
       <c r="I16" s="1">
@@ -2739,7 +2845,7 @@
         <v>1000</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y16" t="s">
@@ -2779,11 +2885,11 @@
         <v>4500</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="0"/>
+        <f>AE17*AF17*AG17</f>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="1"/>
+        <f>AH17*AF17*AE17</f>
         <v>1600000000</v>
       </c>
       <c r="I17" s="1">
@@ -2832,7 +2938,7 @@
         <v>1000</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y17" t="s">
@@ -2869,11 +2975,11 @@
         <v>4500</v>
       </c>
       <c r="G18" s="9">
-        <f t="shared" si="0"/>
+        <f>AE18*AF18*AG18</f>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="1"/>
+        <f>AH18*AF18*AE18</f>
         <v>1600000000</v>
       </c>
       <c r="I18" s="1">
@@ -2922,7 +3028,7 @@
         <v>1000</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y18" t="s">
@@ -2942,7 +3048,570 @@
         <v>5</v>
       </c>
     </row>
+    <row r="21" spans="1:34">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G21" s="10">
+        <f>PRODUCT(AE21:AG21)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H21" s="10">
+        <f>PRODUCT(AE21,AF21,AH21)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M21" s="1">
+        <v>10</v>
+      </c>
+      <c r="N21" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P21" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1">
+        <v>10</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V21" s="1">
+        <v>50</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="10">
+        <f>PRODUCT(AE22:AG22)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H22" s="10">
+        <f>PRODUCT(AE22,AF22,AH22)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M22" s="1">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1">
+        <v>20</v>
+      </c>
+      <c r="V22" s="1">
+        <v>150</v>
+      </c>
+      <c r="W22" s="1">
+        <v>800</v>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G23" s="10">
+        <f>PRODUCT(AE23:AG23)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H23" s="10">
+        <f>PRODUCT(AE23,AF23,AH23)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M23" s="1">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>10</v>
+      </c>
+      <c r="T23" s="1">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V23" s="1">
+        <v>50</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G24" s="10">
+        <f>PRODUCT(AE24:AG24)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H24" s="10">
+        <f>PRODUCT(AE24,AF24,AH24)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M24" s="1">
+        <v>10</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>3</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>10</v>
+      </c>
+      <c r="T24" s="1">
+        <v>10</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V24" s="1">
+        <v>50</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X24" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="C26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="C28" s="8">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1">
+        <v>15</v>
+      </c>
+      <c r="O28">
+        <v>0.95</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="C29" s="8">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>0.25</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="C30" s="8">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1">
+        <v>15</v>
+      </c>
+      <c r="O30">
+        <v>0.6</v>
+      </c>
+      <c r="P30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="C31" s="8">
+        <v>31</v>
+      </c>
+      <c r="I31" s="1">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>0.95</v>
+      </c>
+      <c r="P31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="C32" s="8">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.6</v>
+      </c>
+      <c r="P32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="C33" s="8">
+        <v>33</v>
+      </c>
+      <c r="I33" s="1">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>0.25</v>
+      </c>
+      <c r="P33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="C34" s="8">
+        <v>41</v>
+      </c>
+      <c r="I34" s="1">
+        <v>40</v>
+      </c>
+      <c r="O34">
+        <v>0.95</v>
+      </c>
+      <c r="P34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16">
+      <c r="C35" s="8">
+        <v>42</v>
+      </c>
+      <c r="I35" s="1">
+        <v>40</v>
+      </c>
+      <c r="O35">
+        <v>0.6</v>
+      </c>
+      <c r="P35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="C36" s="8">
+        <v>43</v>
+      </c>
+      <c r="I36" s="1">
+        <v>40</v>
+      </c>
+      <c r="O36">
+        <v>0.25</v>
+      </c>
+      <c r="P36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="3:16">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="3:16">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="3:16">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="1"/>
+    </row>
   </sheetData>
+  <sortState ref="A6:AH18">
+    <sortCondition ref="C6:C18"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37580" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
   <si>
     <t>COMMENT</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>001b</t>
+  </si>
+  <si>
+    <t>Half of baseline model SL with hafl dsc</t>
   </si>
 </sst>
 </file>
@@ -282,8 +285,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -413,7 +422,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -462,6 +471,9 @@
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -510,6 +522,9 @@
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1584,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P27" sqref="A27:P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1850,11 +1865,11 @@
         <v>4500</v>
       </c>
       <c r="G6" s="9">
-        <f>AE6*AF6*AG6</f>
+        <f t="shared" ref="G6:G18" si="0">AE6*AF6*AG6</f>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>AH6*AF6*AE6</f>
+        <f t="shared" ref="H6:H18" si="1">AH6*AF6*AE6</f>
         <v>1600000000</v>
       </c>
       <c r="I6" s="1">
@@ -1903,7 +1918,7 @@
         <v>1000</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" ref="X6:X19" si="2">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y6" t="s">
@@ -1947,11 +1962,11 @@
         <v>4500</v>
       </c>
       <c r="G7" s="9">
-        <f>AE7*AF7*AG7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>AH7*AF7*AE7</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I7" s="1">
@@ -2000,7 +2015,7 @@
         <v>1000</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y7" t="s">
@@ -2040,11 +2055,11 @@
         <v>4500</v>
       </c>
       <c r="G8" s="9">
-        <f>AE8*AF8*AG8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <f>AH8*AF8*AE8</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I8" s="1">
@@ -2093,7 +2108,7 @@
         <v>1000</v>
       </c>
       <c r="X8" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y8" t="s">
@@ -2133,11 +2148,11 @@
         <v>4500</v>
       </c>
       <c r="G9" s="9">
-        <f>AE9*AF9*AG9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <f>AH9*AF9*AE9</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I9" s="1">
@@ -2186,7 +2201,7 @@
         <v>1000</v>
       </c>
       <c r="X9" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y9" t="s">
@@ -2226,11 +2241,11 @@
         <v>4500</v>
       </c>
       <c r="G10" s="9">
-        <f>AE10*AF10*AG10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <f>AH10*AF10*AE10</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I10" s="1">
@@ -2279,7 +2294,7 @@
         <v>1000</v>
       </c>
       <c r="X10" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y10" t="s">
@@ -2319,11 +2334,11 @@
         <v>4500</v>
       </c>
       <c r="G11" s="9">
-        <f>AE11*AF11*AG11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f>AH11*AF11*AE11</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I11" s="1">
@@ -2372,7 +2387,7 @@
         <v>1000</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y11" t="s">
@@ -2416,11 +2431,11 @@
         <v>4500</v>
       </c>
       <c r="G12" s="9">
-        <f>AE12*AF12*AG12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f>AH12*AF12*AE12</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I12" s="1">
@@ -2469,7 +2484,7 @@
         <v>1000</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y12" t="s">
@@ -2513,11 +2528,11 @@
         <v>4500</v>
       </c>
       <c r="G13" s="9">
-        <f>AE13*AF13*AG13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f>AH13*AF13*AE13</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I13" s="1">
@@ -2566,7 +2581,7 @@
         <v>1000</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y13" t="s">
@@ -2606,11 +2621,11 @@
         <v>4500</v>
       </c>
       <c r="G14" s="9">
-        <f>AE14*AF14*AG14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f>AH14*AF14*AE14</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I14" s="1">
@@ -2659,7 +2674,7 @@
         <v>1000</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y14" t="s">
@@ -2699,11 +2714,11 @@
         <v>4500</v>
       </c>
       <c r="G15" s="9">
-        <f>AE15*AF15*AG15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f>AH15*AF15*AE15</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I15" s="1">
@@ -2752,7 +2767,7 @@
         <v>1000</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y15" t="s">
@@ -2792,11 +2807,11 @@
         <v>4500</v>
       </c>
       <c r="G16" s="9">
-        <f>AE16*AF16*AG16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <f>AH16*AF16*AE16</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I16" s="1">
@@ -2845,7 +2860,7 @@
         <v>1000</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y16" t="s">
@@ -2885,11 +2900,11 @@
         <v>4500</v>
       </c>
       <c r="G17" s="9">
-        <f>AE17*AF17*AG17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <f>AH17*AF17*AE17</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I17" s="1">
@@ -2938,7 +2953,7 @@
         <v>1000</v>
       </c>
       <c r="X17" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y17" t="s">
@@ -2975,11 +2990,11 @@
         <v>4500</v>
       </c>
       <c r="G18" s="9">
-        <f>AE18*AF18*AG18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f>AH18*AF18*AE18</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I18" s="1">
@@ -3028,7 +3043,7 @@
         <v>1000</v>
       </c>
       <c r="X18" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y18" t="s">
@@ -3048,6 +3063,103 @@
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4500</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" ref="G19" si="3">AE19*AF19*AG19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" ref="H19" si="4">AH19*AF19*AE19</f>
+        <v>1600000000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>3</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V19" s="1">
+        <v>30</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19">
+        <v>5</v>
+      </c>
+    </row>
     <row r="21" spans="1:34">
       <c r="B21" t="s">
         <v>61</v>
@@ -3437,6 +3549,9 @@
       </c>
     </row>
     <row r="26" spans="1:34">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
       <c r="C26" s="8">
         <v>4</v>
       </c>
@@ -3456,6 +3571,9 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:34">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
       <c r="C28" s="8">
         <v>11</v>
       </c>
@@ -3470,6 +3588,9 @@
       </c>
     </row>
     <row r="29" spans="1:34">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
       <c r="C29" s="8">
         <v>12</v>
       </c>
@@ -3484,6 +3605,9 @@
       </c>
     </row>
     <row r="30" spans="1:34">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" s="8">
         <v>13</v>
       </c>
@@ -3498,6 +3622,9 @@
       </c>
     </row>
     <row r="31" spans="1:34">
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
       <c r="C31" s="8">
         <v>31</v>
       </c>
@@ -3512,6 +3639,9 @@
       </c>
     </row>
     <row r="32" spans="1:34">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
       <c r="C32" s="8">
         <v>32</v>
       </c>
@@ -3525,7 +3655,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:16">
+    <row r="33" spans="2:16">
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
       <c r="C33" s="8">
         <v>33</v>
       </c>
@@ -3539,7 +3672,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" spans="2:16">
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
       <c r="C34" s="8">
         <v>41</v>
       </c>
@@ -3553,7 +3689,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="3:16">
+    <row r="35" spans="2:16">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
       <c r="C35" s="8">
         <v>42</v>
       </c>
@@ -3567,7 +3706,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="2:16">
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
       <c r="C36" s="8">
         <v>43</v>
       </c>
@@ -3581,25 +3723,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="2:16">
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="2:16">
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:16">
+    <row r="44" spans="2:16">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="3:16">
+    <row r="45" spans="2:16">
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="3:16">
+    <row r="46" spans="2:16">
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="3:16">
+    <row r="47" spans="2:16">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="2:16">
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="14:14">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37580" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37740" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,8 +285,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -422,7 +424,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -474,6 +476,7 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -525,6 +528,7 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1600,7 +1604,7 @@
   <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B21" sqref="B21:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37740" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>COMMENT</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Half of baseline model SL with hafl dsc</t>
+  </si>
+  <si>
+    <t>Thin SL, model A impedance</t>
+  </si>
+  <si>
+    <t>Thick SL, model A impedance</t>
   </si>
 </sst>
 </file>
@@ -285,8 +291,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,7 +432,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -477,6 +485,7 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -529,6 +538,7 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1601,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1869,11 +1879,11 @@
         <v>4500</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ref="G6:G18" si="0">AE6*AF6*AG6</f>
+        <f t="shared" ref="G6:G20" si="0">AE6*AF6*AG6</f>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H18" si="1">AH6*AF6*AE6</f>
+        <f t="shared" ref="H6:H20" si="1">AH6*AF6*AE6</f>
         <v>1600000000</v>
       </c>
       <c r="I6" s="1">
@@ -1922,7 +1932,7 @@
         <v>1000</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f t="shared" ref="X6:X19" si="2">"1:10:10"</f>
+        <f t="shared" ref="X6:X21" si="2">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y6" t="s">
@@ -2319,17 +2329,11 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2338,15 +2342,15 @@
         <v>4500</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G11:G12" si="3">AE11*AF11*AG11</f>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="1"/>
-        <v>1600000000</v>
+        <f t="shared" ref="H11:H12" si="4">AH11*AF11*AE11</f>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2395,38 +2399,19 @@
         <v>1:10:10</v>
       </c>
       <c r="Y11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="AF11" s="1">
+        <v>52</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="C12" s="8">
         <v>16</v>
       </c>
-      <c r="AG11" s="1"/>
-      <c r="AH11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>22</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2435,15 +2420,15 @@
         <v>4500</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="1"/>
-        <v>1600000000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2492,25 +2477,12 @@
         <v>1:10:10</v>
       </c>
       <c r="Y12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>16</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
@@ -2520,10 +2492,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="8">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2589,11 +2561,15 @@
         <v>1:10:10</v>
       </c>
       <c r="Y13" t="s">
-        <v>56</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
       <c r="AE13" s="9">
         <v>20000000</v>
       </c>
@@ -2613,10 +2589,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2682,11 +2658,15 @@
         <v>1:10:10</v>
       </c>
       <c r="Y14" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
       <c r="AE14" s="9">
         <v>20000000</v>
       </c>
@@ -2706,10 +2686,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="8">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2747,7 +2727,7 @@
         <v>0.75</v>
       </c>
       <c r="P15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3">
         <v>3</v>
@@ -2775,7 +2755,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>50</v>
@@ -2799,10 +2779,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="8">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2868,7 +2848,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>50</v>
@@ -2892,10 +2872,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="8">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2933,7 +2913,7 @@
         <v>0.75</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
@@ -2961,7 +2941,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>50</v>
@@ -2978,14 +2958,17 @@
       </c>
     </row>
     <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="8">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -3005,7 +2988,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -3051,7 +3034,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>50</v>
@@ -3075,10 +3058,10 @@
         <v>31</v>
       </c>
       <c r="C19" s="8">
-        <v>61</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3087,15 +3070,15 @@
         <v>4500</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" ref="G19" si="3">AE19*AF19*AG19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" ref="H19" si="4">AH19*AF19*AE19</f>
+        <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
       <c r="I19" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3104,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="M19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N19" s="1">
         <v>-0.5</v>
@@ -3144,15 +3127,11 @@
         <v>1:10:10</v>
       </c>
       <c r="Y19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AE19" s="9">
         <v>20000000</v>
       </c>
@@ -3164,29 +3143,125 @@
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="1:34">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>4500</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>10</v>
+      </c>
+      <c r="N20" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>10</v>
+      </c>
+      <c r="T20" s="1">
+        <v>10</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V20" s="1">
+        <v>30</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20">
+        <v>5</v>
+      </c>
+    </row>
     <row r="21" spans="1:34">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
       <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="C21" s="8">
-        <v>1</v>
+      <c r="D21" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>4500</v>
       </c>
-      <c r="G21" s="10">
-        <f>PRODUCT(AE21:AG21)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="H21" s="10">
-        <f>PRODUCT(AE21,AF21,AH21)</f>
-        <v>2400000000</v>
+      <c r="G21" s="9">
+        <f t="shared" ref="G21" si="5">AE21*AF21*AG21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" ref="H21" si="6">AH21*AF21*AE21</f>
+        <v>1600000000</v>
       </c>
       <c r="I21" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3195,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="1">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N21" s="1">
         <v>-0.5</v>
@@ -3207,7 +3282,7 @@
         <v>0.75</v>
       </c>
       <c r="P21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="3">
         <v>3</v>
@@ -3225,136 +3300,33 @@
         <v>0.01</v>
       </c>
       <c r="V21" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W21" s="1">
         <v>1000</v>
       </c>
       <c r="X21" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
       <c r="Y21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="9">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AF21" s="1">
         <v>16</v>
       </c>
-      <c r="AG21" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7200</v>
-      </c>
-      <c r="F22" s="1">
-        <v>4500</v>
-      </c>
-      <c r="G22" s="10">
-        <f>PRODUCT(AE22:AG22)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="H22" s="10">
-        <f>PRODUCT(AE22,AF22,AH22)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I22" s="1">
-        <v>30</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="M22" s="1">
-        <v>10</v>
-      </c>
-      <c r="N22" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="P22" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <v>10</v>
-      </c>
-      <c r="T22" s="1">
-        <v>10</v>
-      </c>
-      <c r="U22" s="1">
-        <v>20</v>
-      </c>
-      <c r="V22" s="1">
-        <v>150</v>
-      </c>
-      <c r="W22" s="1">
-        <v>800</v>
-      </c>
-      <c r="X22" s="1" t="str">
-        <f>"1:10:10"</f>
-        <v>1:10:10</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>16</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH22" s="1">
+      <c r="AG21" s="1"/>
+      <c r="AH21">
         <v>5</v>
       </c>
     </row>
@@ -3363,7 +3335,7 @@
         <v>61</v>
       </c>
       <c r="C23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>7200</v>
@@ -3383,7 +3355,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -3459,8 +3431,8 @@
       <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="8">
-        <v>3</v>
+      <c r="C24" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="E24" s="1">
         <v>7200</v>
@@ -3477,7 +3449,7 @@
         <v>2400000000</v>
       </c>
       <c r="I24" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -3513,13 +3485,13 @@
         <v>10</v>
       </c>
       <c r="U24" s="1">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="V24" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="W24" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="X24" s="1" t="str">
         <f>"1:10:10"</f>
@@ -3552,74 +3524,234 @@
         <v>5</v>
       </c>
     </row>
+    <row r="25" spans="1:34">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G25" s="10">
+        <f>PRODUCT(AE25:AG25)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H25" s="10">
+        <f>PRODUCT(AE25,AF25,AH25)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M25" s="1">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>10</v>
+      </c>
+      <c r="T25" s="1">
+        <v>10</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V25" s="1">
+        <v>50</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="26" spans="1:34">
       <c r="B26" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G26" s="10">
+        <f>PRODUCT(AE26:AG26)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H26" s="10">
+        <f>PRODUCT(AE26,AF26,AH26)</f>
+        <v>2400000000</v>
       </c>
       <c r="I26" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
         <v>0.05</v>
       </c>
+      <c r="M26" s="1">
+        <v>10</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.75</v>
+      </c>
       <c r="P26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="P27" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>3</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>10</v>
+      </c>
+      <c r="T26" s="1">
+        <v>10</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V26" s="1">
+        <v>50</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X26" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:34">
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I28" s="1">
-        <v>15</v>
-      </c>
-      <c r="O28">
-        <v>0.95</v>
+        <v>30</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.05</v>
       </c>
       <c r="P28" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="8">
-        <v>12</v>
-      </c>
-      <c r="I29" s="1">
-        <v>15</v>
-      </c>
-      <c r="O29">
-        <v>0.25</v>
-      </c>
-      <c r="P29" s="1">
-        <v>4</v>
-      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:34">
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I30" s="1">
         <v>15</v>
       </c>
       <c r="O30">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="P30" s="1">
         <v>4</v>
@@ -3630,13 +3762,13 @@
         <v>61</v>
       </c>
       <c r="C31" s="8">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O31">
-        <v>0.95</v>
+        <v>0.25</v>
       </c>
       <c r="P31" s="1">
         <v>4</v>
@@ -3647,10 +3779,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="8">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O32">
         <v>0.6</v>
@@ -3664,13 +3796,13 @@
         <v>61</v>
       </c>
       <c r="C33" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1">
         <v>30</v>
       </c>
       <c r="O33">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="P33" s="1">
         <v>4</v>
@@ -3681,13 +3813,13 @@
         <v>61</v>
       </c>
       <c r="C34" s="8">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I34" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O34">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="P34" s="1">
         <v>4</v>
@@ -3698,13 +3830,13 @@
         <v>61</v>
       </c>
       <c r="C35" s="8">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I35" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O35">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="P35" s="1">
         <v>4</v>
@@ -3715,23 +3847,51 @@
         <v>61</v>
       </c>
       <c r="C36" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I36" s="1">
         <v>40</v>
       </c>
       <c r="O36">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="P36" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="N43" s="1"/>
+    <row r="37" spans="2:16">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="8">
+        <v>42</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40</v>
+      </c>
+      <c r="O37">
+        <v>0.6</v>
+      </c>
+      <c r="P37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="8">
+        <v>43</v>
+      </c>
+      <c r="I38" s="1">
+        <v>40</v>
+      </c>
+      <c r="O38">
+        <v>0.25</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="2:16">
       <c r="N44" s="1"/>
@@ -3753,6 +3913,12 @@
     </row>
     <row r="50" spans="14:14">
       <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A6:AH18">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,8 +291,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -432,7 +438,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -486,6 +492,9 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -539,6 +548,9 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1613,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1879,11 +1891,11 @@
         <v>4500</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" ref="G6:G20" si="0">AE6*AF6*AG6</f>
+        <f t="shared" ref="G6:G18" si="0">AE6*AF6*AG6</f>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H20" si="1">AH6*AF6*AE6</f>
+        <f t="shared" ref="H6:H18" si="1">AH6*AF6*AE6</f>
         <v>1600000000</v>
       </c>
       <c r="I6" s="1">
@@ -2329,11 +2341,17 @@
       </c>
     </row>
     <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2342,15 +2360,15 @@
         <v>4500</v>
       </c>
       <c r="G11" s="9">
-        <f t="shared" ref="G11:G12" si="3">AE11*AF11*AG11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" ref="H11:H12" si="4">AH11*AF11*AE11</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
       </c>
       <c r="I11" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2399,19 +2417,38 @@
         <v>1:10:10</v>
       </c>
       <c r="Y11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="1"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>16</v>
+      </c>
       <c r="AG11" s="1"/>
+      <c r="AH11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:34">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2420,15 +2457,15 @@
         <v>4500</v>
       </c>
       <c r="G12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
       </c>
       <c r="I12" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2477,12 +2514,25 @@
         <v>1:10:10</v>
       </c>
       <c r="Y12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB12" s="1"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>16</v>
+      </c>
       <c r="AG12" s="1"/>
+      <c r="AH12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
@@ -2492,10 +2542,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2561,15 +2611,11 @@
         <v>1:10:10</v>
       </c>
       <c r="Y13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+        <v>56</v>
+      </c>
       <c r="AB13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
       <c r="AE13" s="9">
         <v>20000000</v>
       </c>
@@ -2589,10 +2635,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2658,15 +2704,11 @@
         <v>1:10:10</v>
       </c>
       <c r="Y14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+        <v>55</v>
+      </c>
       <c r="AB14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
       <c r="AE14" s="9">
         <v>20000000</v>
       </c>
@@ -2686,10 +2728,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="8">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2727,7 +2769,7 @@
         <v>0.75</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q15" s="3">
         <v>3</v>
@@ -2755,7 +2797,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>50</v>
@@ -2779,10 +2821,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -2848,7 +2890,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>50</v>
@@ -2872,10 +2914,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="8">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2913,7 +2955,7 @@
         <v>0.75</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
         <v>3</v>
@@ -2941,7 +2983,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y17" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>50</v>
@@ -2958,17 +3000,14 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="8">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -2988,7 +3027,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -3034,7 +3073,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>50</v>
@@ -3051,17 +3090,11 @@
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="8">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3070,15 +3103,15 @@
         <v>4500</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G19:G20" si="3">AE19*AF19*AG19</f>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="1"/>
-        <v>1600000000</v>
+        <f t="shared" ref="H19:H20" si="4">AH19*AF19*AE19</f>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3127,31 +3160,19 @@
         <v>1:10:10</v>
       </c>
       <c r="Y19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE19" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="AF19" s="1">
+        <v>52</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="C20" s="8">
         <v>16</v>
       </c>
-      <c r="AG19" s="1"/>
-      <c r="AH19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="8">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
+      <c r="D20" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3160,18 +3181,18 @@
         <v>4500</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="1"/>
-        <v>1600000000</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -3219,19 +3240,10 @@
       <c r="Y20" t="s">
         <v>52</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE20" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>16</v>
-      </c>
+      <c r="AB20" s="1"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20">
-        <v>5</v>
-      </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="17640" yWindow="0" windowWidth="32800" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
   <si>
     <t>COMMENT</t>
   </si>
@@ -291,8 +291,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,7 +460,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -495,6 +517,17 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -551,6 +584,17 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1623,10 +1667,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:W21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3730,43 +3777,392 @@
         <v>5</v>
       </c>
     </row>
+    <row r="27" spans="1:34">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" ref="G27:G36" si="7">PRODUCT(AE27:AG27)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" ref="H27:H36" si="8">PRODUCT(AE27,AF27,AH27)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="P27" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>10</v>
+      </c>
+      <c r="T27" s="1">
+        <v>10</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V27" s="1">
+        <v>50</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f t="shared" ref="X27:X36" si="9">"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="28" spans="1:34">
       <c r="B28" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="8">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
         <v>0.05</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O28">
+        <v>0.95</v>
       </c>
       <c r="P28" s="1">
         <v>4</v>
       </c>
+      <c r="Q28" s="3">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>10</v>
+      </c>
+      <c r="T28" s="1">
+        <v>10</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V28" s="1">
+        <v>50</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X28" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O29">
+        <v>0.25</v>
+      </c>
+      <c r="P29" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>10</v>
+      </c>
+      <c r="T29" s="1">
+        <v>10</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V29" s="1">
+        <v>50</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X29" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:34">
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="8">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I30" s="1">
         <v>15</v>
       </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M30" s="1">
+        <v>10</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-0.5</v>
+      </c>
       <c r="O30">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="P30" s="1">
         <v>4</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>3</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>10</v>
+      </c>
+      <c r="T30" s="1">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V30" s="1">
+        <v>50</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X30" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:34">
@@ -3774,16 +4170,96 @@
         <v>61</v>
       </c>
       <c r="C31" s="8">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I31" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M31" s="1">
+        <v>10</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-0.5</v>
       </c>
       <c r="O31">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="P31" s="1">
         <v>4</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>10</v>
+      </c>
+      <c r="T31" s="1">
+        <v>10</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V31" s="1">
+        <v>50</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X31" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:34">
@@ -3791,61 +4267,330 @@
         <v>61</v>
       </c>
       <c r="C32" s="8">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I32" s="1">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M32" s="1">
+        <v>10</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-0.5</v>
       </c>
       <c r="O32">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="P32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
+      <c r="Q32" s="3">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>10</v>
+      </c>
+      <c r="T32" s="1">
+        <v>10</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V32" s="1">
+        <v>50</v>
+      </c>
+      <c r="W32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X32" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34">
       <c r="B33" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="8">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E33" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I33" s="1">
         <v>30</v>
       </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M33" s="1">
+        <v>10</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-0.5</v>
+      </c>
       <c r="O33">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="P33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
+      <c r="Q33" s="3">
+        <v>3</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>10</v>
+      </c>
+      <c r="T33" s="1">
+        <v>10</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V33" s="1">
+        <v>50</v>
+      </c>
+      <c r="W33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X33" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34">
       <c r="B34" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="8">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M34" s="1">
+        <v>10</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-0.5</v>
       </c>
       <c r="O34">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="P34" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
+      <c r="Q34" s="3">
+        <v>3</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>10</v>
+      </c>
+      <c r="T34" s="1">
+        <v>10</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V34" s="1">
+        <v>50</v>
+      </c>
+      <c r="W34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X34" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34">
       <c r="B35" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="8">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="E35" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I35" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M35" s="1">
+        <v>10</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-0.5</v>
       </c>
       <c r="O35">
         <v>0.25</v>
@@ -3853,71 +4598,174 @@
       <c r="P35" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="2:16">
+      <c r="Q35" s="3">
+        <v>3</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>10</v>
+      </c>
+      <c r="T35" s="1">
+        <v>10</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V35" s="1">
+        <v>50</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X35" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34">
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="8">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="7"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
       </c>
       <c r="I36" s="1">
         <v>40</v>
       </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M36" s="1">
+        <v>10</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-0.5</v>
+      </c>
       <c r="O36">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="P36" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="8">
-        <v>42</v>
-      </c>
-      <c r="I37" s="1">
-        <v>40</v>
-      </c>
-      <c r="O37">
-        <v>0.6</v>
-      </c>
-      <c r="P37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="8">
-        <v>43</v>
-      </c>
-      <c r="I38" s="1">
-        <v>40</v>
-      </c>
-      <c r="O38">
-        <v>0.25</v>
-      </c>
-      <c r="P38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16">
+      <c r="Q36" s="3">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>10</v>
+      </c>
+      <c r="T36" s="1">
+        <v>10</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V36" s="1">
+        <v>50</v>
+      </c>
+      <c r="W36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X36" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:34">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:34">
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:34">
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:34">
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:34">
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:34">
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="14:14">
@@ -3925,12 +4773,6 @@
     </row>
     <row r="50" spans="14:14">
       <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A6:AH18">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="0" windowWidth="32800" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2060" yWindow="840" windowWidth="31320" windowHeight="16660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="67">
   <si>
     <t>COMMENT</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Thick SL, model A impedance</t>
+  </si>
+  <si>
+    <t>051g/052</t>
   </si>
 </sst>
 </file>
@@ -291,8 +294,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -460,7 +475,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -528,6 +543,12 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -595,6 +616,12 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1667,13 +1694,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3150,11 +3177,11 @@
         <v>4500</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" ref="G19:G20" si="3">AE19*AF19*AG19</f>
+        <f>AE19*AF19*AG19</f>
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" ref="H19:H20" si="4">AH19*AF19*AE19</f>
+        <f>AH19*AF19*AE19</f>
         <v>0</v>
       </c>
       <c r="I19" s="1">
@@ -3228,11 +3255,11 @@
         <v>4500</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="3"/>
+        <f>AE20*AF20*AG20</f>
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="4"/>
+        <f>AH20*AF20*AE20</f>
         <v>0</v>
       </c>
       <c r="I20" s="1">
@@ -3312,11 +3339,11 @@
         <v>4500</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" ref="G21" si="5">AE21*AF21*AG21</f>
+        <f>AE21*AF21*AG21</f>
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" ref="H21" si="6">AH21*AF21*AE21</f>
+        <f>AH21*AF21*AE21</f>
         <v>1600000000</v>
       </c>
       <c r="I21" s="1">
@@ -3791,11 +3818,11 @@
         <v>4500</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" ref="G27:G36" si="7">PRODUCT(AE27:AG27)</f>
+        <f t="shared" ref="G27:G36" si="3">PRODUCT(AE27:AG27)</f>
         <v>2400000000</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H36" si="8">PRODUCT(AE27,AF27,AH27)</f>
+        <f t="shared" ref="H27:H36" si="4">PRODUCT(AE27,AF27,AH27)</f>
         <v>2400000000</v>
       </c>
       <c r="I27" s="1">
@@ -3844,7 +3871,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X36" si="9">"1:10:10"</f>
+        <f t="shared" ref="X27:X38" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -3888,11 +3915,11 @@
         <v>4500</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I28" s="1">
@@ -3941,7 +3968,7 @@
         <v>1000</v>
       </c>
       <c r="X28" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y28" t="s">
@@ -3985,11 +4012,11 @@
         <v>4500</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I29" s="1">
@@ -4038,7 +4065,7 @@
         <v>1000</v>
       </c>
       <c r="X29" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y29" t="s">
@@ -4082,11 +4109,11 @@
         <v>4500</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I30" s="1">
@@ -4135,7 +4162,7 @@
         <v>1000</v>
       </c>
       <c r="X30" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y30" t="s">
@@ -4179,11 +4206,11 @@
         <v>4500</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I31" s="1">
@@ -4232,7 +4259,7 @@
         <v>1000</v>
       </c>
       <c r="X31" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y31" t="s">
@@ -4276,11 +4303,11 @@
         <v>4500</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I32" s="1">
@@ -4329,7 +4356,7 @@
         <v>1000</v>
       </c>
       <c r="X32" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y32" t="s">
@@ -4373,11 +4400,11 @@
         <v>4500</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I33" s="1">
@@ -4426,7 +4453,7 @@
         <v>1000</v>
       </c>
       <c r="X33" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y33" t="s">
@@ -4470,11 +4497,11 @@
         <v>4500</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I34" s="1">
@@ -4523,7 +4550,7 @@
         <v>1000</v>
       </c>
       <c r="X34" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y34" t="s">
@@ -4567,11 +4594,11 @@
         <v>4500</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I35" s="1">
@@ -4620,7 +4647,7 @@
         <v>1000</v>
       </c>
       <c r="X35" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y35" t="s">
@@ -4664,11 +4691,11 @@
         <v>4500</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
       <c r="I36" s="1">
@@ -4717,7 +4744,7 @@
         <v>1000</v>
       </c>
       <c r="X36" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Y36" t="s">
@@ -4747,6 +4774,197 @@
         <v>5</v>
       </c>
     </row>
+    <row r="37" spans="2:34">
+      <c r="C37" s="8">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G37" s="10">
+        <f>PRODUCT(AE37:AG37)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H37" s="10">
+        <f>PRODUCT(AE37,AF37,AH37)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M37" s="1">
+        <v>10</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P37" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>3</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>10</v>
+      </c>
+      <c r="T37" s="1">
+        <v>10</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V37" s="1">
+        <v>10</v>
+      </c>
+      <c r="W37" s="1">
+        <v>20</v>
+      </c>
+      <c r="X37" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34">
+      <c r="C38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G38" s="10">
+        <f>PRODUCT(AE38:AG38)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H38" s="10">
+        <f>PRODUCT(AE38,AF38,AH38)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M38" s="1">
+        <v>10</v>
+      </c>
+      <c r="N38" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P38" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>3</v>
+      </c>
+      <c r="R38" s="1">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <v>10</v>
+      </c>
+      <c r="T38" s="1">
+        <v>10</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V38" s="1">
+        <v>10</v>
+      </c>
+      <c r="W38" s="1">
+        <v>20</v>
+      </c>
+      <c r="X38" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34">
+      <c r="N41" s="1"/>
+    </row>
     <row r="42" spans="2:34">
       <c r="N42" s="1"/>
     </row>
@@ -4770,9 +4988,6 @@
     </row>
     <row r="49" spans="14:14">
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A6:AH18">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="840" windowWidth="31320" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
   <si>
     <t>COMMENT</t>
   </si>
@@ -223,7 +223,13 @@
     <t>Thick SL, model A impedance</t>
   </si>
   <si>
-    <t>051g/052</t>
+    <t>Uses CVPREM_001 Qi(z)</t>
+  </si>
+  <si>
+    <t>Uses CVPREM_6000</t>
+  </si>
+  <si>
+    <t>CVPREM_6000</t>
   </si>
 </sst>
 </file>
@@ -239,6 +245,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,8 +301,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -475,7 +492,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="157">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -549,6 +566,11 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -622,6 +644,11 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1697,10 +1724,10 @@
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23:W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3871,7 +3898,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X38" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X41" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -4869,7 +4896,10 @@
       </c>
     </row>
     <row r="38" spans="2:34">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="11">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
         <v>66</v>
       </c>
       <c r="E38" s="1">
@@ -4962,8 +4992,290 @@
         <v>5</v>
       </c>
     </row>
+    <row r="39" spans="2:34">
+      <c r="C39" s="11">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G39" s="10">
+        <f>PRODUCT(AE39:AG39)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H39" s="10">
+        <f>PRODUCT(AE39,AF39,AH39)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>20</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M39" s="1">
+        <v>10</v>
+      </c>
+      <c r="N39" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P39" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>3</v>
+      </c>
+      <c r="R39" s="1">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>10</v>
+      </c>
+      <c r="T39" s="1">
+        <v>10</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V39" s="1">
+        <v>10</v>
+      </c>
+      <c r="W39" s="1">
+        <v>20</v>
+      </c>
+      <c r="X39" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34">
+      <c r="C40" s="11">
+        <v>54</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G40" s="10">
+        <f>PRODUCT(AE40:AG40)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H40" s="10">
+        <f>PRODUCT(AE40,AF40,AH40)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M40" s="1">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P40" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>3</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>10</v>
+      </c>
+      <c r="T40" s="1">
+        <v>10</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V40" s="1">
+        <v>10</v>
+      </c>
+      <c r="W40" s="1">
+        <v>20</v>
+      </c>
+      <c r="X40" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="41" spans="2:34">
-      <c r="N41" s="1"/>
+      <c r="C41" s="11">
+        <v>55</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G41" s="10">
+        <f>PRODUCT(AE41:AG41)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H41" s="10">
+        <f>PRODUCT(AE41,AF41,AH41)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I41" s="1">
+        <v>20</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M41" s="1">
+        <v>10</v>
+      </c>
+      <c r="N41" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P41" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>3</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1">
+        <v>10</v>
+      </c>
+      <c r="T41" s="1">
+        <v>10</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V41" s="1">
+        <v>10</v>
+      </c>
+      <c r="W41" s="1">
+        <v>20</v>
+      </c>
+      <c r="X41" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="2:34">
       <c r="N42" s="1"/>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
   <si>
     <t>COMMENT</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>CVPREM_6000</t>
+  </si>
+  <si>
+    <t>Same as 055 but uses dQdfSTYLE 6</t>
+  </si>
+  <si>
+    <t>same as 055 but dsmin and dsmax are half</t>
+  </si>
+  <si>
+    <t>same as 055 but impendance is .9</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1733,10 @@
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23:W41"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5278,12 +5287,33 @@
       </c>
     </row>
     <row r="42" spans="2:34">
+      <c r="C42" s="8">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
       <c r="N42" s="1"/>
+      <c r="P42" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="2:34">
+      <c r="C43" s="8">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="2:34">
+      <c r="C44" s="8">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="2:34">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37560" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$3:$P$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$B$23:$Y$44</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
   <si>
     <t>COMMENT</t>
   </si>
@@ -239,6 +240,15 @@
   </si>
   <si>
     <t>same as 055 but impendance is .9</t>
+  </si>
+  <si>
+    <t>Same as 55 but uses model 001</t>
+  </si>
+  <si>
+    <t>Same as 55 but uses Dq 4</t>
+  </si>
+  <si>
+    <t>Same as 55 but uses model 001, nad dQ 6</t>
   </si>
 </sst>
 </file>
@@ -310,8 +320,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -501,7 +527,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -580,6 +606,14 @@
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +692,14 @@
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1730,13 +1772,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3907,7 +3952,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X41" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X47" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -4811,6 +4856,9 @@
       </c>
     </row>
     <row r="37" spans="2:34">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
       <c r="C37" s="8">
         <v>51</v>
       </c>
@@ -4905,6 +4953,9 @@
       </c>
     </row>
     <row r="38" spans="2:34">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
       <c r="C38" s="11">
         <v>52</v>
       </c>
@@ -5002,6 +5053,9 @@
       </c>
     </row>
     <row r="39" spans="2:34">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
       <c r="C39" s="11">
         <v>53</v>
       </c>
@@ -5099,6 +5153,9 @@
       </c>
     </row>
     <row r="40" spans="2:34">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="11">
         <v>54</v>
       </c>
@@ -5193,6 +5250,9 @@
       </c>
     </row>
     <row r="41" spans="2:34">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
       <c r="C41" s="11">
         <v>55</v>
       </c>
@@ -5287,43 +5347,604 @@
       </c>
     </row>
     <row r="42" spans="2:34">
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
       <c r="C42" s="8">
         <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="E42" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G42" s="10">
+        <f>PRODUCT(AE42:AG42)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H42" s="10">
+        <f>PRODUCT(AE42,AF42,AH42)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>20</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M42" s="1">
+        <v>10</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.6</v>
+      </c>
       <c r="P42" s="1">
         <v>6</v>
       </c>
+      <c r="Q42" s="3">
+        <v>3</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>10</v>
+      </c>
+      <c r="T42" s="1">
+        <v>10</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V42" s="1">
+        <v>10</v>
+      </c>
+      <c r="W42" s="1">
+        <v>20</v>
+      </c>
+      <c r="X42" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="2:34">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
       <c r="C43" s="8">
         <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="E43" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G43" s="10">
+        <f>PRODUCT(AE43:AG43)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H43" s="10">
+        <f>PRODUCT(AE43,AF43,AH43)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P43" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>3</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>10</v>
+      </c>
+      <c r="T43" s="1">
+        <v>10</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V43" s="1">
+        <v>10</v>
+      </c>
+      <c r="W43" s="1">
+        <v>20</v>
+      </c>
+      <c r="X43" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="2:34">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
       <c r="C44" s="8">
         <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>71</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="E44" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F44" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G44" s="10">
+        <f>PRODUCT(AE44:AG44)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H44" s="10">
+        <f>PRODUCT(AE44,AF44,AH44)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M44" s="1">
+        <v>10</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P44" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>10</v>
+      </c>
+      <c r="T44" s="1">
+        <v>10</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V44" s="1">
+        <v>10</v>
+      </c>
+      <c r="W44" s="1">
+        <v>20</v>
+      </c>
+      <c r="X44" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="2:34">
-      <c r="N45" s="1"/>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="11">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F45" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G45" s="10">
+        <f>PRODUCT(AE45:AG45)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H45" s="10">
+        <f>PRODUCT(AE45,AF45,AH45)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I45" s="1">
+        <v>20</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M45" s="1">
+        <v>10</v>
+      </c>
+      <c r="N45" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P45" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>3</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>10</v>
+      </c>
+      <c r="T45" s="1">
+        <v>10</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V45" s="1">
+        <v>10</v>
+      </c>
+      <c r="W45" s="1">
+        <v>20</v>
+      </c>
+      <c r="X45" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="2:34">
-      <c r="N46" s="1"/>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="11">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F46" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G46" s="10">
+        <f>PRODUCT(AE46:AG46)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H46" s="10">
+        <f>PRODUCT(AE46,AF46,AH46)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I46" s="1">
+        <v>20</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M46" s="1">
+        <v>10</v>
+      </c>
+      <c r="N46" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P46" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>3</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1">
+        <v>10</v>
+      </c>
+      <c r="T46" s="1">
+        <v>10</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V46" s="1">
+        <v>10</v>
+      </c>
+      <c r="W46" s="1">
+        <v>20</v>
+      </c>
+      <c r="X46" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="2:34">
-      <c r="N47" s="1"/>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="11">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F47" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G47" s="10">
+        <f>PRODUCT(AE47:AG47)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H47" s="10">
+        <f>PRODUCT(AE47,AF47,AH47)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I47" s="1">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M47" s="1">
+        <v>10</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P47" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>3</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>10</v>
+      </c>
+      <c r="T47" s="1">
+        <v>10</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V47" s="1">
+        <v>10</v>
+      </c>
+      <c r="W47" s="1">
+        <v>20</v>
+      </c>
+      <c r="X47" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="2:34">
       <c r="N48" s="1"/>
@@ -5335,11 +5956,12 @@
   <sortState ref="A6:AH18">
     <sortCondition ref="C6:C18"/>
   </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="42" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37560" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37620" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1781,7 +1781,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37620" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37660" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="77">
   <si>
     <t>COMMENT</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Same as 55 but uses model 001, nad dQ 6</t>
+  </si>
+  <si>
+    <t>Same as 56 with SL 30km</t>
+  </si>
+  <si>
+    <t>Same as 61 with SL 30km</t>
   </si>
 </sst>
 </file>
@@ -320,8 +326,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="173">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -527,7 +541,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="173">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -614,6 +628,10 @@
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -700,6 +718,10 @@
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1775,13 +1797,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4869,11 +4891,11 @@
         <v>4500</v>
       </c>
       <c r="G37" s="10">
-        <f>PRODUCT(AE37:AG37)</f>
+        <f t="shared" ref="G37:G47" si="6">PRODUCT(AE37:AG37)</f>
         <v>2400000000</v>
       </c>
       <c r="H37" s="10">
-        <f>PRODUCT(AE37,AF37,AH37)</f>
+        <f t="shared" ref="H37:H47" si="7">PRODUCT(AE37,AF37,AH37)</f>
         <v>2400000000</v>
       </c>
       <c r="I37" s="1">
@@ -4969,11 +4991,11 @@
         <v>4500</v>
       </c>
       <c r="G38" s="10">
-        <f>PRODUCT(AE38:AG38)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H38" s="10">
-        <f>PRODUCT(AE38,AF38,AH38)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I38" s="1">
@@ -5069,11 +5091,11 @@
         <v>4500</v>
       </c>
       <c r="G39" s="10">
-        <f>PRODUCT(AE39:AG39)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H39" s="10">
-        <f>PRODUCT(AE39,AF39,AH39)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I39" s="1">
@@ -5166,11 +5188,11 @@
         <v>4500</v>
       </c>
       <c r="G40" s="10">
-        <f>PRODUCT(AE40:AG40)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H40" s="10">
-        <f>PRODUCT(AE40,AF40,AH40)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I40" s="1">
@@ -5263,11 +5285,11 @@
         <v>4500</v>
       </c>
       <c r="G41" s="10">
-        <f>PRODUCT(AE41:AG41)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H41" s="10">
-        <f>PRODUCT(AE41,AF41,AH41)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I41" s="1">
@@ -5363,11 +5385,11 @@
         <v>4500</v>
       </c>
       <c r="G42" s="10">
-        <f>PRODUCT(AE42:AG42)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H42" s="10">
-        <f>PRODUCT(AE42,AF42,AH42)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I42" s="1">
@@ -5463,11 +5485,11 @@
         <v>4500</v>
       </c>
       <c r="G43" s="10">
-        <f>PRODUCT(AE43:AG43)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H43" s="10">
-        <f>PRODUCT(AE43,AF43,AH43)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I43" s="1">
@@ -5563,11 +5585,11 @@
         <v>4500</v>
       </c>
       <c r="G44" s="10">
-        <f>PRODUCT(AE44:AG44)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H44" s="10">
-        <f>PRODUCT(AE44,AF44,AH44)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I44" s="1">
@@ -5663,11 +5685,11 @@
         <v>4500</v>
       </c>
       <c r="G45" s="10">
-        <f>PRODUCT(AE45:AG45)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H45" s="10">
-        <f>PRODUCT(AE45,AF45,AH45)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I45" s="1">
@@ -5763,11 +5785,11 @@
         <v>4500</v>
       </c>
       <c r="G46" s="10">
-        <f>PRODUCT(AE46:AG46)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H46" s="10">
-        <f>PRODUCT(AE46,AF46,AH46)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I46" s="1">
@@ -5851,7 +5873,7 @@
         <v>61</v>
       </c>
       <c r="C47" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>74</v>
@@ -5863,11 +5885,11 @@
         <v>4500</v>
       </c>
       <c r="G47" s="10">
-        <f>PRODUCT(AE47:AG47)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="H47" s="10">
-        <f>PRODUCT(AE47,AF47,AH47)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="I47" s="1">
@@ -5949,8 +5971,38 @@
     <row r="48" spans="2:34">
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="14:14">
+    <row r="49" spans="3:14">
+      <c r="C49" s="8">
+        <v>356</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
       <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="8">
+        <v>361</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="8">
+        <v>456</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="8">
+        <v>461</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A6:AH18">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
   <si>
     <t>COMMENT</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>Same as 61 with SL 30km</t>
+  </si>
+  <si>
+    <t>Same as 56 with SL 40km</t>
+  </si>
+  <si>
+    <t>Same as 61 with SL 40km</t>
   </si>
 </sst>
 </file>
@@ -1800,10 +1806,10 @@
   <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4625,8 +4631,8 @@
       <c r="N34" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O34">
-        <v>0.95</v>
+      <c r="O34" t="s">
+        <v>48</v>
       </c>
       <c r="P34" s="1">
         <v>4</v>
@@ -5993,7 +5999,7 @@
         <v>456</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="3:14">
@@ -6001,7 +6007,7 @@
         <v>461</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37660" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
   <si>
     <t>COMMENT</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Same as 61 with SL 40km</t>
+  </si>
+  <si>
+    <t>Same as 361 but n = -0.3</t>
   </si>
 </sst>
 </file>
@@ -332,8 +335,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -547,7 +556,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -638,6 +647,9 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -728,6 +740,9 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1803,13 +1818,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54:AH54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3980,7 +3995,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X47" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X54" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -5977,37 +5992,489 @@
     <row r="48" spans="2:34">
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:34">
       <c r="C49" s="8">
         <v>356</v>
       </c>
       <c r="D49" t="s">
         <v>75</v>
       </c>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="3:14">
+      <c r="E49" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" ref="G49:G50" si="8">PRODUCT(AE49:AG49)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" ref="H49:H50" si="9">PRODUCT(AE49,AF49,AH49)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I49" s="1">
+        <v>30</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M49" s="1">
+        <v>10</v>
+      </c>
+      <c r="N49" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P49" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>3</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>10</v>
+      </c>
+      <c r="T49" s="1">
+        <v>10</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V49" s="1">
+        <v>10</v>
+      </c>
+      <c r="W49" s="1">
+        <v>20</v>
+      </c>
+      <c r="X49" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:34">
       <c r="C50" s="8">
         <v>361</v>
       </c>
       <c r="D50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="3:14">
+      <c r="E50" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="8"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="9"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I50" s="1">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M50" s="1">
+        <v>10</v>
+      </c>
+      <c r="N50" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P50" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>3</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>10</v>
+      </c>
+      <c r="T50" s="1">
+        <v>10</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V50" s="1">
+        <v>10</v>
+      </c>
+      <c r="W50" s="1">
+        <v>20</v>
+      </c>
+      <c r="X50" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:34">
       <c r="C51" s="8">
         <v>456</v>
       </c>
       <c r="D51" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="3:14">
+      <c r="E51" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" ref="G51:G52" si="10">PRODUCT(AE51:AG51)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" ref="H51:H52" si="11">PRODUCT(AE51,AF51,AH51)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I51" s="1">
+        <v>40</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M51" s="1">
+        <v>10</v>
+      </c>
+      <c r="N51" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P51" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>3</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>10</v>
+      </c>
+      <c r="T51" s="1">
+        <v>10</v>
+      </c>
+      <c r="U51" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V51" s="1">
+        <v>10</v>
+      </c>
+      <c r="W51" s="1">
+        <v>20</v>
+      </c>
+      <c r="X51" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:34">
       <c r="C52" s="8">
         <v>461</v>
       </c>
       <c r="D52" t="s">
         <v>78</v>
+      </c>
+      <c r="E52" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="10"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="11"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I52" s="1">
+        <v>40</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="1">
+        <v>10</v>
+      </c>
+      <c r="N52" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O52" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P52" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>3</v>
+      </c>
+      <c r="R52" s="1">
+        <v>1</v>
+      </c>
+      <c r="S52" s="1">
+        <v>10</v>
+      </c>
+      <c r="T52" s="1">
+        <v>10</v>
+      </c>
+      <c r="U52" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V52" s="1">
+        <v>10</v>
+      </c>
+      <c r="W52" s="1">
+        <v>20</v>
+      </c>
+      <c r="X52" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:34">
+      <c r="C54" s="8">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" ref="G54" si="12">PRODUCT(AE54:AG54)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" ref="H54" si="13">PRODUCT(AE54,AF54,AH54)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>30</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M54" s="1">
+        <v>10</v>
+      </c>
+      <c r="N54" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P54" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>3</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>10</v>
+      </c>
+      <c r="T54" s="1">
+        <v>10</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V54" s="1">
+        <v>10</v>
+      </c>
+      <c r="W54" s="1">
+        <v>20</v>
+      </c>
+      <c r="X54" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1220" yWindow="600" windowWidth="34140" windowHeight="16620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="81">
   <si>
     <t>COMMENT</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Same as 361 but n = -0.3</t>
+  </si>
+  <si>
+    <t>Same as 361 but n = -0.6</t>
   </si>
 </sst>
 </file>
@@ -335,8 +338,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -556,7 +573,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -650,6 +667,13 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -743,6 +767,13 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1818,13 +1849,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54:AH54"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3995,7 +4026,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X54" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X53" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -4646,8 +4677,8 @@
       <c r="N34" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O34" t="s">
-        <v>48</v>
+      <c r="O34">
+        <v>0.95</v>
       </c>
       <c r="P34" s="1">
         <v>4</v>
@@ -5990,14 +6021,108 @@
       </c>
     </row>
     <row r="48" spans="2:34">
-      <c r="N48" s="1"/>
+      <c r="C48" s="8">
+        <v>356</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F48" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" ref="G48:G49" si="8">PRODUCT(AE48:AG48)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" ref="H48:H49" si="9">PRODUCT(AE48,AF48,AH48)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I48" s="1">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M48" s="1">
+        <v>10</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P48" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>3</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>10</v>
+      </c>
+      <c r="T48" s="1">
+        <v>10</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V48" s="1">
+        <v>10</v>
+      </c>
+      <c r="W48" s="1">
+        <v>20</v>
+      </c>
+      <c r="X48" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="3:34">
       <c r="C49" s="8">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" s="1">
         <v>7200</v>
@@ -6006,11 +6131,11 @@
         <v>4500</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" ref="G49:G50" si="8">PRODUCT(AE49:AG49)</f>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" ref="H49:H50" si="9">PRODUCT(AE49,AF49,AH49)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I49" s="1">
@@ -6063,7 +6188,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y49" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
@@ -6091,10 +6216,10 @@
     </row>
     <row r="50" spans="3:34">
       <c r="C50" s="8">
-        <v>361</v>
+        <v>456</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="1">
         <v>7200</v>
@@ -6103,15 +6228,15 @@
         <v>4500</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G50:G51" si="10">PRODUCT(AE50:AG50)</f>
         <v>2400000000</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H50:H51" si="11">PRODUCT(AE50,AF50,AH50)</f>
         <v>2400000000</v>
       </c>
       <c r="I50" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J50" s="1">
         <v>2.5000000000000001E-3</v>
@@ -6160,7 +6285,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y50" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
@@ -6188,10 +6313,10 @@
     </row>
     <row r="51" spans="3:34">
       <c r="C51" s="8">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1">
         <v>7200</v>
@@ -6200,11 +6325,11 @@
         <v>4500</v>
       </c>
       <c r="G51" s="10">
-        <f t="shared" ref="G51:G52" si="10">PRODUCT(AE51:AG51)</f>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" ref="H51:H52" si="11">PRODUCT(AE51,AF51,AH51)</f>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I51" s="1">
@@ -6257,7 +6382,7 @@
         <v>1:10:10</v>
       </c>
       <c r="Y51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
@@ -6285,10 +6410,10 @@
     </row>
     <row r="52" spans="3:34">
       <c r="C52" s="8">
-        <v>461</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52" s="1">
         <v>7200</v>
@@ -6297,15 +6422,15 @@
         <v>4500</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G52" si="12">PRODUCT(AE52:AG52)</f>
         <v>2400000000</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H52" si="13">PRODUCT(AE52,AF52,AH52)</f>
         <v>2400000000</v>
       </c>
       <c r="I52" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J52" s="1">
         <v>2.5000000000000001E-3</v>
@@ -6380,100 +6505,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="3:34">
-      <c r="C54" s="8">
+    <row r="53" spans="3:34">
+      <c r="C53" s="8">
         <v>62</v>
       </c>
-      <c r="D54" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="1">
         <v>7200</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F53" s="1">
         <v>4500</v>
       </c>
-      <c r="G54" s="10">
-        <f t="shared" ref="G54" si="12">PRODUCT(AE54:AG54)</f>
+      <c r="G53" s="10">
+        <f t="shared" ref="G53" si="14">PRODUCT(AE53:AG53)</f>
         <v>2400000000</v>
       </c>
-      <c r="H54" s="10">
-        <f t="shared" ref="H54" si="13">PRODUCT(AE54,AF54,AH54)</f>
+      <c r="H53" s="10">
+        <f t="shared" ref="H53" si="15">PRODUCT(AE53,AF53,AH53)</f>
         <v>2400000000</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I53" s="1">
         <v>30</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J53" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
-      <c r="L54" s="1">
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
         <v>0.05</v>
       </c>
-      <c r="M54" s="1">
-        <v>10</v>
-      </c>
-      <c r="N54" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="O54" s="1">
+      <c r="M53" s="1">
+        <v>10</v>
+      </c>
+      <c r="N53" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="O53" s="1">
         <v>0.6</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P53" s="1">
         <v>6</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q53" s="3">
         <v>3</v>
       </c>
-      <c r="R54" s="1">
-        <v>1</v>
-      </c>
-      <c r="S54" s="1">
-        <v>10</v>
-      </c>
-      <c r="T54" s="1">
-        <v>10</v>
-      </c>
-      <c r="U54" s="1">
+      <c r="R53" s="1">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1">
+        <v>10</v>
+      </c>
+      <c r="T53" s="1">
+        <v>10</v>
+      </c>
+      <c r="U53" s="1">
         <v>0.01</v>
       </c>
-      <c r="V54" s="1">
-        <v>10</v>
-      </c>
-      <c r="W54" s="1">
+      <c r="V53" s="1">
+        <v>10</v>
+      </c>
+      <c r="W53" s="1">
         <v>20</v>
       </c>
-      <c r="X54" s="1" t="str">
+      <c r="X53" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Y53" t="s">
         <v>59</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC54" s="1" t="s">
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="9">
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AF53" s="1">
         <v>16</v>
       </c>
-      <c r="AG54" s="1">
-        <v>5</v>
-      </c>
-      <c r="AH54" s="1">
+      <c r="AG53" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH53" s="1">
         <v>5</v>
       </c>
     </row>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="600" windowWidth="34140" windowHeight="16620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1180" yWindow="600" windowWidth="35600" windowHeight="17980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="81">
   <si>
     <t>COMMENT</t>
   </si>
@@ -1852,10 +1852,10 @@
   <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1872,7 +1872,7 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -1902,7 +1902,6 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="1"/>
@@ -1930,7 +1929,6 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="1"/>
@@ -2056,7 +2054,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="1"/>
@@ -2084,7 +2081,6 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="1"/>
@@ -3572,6 +3568,9 @@
       </c>
     </row>
     <row r="23" spans="1:34">
+      <c r="A23">
+        <v>1</v>
+      </c>
       <c r="B23" t="s">
         <v>61</v>
       </c>
@@ -3669,6 +3668,9 @@
       </c>
     </row>
     <row r="24" spans="1:34">
+      <c r="A24">
+        <v>2</v>
+      </c>
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -3766,6 +3768,9 @@
       </c>
     </row>
     <row r="25" spans="1:34">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
         <v>61</v>
       </c>
@@ -3863,6 +3868,9 @@
       </c>
     </row>
     <row r="26" spans="1:34">
+      <c r="A26">
+        <v>4</v>
+      </c>
       <c r="B26" t="s">
         <v>61</v>
       </c>
@@ -3960,6 +3968,9 @@
       </c>
     </row>
     <row r="27" spans="1:34">
+      <c r="A27">
+        <v>5</v>
+      </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
@@ -4057,6 +4068,9 @@
       </c>
     </row>
     <row r="28" spans="1:34">
+      <c r="A28">
+        <v>6</v>
+      </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -4095,7 +4109,7 @@
       <c r="N28" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>0.95</v>
       </c>
       <c r="P28" s="1">
@@ -4154,6 +4168,9 @@
       </c>
     </row>
     <row r="29" spans="1:34">
+      <c r="A29">
+        <v>7</v>
+      </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -4192,7 +4209,7 @@
       <c r="N29" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>0.25</v>
       </c>
       <c r="P29" s="1">
@@ -4251,6 +4268,9 @@
       </c>
     </row>
     <row r="30" spans="1:34">
+      <c r="A30">
+        <v>8</v>
+      </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
@@ -4289,7 +4309,7 @@
       <c r="N30" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>0.6</v>
       </c>
       <c r="P30" s="1">
@@ -4348,6 +4368,9 @@
       </c>
     </row>
     <row r="31" spans="1:34">
+      <c r="A31">
+        <v>9</v>
+      </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
@@ -4386,7 +4409,7 @@
       <c r="N31" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>0.95</v>
       </c>
       <c r="P31" s="1">
@@ -4445,6 +4468,9 @@
       </c>
     </row>
     <row r="32" spans="1:34">
+      <c r="A32">
+        <v>10</v>
+      </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
@@ -4483,7 +4509,7 @@
       <c r="N32" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>0.25</v>
       </c>
       <c r="P32" s="1">
@@ -4541,7 +4567,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:34">
+    <row r="33" spans="1:34">
+      <c r="A33">
+        <v>11</v>
+      </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
@@ -4580,7 +4609,7 @@
       <c r="N33" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>0.6</v>
       </c>
       <c r="P33" s="1">
@@ -4638,7 +4667,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:34">
+    <row r="34" spans="1:34">
+      <c r="A34">
+        <v>12</v>
+      </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
@@ -4677,7 +4709,7 @@
       <c r="N34" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>0.95</v>
       </c>
       <c r="P34" s="1">
@@ -4735,7 +4767,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:34">
+    <row r="35" spans="1:34">
+      <c r="A35">
+        <v>13</v>
+      </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -4774,7 +4809,7 @@
       <c r="N35" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>0.25</v>
       </c>
       <c r="P35" s="1">
@@ -4832,7 +4867,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:34">
+    <row r="36" spans="1:34">
+      <c r="A36">
+        <v>14</v>
+      </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -4871,7 +4909,7 @@
       <c r="N36" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>0.6</v>
       </c>
       <c r="P36" s="1">
@@ -4929,7 +4967,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:34">
+    <row r="37" spans="1:34">
+      <c r="A37">
+        <v>15</v>
+      </c>
       <c r="B37" t="s">
         <v>61</v>
       </c>
@@ -5026,7 +5067,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:34">
+    <row r="38" spans="1:34">
+      <c r="A38">
+        <v>16</v>
+      </c>
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -5126,7 +5170,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:34">
+    <row r="39" spans="1:34">
+      <c r="A39">
+        <v>17</v>
+      </c>
       <c r="B39" t="s">
         <v>61</v>
       </c>
@@ -5226,7 +5273,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:34">
+    <row r="40" spans="1:34">
+      <c r="A40">
+        <v>18</v>
+      </c>
       <c r="B40" t="s">
         <v>61</v>
       </c>
@@ -5323,7 +5373,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:34">
+    <row r="41" spans="1:34">
+      <c r="A41">
+        <v>19</v>
+      </c>
       <c r="B41" t="s">
         <v>61</v>
       </c>
@@ -5420,7 +5473,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:34">
+    <row r="42" spans="1:34">
+      <c r="A42">
+        <v>20</v>
+      </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
@@ -5520,7 +5576,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:34">
+    <row r="43" spans="1:34">
+      <c r="A43">
+        <v>21</v>
+      </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -5620,7 +5679,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:34">
+    <row r="44" spans="1:34">
+      <c r="A44">
+        <v>22</v>
+      </c>
       <c r="B44" t="s">
         <v>61</v>
       </c>
@@ -5720,7 +5782,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="2:34">
+    <row r="45" spans="1:34">
+      <c r="A45">
+        <v>23</v>
+      </c>
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -5820,7 +5885,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:34">
+    <row r="46" spans="1:34">
+      <c r="A46">
+        <v>24</v>
+      </c>
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -5920,7 +5988,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:34">
+    <row r="47" spans="1:34">
+      <c r="A47">
+        <v>25</v>
+      </c>
       <c r="B47" t="s">
         <v>61</v>
       </c>
@@ -6020,7 +6091,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:34">
+    <row r="48" spans="1:34">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
       <c r="C48" s="8">
         <v>356</v>
       </c>
@@ -6117,7 +6194,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="3:34">
+    <row r="49" spans="1:34">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
       <c r="C49" s="8">
         <v>361</v>
       </c>
@@ -6214,7 +6297,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="3:34">
+    <row r="50" spans="1:34">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
       <c r="C50" s="8">
         <v>456</v>
       </c>
@@ -6311,7 +6400,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="3:34">
+    <row r="51" spans="1:34">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
       <c r="C51" s="8">
         <v>461</v>
       </c>
@@ -6408,7 +6503,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="3:34">
+    <row r="52" spans="1:34">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
       <c r="C52" s="8">
         <v>62</v>
       </c>
@@ -6505,9 +6606,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="3:34">
+    <row r="53" spans="1:34">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
       <c r="C53" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="600" windowWidth="35600" windowHeight="17980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-840" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
   <si>
     <t>COMMENT</t>
   </si>
@@ -267,6 +267,24 @@
   </si>
   <si>
     <t>Same as 361 but n = -0.6</t>
+  </si>
+  <si>
+    <t>Same as 361 but Qi is doubled from cvprem001</t>
+  </si>
+  <si>
+    <t>CVPREM_001b</t>
+  </si>
+  <si>
+    <t>064b</t>
+  </si>
+  <si>
+    <t>Same as 064 but bgscat = 0.005</t>
+  </si>
+  <si>
+    <t>Same as 361 but uses CVPREM9000</t>
+  </si>
+  <si>
+    <t>CVPREM_9000</t>
   </si>
 </sst>
 </file>
@@ -282,7 +300,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,8 +356,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="201">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,7 +607,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="201">
+  <cellStyles count="217">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -674,6 +708,14 @@
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -774,6 +816,14 @@
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1849,13 +1899,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4037,7 +4087,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X53" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X56" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -6546,7 +6596,7 @@
         <v>10</v>
       </c>
       <c r="N52" s="1">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="O52" s="1">
         <v>0.6</v>
@@ -6626,11 +6676,11 @@
         <v>4500</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" ref="G53" si="14">PRODUCT(AE53:AG53)</f>
+        <f t="shared" ref="G53:G54" si="14">PRODUCT(AE53:AG53)</f>
         <v>2400000000</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" ref="H53" si="15">PRODUCT(AE53,AF53,AH53)</f>
+        <f t="shared" ref="H53:H54" si="15">PRODUCT(AE53,AF53,AH53)</f>
         <v>2400000000</v>
       </c>
       <c r="I53" s="1">
@@ -6706,6 +6756,297 @@
         <v>5</v>
       </c>
       <c r="AH53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="C54" s="8">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="14"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="15"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>30</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M54" s="1">
+        <v>10</v>
+      </c>
+      <c r="N54" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P54" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>3</v>
+      </c>
+      <c r="R54" s="1">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1">
+        <v>10</v>
+      </c>
+      <c r="T54" s="1">
+        <v>10</v>
+      </c>
+      <c r="U54" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V54" s="1">
+        <v>10</v>
+      </c>
+      <c r="W54" s="1">
+        <v>20</v>
+      </c>
+      <c r="X54" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="C55" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" ref="G55:G56" si="16">PRODUCT(AE55:AG55)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" ref="H55:H56" si="17">PRODUCT(AE55,AF55,AH55)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>30</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M55" s="1">
+        <v>10</v>
+      </c>
+      <c r="N55" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P55" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>3</v>
+      </c>
+      <c r="R55" s="1">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1">
+        <v>10</v>
+      </c>
+      <c r="T55" s="1">
+        <v>10</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V55" s="1">
+        <v>10</v>
+      </c>
+      <c r="W55" s="1">
+        <v>20</v>
+      </c>
+      <c r="X55" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="C56" s="8">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="17"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>30</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M56" s="1">
+        <v>10</v>
+      </c>
+      <c r="N56" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P56" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>3</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>10</v>
+      </c>
+      <c r="T56" s="1">
+        <v>10</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V56" s="1">
+        <v>10</v>
+      </c>
+      <c r="W56" s="1">
+        <v>20</v>
+      </c>
+      <c r="X56" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF56" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH56" s="1">
         <v>5</v>
       </c>
     </row>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="89">
   <si>
     <t>COMMENT</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>CVPREM_9000</t>
+  </si>
+  <si>
+    <t>Same as 361 but dsmax is 2.5</t>
+  </si>
+  <si>
+    <t>Same as 072 but uses CVPREM_6000</t>
   </si>
 </sst>
 </file>
@@ -356,8 +362,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -607,7 +619,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="223">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -716,6 +728,9 @@
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -824,6 +839,9 @@
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1899,13 +1917,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AH58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4087,7 +4105,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X56" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X58" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -6870,11 +6888,11 @@
         <v>4500</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" ref="G55:G56" si="16">PRODUCT(AE55:AG55)</f>
+        <f t="shared" ref="G55:G57" si="16">PRODUCT(AE55:AG55)</f>
         <v>2400000000</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" ref="H55:H56" si="17">PRODUCT(AE55,AF55,AH55)</f>
+        <f t="shared" ref="H55:H57" si="17">PRODUCT(AE55,AF55,AH55)</f>
         <v>2400000000</v>
       </c>
       <c r="I55" s="1">
@@ -7047,6 +7065,200 @@
         <v>5</v>
       </c>
       <c r="AH56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="C57" s="8">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="17"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I57" s="1">
+        <v>30</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M57" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P57" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>3</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>10</v>
+      </c>
+      <c r="T57" s="1">
+        <v>10</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V57" s="1">
+        <v>10</v>
+      </c>
+      <c r="W57" s="1">
+        <v>20</v>
+      </c>
+      <c r="X57" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="C58" s="8">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" ref="G58" si="18">PRODUCT(AE58:AG58)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" ref="H58" si="19">PRODUCT(AE58,AF58,AH58)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I58" s="1">
+        <v>30</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P58" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>3</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>10</v>
+      </c>
+      <c r="T58" s="1">
+        <v>10</v>
+      </c>
+      <c r="U58" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V58" s="1">
+        <v>10</v>
+      </c>
+      <c r="W58" s="1">
+        <v>20</v>
+      </c>
+      <c r="X58" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH58" s="1">
         <v>5</v>
       </c>
     </row>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="101">
   <si>
     <t>COMMENT</t>
   </si>
@@ -291,6 +291,42 @@
   </si>
   <si>
     <t>Same as 072 but uses CVPREM_6000</t>
+  </si>
+  <si>
+    <t>064c</t>
+  </si>
+  <si>
+    <t>064_4</t>
+  </si>
+  <si>
+    <t>064_5</t>
+  </si>
+  <si>
+    <t>064_005</t>
+  </si>
+  <si>
+    <t>064_060</t>
+  </si>
+  <si>
+    <t>064_100</t>
+  </si>
+  <si>
+    <t>065c</t>
+  </si>
+  <si>
+    <t>065_4</t>
+  </si>
+  <si>
+    <t>065_5</t>
+  </si>
+  <si>
+    <t>065_005</t>
+  </si>
+  <si>
+    <t>065_060</t>
+  </si>
+  <si>
+    <t>065_100</t>
   </si>
 </sst>
 </file>
@@ -306,7 +342,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,8 +397,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="223">
+  <cellStyleXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -619,7 +662,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="223">
+  <cellStyles count="231">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -731,6 +774,10 @@
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -842,6 +889,10 @@
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1176,7 +1227,7 @@
   </sheetPr>
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:P37"/>
     </sheetView>
   </sheetViews>
@@ -1917,13 +1968,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH58"/>
+  <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y58" sqref="Y58"/>
+      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3383,6 +3434,9 @@
       </c>
     </row>
     <row r="19" spans="1:34">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
       <c r="C19" s="8">
         <v>15</v>
       </c>
@@ -3461,6 +3515,9 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:34">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
       <c r="C20" s="8">
         <v>16</v>
       </c>
@@ -4105,7 +4162,7 @@
         <v>1000</v>
       </c>
       <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X58" si="5">"1:10:10"</f>
+        <f t="shared" ref="X27:X72" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Y27" t="s">
@@ -7259,6 +7316,1134 @@
         <v>5</v>
       </c>
       <c r="AH58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="C60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" ref="G60:G65" si="20">PRODUCT(AE60:AG60)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" ref="H60:H65" si="21">PRODUCT(AE60,AF60,AH60)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I60" s="1">
+        <v>30</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M60" s="1">
+        <v>10</v>
+      </c>
+      <c r="N60" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P60" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>3</v>
+      </c>
+      <c r="R60" s="1">
+        <v>1</v>
+      </c>
+      <c r="S60" s="1">
+        <v>10</v>
+      </c>
+      <c r="T60" s="1">
+        <v>10</v>
+      </c>
+      <c r="U60" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V60" s="1">
+        <v>10</v>
+      </c>
+      <c r="W60" s="1">
+        <v>20</v>
+      </c>
+      <c r="X60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF60" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="C61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="21"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I61" s="1">
+        <v>30</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M61" s="1">
+        <v>10</v>
+      </c>
+      <c r="N61" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P61" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>3</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1">
+        <v>10</v>
+      </c>
+      <c r="T61" s="1">
+        <v>10</v>
+      </c>
+      <c r="U61" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V61" s="1">
+        <v>10</v>
+      </c>
+      <c r="W61" s="1">
+        <v>20</v>
+      </c>
+      <c r="X61" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="C62" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="21"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I62" s="1">
+        <v>30</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M62" s="1">
+        <v>10</v>
+      </c>
+      <c r="N62" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P62" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>3</v>
+      </c>
+      <c r="R62" s="1">
+        <v>1</v>
+      </c>
+      <c r="S62" s="1">
+        <v>10</v>
+      </c>
+      <c r="T62" s="1">
+        <v>10</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V62" s="1">
+        <v>10</v>
+      </c>
+      <c r="W62" s="1">
+        <v>20</v>
+      </c>
+      <c r="X62" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="C63" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="21"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M63" s="1">
+        <v>10</v>
+      </c>
+      <c r="N63" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P63" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>3</v>
+      </c>
+      <c r="R63" s="1">
+        <v>1</v>
+      </c>
+      <c r="S63" s="1">
+        <v>10</v>
+      </c>
+      <c r="T63" s="1">
+        <v>10</v>
+      </c>
+      <c r="U63" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V63" s="1">
+        <v>10</v>
+      </c>
+      <c r="W63" s="1">
+        <v>20</v>
+      </c>
+      <c r="X63" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="C64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F64" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H64" s="10">
+        <f t="shared" si="21"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I64" s="1">
+        <v>60</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M64" s="1">
+        <v>10</v>
+      </c>
+      <c r="N64" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P64" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>3</v>
+      </c>
+      <c r="R64" s="1">
+        <v>1</v>
+      </c>
+      <c r="S64" s="1">
+        <v>10</v>
+      </c>
+      <c r="T64" s="1">
+        <v>10</v>
+      </c>
+      <c r="U64" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V64" s="1">
+        <v>10</v>
+      </c>
+      <c r="W64" s="1">
+        <v>20</v>
+      </c>
+      <c r="X64" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF64" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:34">
+      <c r="C65" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F65" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G65" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="21"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>100</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10</v>
+      </c>
+      <c r="N65" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P65" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>3</v>
+      </c>
+      <c r="R65" s="1">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>10</v>
+      </c>
+      <c r="T65" s="1">
+        <v>10</v>
+      </c>
+      <c r="U65" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V65" s="1">
+        <v>10</v>
+      </c>
+      <c r="W65" s="1">
+        <v>20</v>
+      </c>
+      <c r="X65" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF65" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:34">
+      <c r="C67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" ref="G67:G72" si="22">PRODUCT(AE67:AG67)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" ref="H67:H72" si="23">PRODUCT(AE67,AF67,AH67)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I67" s="1">
+        <v>30</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M67" s="1">
+        <v>10</v>
+      </c>
+      <c r="N67" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P67" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>3</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1</v>
+      </c>
+      <c r="S67" s="1">
+        <v>10</v>
+      </c>
+      <c r="T67" s="1">
+        <v>10</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V67" s="1">
+        <v>10</v>
+      </c>
+      <c r="W67" s="1">
+        <v>20</v>
+      </c>
+      <c r="X67" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:34">
+      <c r="C68" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F68" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G68" s="10">
+        <f t="shared" si="22"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H68" s="10">
+        <f t="shared" si="23"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I68" s="1">
+        <v>30</v>
+      </c>
+      <c r="J68" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M68" s="1">
+        <v>10</v>
+      </c>
+      <c r="N68" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P68" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>3</v>
+      </c>
+      <c r="R68" s="1">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1">
+        <v>10</v>
+      </c>
+      <c r="T68" s="1">
+        <v>10</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V68" s="1">
+        <v>10</v>
+      </c>
+      <c r="W68" s="1">
+        <v>20</v>
+      </c>
+      <c r="X68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:34">
+      <c r="C69" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F69" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G69" s="10">
+        <f t="shared" si="22"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H69" s="10">
+        <f t="shared" si="23"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I69" s="1">
+        <v>30</v>
+      </c>
+      <c r="J69" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M69" s="1">
+        <v>10</v>
+      </c>
+      <c r="N69" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P69" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>3</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1</v>
+      </c>
+      <c r="S69" s="1">
+        <v>10</v>
+      </c>
+      <c r="T69" s="1">
+        <v>10</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V69" s="1">
+        <v>10</v>
+      </c>
+      <c r="W69" s="1">
+        <v>20</v>
+      </c>
+      <c r="X69" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF69" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:34">
+      <c r="C70" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F70" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G70" s="10">
+        <f t="shared" si="22"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="23"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I70" s="1">
+        <v>5</v>
+      </c>
+      <c r="J70" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M70" s="1">
+        <v>10</v>
+      </c>
+      <c r="N70" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P70" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>3</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>10</v>
+      </c>
+      <c r="T70" s="1">
+        <v>10</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V70" s="1">
+        <v>10</v>
+      </c>
+      <c r="W70" s="1">
+        <v>20</v>
+      </c>
+      <c r="X70" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF70" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:34">
+      <c r="C71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F71" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" si="22"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="23"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I71" s="1">
+        <v>60</v>
+      </c>
+      <c r="J71" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M71" s="1">
+        <v>10</v>
+      </c>
+      <c r="N71" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P71" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>3</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1</v>
+      </c>
+      <c r="S71" s="1">
+        <v>10</v>
+      </c>
+      <c r="T71" s="1">
+        <v>10</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V71" s="1">
+        <v>10</v>
+      </c>
+      <c r="W71" s="1">
+        <v>20</v>
+      </c>
+      <c r="X71" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:34">
+      <c r="C72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G72" s="10">
+        <f t="shared" si="22"/>
+        <v>2400000000</v>
+      </c>
+      <c r="H72" s="10">
+        <f t="shared" si="23"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I72" s="1">
+        <v>100</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M72" s="1">
+        <v>10</v>
+      </c>
+      <c r="N72" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P72" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>3</v>
+      </c>
+      <c r="R72" s="1">
+        <v>1</v>
+      </c>
+      <c r="S72" s="1">
+        <v>10</v>
+      </c>
+      <c r="T72" s="1">
+        <v>10</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V72" s="1">
+        <v>10</v>
+      </c>
+      <c r="W72" s="1">
+        <v>20</v>
+      </c>
+      <c r="X72" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH72" s="1">
         <v>5</v>
       </c>
     </row>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="104">
   <si>
     <t>COMMENT</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>065_100</t>
+  </si>
+  <si>
+    <t>WEBER</t>
+  </si>
+  <si>
+    <t>Same as 064 but with WEBER model</t>
+  </si>
+  <si>
+    <t>WEBER_001</t>
   </si>
 </sst>
 </file>
@@ -397,8 +406,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="231">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -662,7 +701,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="231">
+  <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -778,6 +817,21 @@
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -893,6 +947,21 @@
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1968,13 +2037,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH72"/>
+  <dimension ref="A1:AH75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7789,7 +7858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="3:34">
+    <row r="65" spans="2:34">
       <c r="C65" s="8" t="s">
         <v>94</v>
       </c>
@@ -7883,7 +7952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="3:34">
+    <row r="67" spans="2:34">
       <c r="C67" s="8" t="s">
         <v>95</v>
       </c>
@@ -7977,7 +8046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:34">
+    <row r="68" spans="2:34">
       <c r="C68" s="8" t="s">
         <v>96</v>
       </c>
@@ -8071,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="3:34">
+    <row r="69" spans="2:34">
       <c r="C69" s="8" t="s">
         <v>97</v>
       </c>
@@ -8165,7 +8234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="3:34">
+    <row r="70" spans="2:34">
       <c r="C70" s="8" t="s">
         <v>98</v>
       </c>
@@ -8259,7 +8328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="3:34">
+    <row r="71" spans="2:34">
       <c r="C71" s="8" t="s">
         <v>99</v>
       </c>
@@ -8353,7 +8422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="3:34">
+    <row r="72" spans="2:34">
       <c r="C72" s="8" t="s">
         <v>100</v>
       </c>
@@ -8444,6 +8513,106 @@
         <v>5</v>
       </c>
       <c r="AH72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34">
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="8">
+        <v>64</v>
+      </c>
+      <c r="D75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F75" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G75" s="10">
+        <f t="shared" ref="G75" si="24">PRODUCT(AE75:AG75)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" ref="H75" si="25">PRODUCT(AE75,AF75,AH75)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I75" s="1">
+        <v>30</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M75" s="1">
+        <v>10</v>
+      </c>
+      <c r="N75" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P75" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>3</v>
+      </c>
+      <c r="R75" s="1">
+        <v>1</v>
+      </c>
+      <c r="S75" s="1">
+        <v>10</v>
+      </c>
+      <c r="T75" s="1">
+        <v>10</v>
+      </c>
+      <c r="U75" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V75" s="1">
+        <v>10</v>
+      </c>
+      <c r="W75" s="1">
+        <v>20</v>
+      </c>
+      <c r="X75" s="1" t="str">
+        <f t="shared" ref="X75" si="26">"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH75" s="1">
         <v>5</v>
       </c>
     </row>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25580" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1000" yWindow="0" windowWidth="30540" windowHeight="9780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$3:$P$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$B$23:$Y$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$C$23:$Z$44</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="121">
   <si>
     <t>COMMENT</t>
   </si>
@@ -336,6 +336,57 @@
   </si>
   <si>
     <t>WEBER_001</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Model Paper Names</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -2037,50 +2088,49 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="8"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5" customWidth="1"/>
-    <col min="26" max="27" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="8"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5" customWidth="1"/>
+    <col min="27" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:35">
+      <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2090,13 +2140,13 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="3"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="Y1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
@@ -2104,10 +2154,10 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
+      <c r="AH1" s="1"/>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2117,13 +2167,13 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="Y2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -2131,108 +2181,111 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:35">
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2242,13 +2295,13 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="Y4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -2256,10 +2309,10 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="AH4" s="1"/>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2269,13 +2322,13 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="Y5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -2283,6342 +2336,6391 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4500</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6:G18" si="0">AE6*AF6*AG6</f>
+      <c r="H6" s="9">
+        <f t="shared" ref="H6:H18" si="0">AF6*AG6*AH6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="9">
-        <f t="shared" ref="H6:H18" si="1">AH6*AF6*AE6</f>
+      <c r="I6" s="9">
+        <f t="shared" ref="I6:I18" si="1">AI6*AG6*AF6</f>
         <v>1600000000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>30</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
       <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="M6" s="1">
-        <v>10</v>
-      </c>
       <c r="N6" s="1">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.75</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
         <v>3</v>
       </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
       <c r="S6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
         <v>10</v>
       </c>
       <c r="U6" s="1">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1">
         <v>0.01</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>30</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>1000</v>
       </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" ref="X6:X21" si="2">"1:10:10"</f>
+      <c r="Y6" s="1" t="str">
+        <f t="shared" ref="Y6:Y21" si="2">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="9">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>16</v>
       </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AH6" s="1"/>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4500</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
       <c r="J7" s="1">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
       <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.5</v>
       </c>
-      <c r="M7" s="1">
-        <v>10</v>
-      </c>
       <c r="N7" s="1">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.95</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
         <v>3</v>
       </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
       <c r="S7" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
         <v>10</v>
       </c>
       <c r="U7" s="1">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1">
         <v>0.01</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>30</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>1000</v>
       </c>
-      <c r="X7" s="1" t="str">
+      <c r="Y7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>52</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE7" s="9">
+      <c r="AC7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>16</v>
       </c>
-      <c r="AG7" s="1"/>
-      <c r="AH7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AH7" s="1"/>
+      <c r="AI7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>4500</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>60</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
       <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.5</v>
       </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
       <c r="N8" s="1">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.25</v>
       </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
         <v>3</v>
       </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
       <c r="S8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
         <v>10</v>
       </c>
       <c r="U8" s="1">
+        <v>10</v>
+      </c>
+      <c r="V8" s="1">
         <v>0.01</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>30</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>1000</v>
       </c>
-      <c r="X8" s="1" t="str">
+      <c r="Y8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>52</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE8" s="9">
+      <c r="AC8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF8" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>16</v>
       </c>
-      <c r="AG8" s="1"/>
-      <c r="AH8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AH8" s="1"/>
+      <c r="AI8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4500</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
       <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
       <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="M9" s="1">
-        <v>10</v>
-      </c>
       <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.25</v>
       </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
       <c r="S9" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>10</v>
       </c>
       <c r="U9" s="1">
+        <v>10</v>
+      </c>
+      <c r="V9" s="1">
         <v>0.01</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>30</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>1000</v>
       </c>
-      <c r="X9" s="1" t="str">
+      <c r="Y9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE9" s="9">
+      <c r="AC9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>16</v>
       </c>
-      <c r="AG9" s="1"/>
-      <c r="AH9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AH9" s="1"/>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4500</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>60</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
       <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.5</v>
       </c>
-      <c r="M10" s="1">
-        <v>10</v>
-      </c>
       <c r="N10" s="1">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0.95</v>
       </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
         <v>3</v>
       </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
       <c r="S10" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
         <v>10</v>
       </c>
       <c r="U10" s="1">
+        <v>10</v>
+      </c>
+      <c r="V10" s="1">
         <v>0.01</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>30</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>1000</v>
       </c>
-      <c r="X10" s="1" t="str">
+      <c r="Y10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>52</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE10" s="9">
+      <c r="AC10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AG10" s="1">
         <v>16</v>
       </c>
-      <c r="AG10" s="1"/>
-      <c r="AH10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+      <c r="AH10" s="1"/>
+      <c r="AI10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4500</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>30</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
       <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.5</v>
       </c>
-      <c r="M11" s="1">
-        <v>10</v>
-      </c>
       <c r="N11" s="1">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>0.75</v>
       </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
         <v>3</v>
       </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
       <c r="S11" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>10</v>
       </c>
       <c r="U11" s="1">
+        <v>10</v>
+      </c>
+      <c r="V11" s="1">
         <v>0.01</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <v>30</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>1000</v>
       </c>
-      <c r="X11" s="1" t="str">
+      <c r="Y11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>53</v>
       </c>
-      <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="9">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AG11" s="1">
         <v>16</v>
       </c>
-      <c r="AG11" s="1"/>
-      <c r="AH11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="AH11" s="1"/>
+      <c r="AI11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
       <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4500</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>30</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
       <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.5</v>
       </c>
-      <c r="M12" s="1">
-        <v>10</v>
-      </c>
       <c r="N12" s="1">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>0.75</v>
       </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
         <v>3</v>
       </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
       <c r="S12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
         <v>10</v>
       </c>
       <c r="U12" s="1">
+        <v>10</v>
+      </c>
+      <c r="V12" s="1">
         <v>0.01</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>30</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>1000</v>
       </c>
-      <c r="X12" s="1" t="str">
+      <c r="Y12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>54</v>
       </c>
-      <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="9">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>16</v>
       </c>
-      <c r="AG12" s="1"/>
-      <c r="AH12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="AH12" s="1"/>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="8">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>4500</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>30</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
       <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.5</v>
       </c>
-      <c r="M13" s="1">
-        <v>10</v>
-      </c>
       <c r="N13" s="1">
+        <v>10</v>
+      </c>
+      <c r="O13" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>0.75</v>
       </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
         <v>3</v>
       </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
       <c r="S13" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
         <v>10</v>
       </c>
       <c r="U13" s="1">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1">
         <v>0.01</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>30</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>1000</v>
       </c>
-      <c r="X13" s="1" t="str">
+      <c r="Y13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>56</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE13" s="9">
+      <c r="AC13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF13" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>16</v>
       </c>
-      <c r="AG13" s="1"/>
-      <c r="AH13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AH13" s="1"/>
+      <c r="AI13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4500</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>30</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
       <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>0.5</v>
       </c>
-      <c r="M14" s="1">
-        <v>10</v>
-      </c>
       <c r="N14" s="1">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>0.75</v>
       </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
         <v>3</v>
       </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
       <c r="S14" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
         <v>10</v>
       </c>
       <c r="U14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
         <v>0.01</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>30</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="1">
         <v>1000</v>
       </c>
-      <c r="X14" s="1" t="str">
+      <c r="Y14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>55</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE14" s="9">
+      <c r="AC14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF14" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>16</v>
       </c>
-      <c r="AG14" s="1"/>
-      <c r="AH14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="AH14" s="1"/>
+      <c r="AI14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="8">
+      <c r="D15" s="8">
         <v>32</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4500</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>30</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
       <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
         <v>0.5</v>
       </c>
-      <c r="M15" s="1">
-        <v>10</v>
-      </c>
       <c r="N15" s="1">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>0.75</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>2</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3</v>
       </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
       <c r="S15" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
         <v>10</v>
       </c>
       <c r="U15" s="1">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1">
         <v>0.01</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>30</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="1">
         <v>1000</v>
       </c>
-      <c r="X15" s="1" t="str">
+      <c r="Y15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>52</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE15" s="9">
+      <c r="AC15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF15" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>16</v>
       </c>
-      <c r="AG15" s="1"/>
-      <c r="AH15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AH15" s="1"/>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8">
+      <c r="D16" s="8">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4500</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>30</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
       <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
         <v>0.5</v>
       </c>
-      <c r="M16" s="1">
-        <v>10</v>
-      </c>
       <c r="N16" s="1">
+        <v>10</v>
+      </c>
+      <c r="O16" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>0.75</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
         <v>3</v>
       </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
       <c r="S16" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>10</v>
       </c>
       <c r="U16" s="1">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1">
         <v>0.01</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>30</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="1">
         <v>1000</v>
       </c>
-      <c r="X16" s="1" t="str">
+      <c r="Y16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE16" s="9">
+      <c r="AC16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF16" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <v>16</v>
       </c>
-      <c r="AG16" s="1"/>
-      <c r="AH16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34">
+      <c r="AH16" s="1"/>
+      <c r="AI16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
       <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8">
+      <c r="D17" s="8">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4500</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>30</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
       <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
         <v>0.5</v>
       </c>
-      <c r="M17" s="1">
-        <v>10</v>
-      </c>
       <c r="N17" s="1">
+        <v>10</v>
+      </c>
+      <c r="O17" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>0.75</v>
       </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
         <v>3</v>
       </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
       <c r="S17" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
         <v>10</v>
       </c>
       <c r="U17" s="1">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1">
         <v>0.01</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>30</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>1000</v>
       </c>
-      <c r="X17" s="1" t="str">
+      <c r="Y17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>58</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE17" s="9">
+      <c r="AC17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF17" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>16</v>
       </c>
-      <c r="AG17" s="1"/>
-      <c r="AH17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="AH17" s="1"/>
+      <c r="AI17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8">
+      <c r="D18" s="8">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4500</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="9">
         <f t="shared" si="1"/>
         <v>1600000000</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>30</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.01</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
       <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
         <v>0.5</v>
       </c>
-      <c r="M18" s="1">
-        <v>10</v>
-      </c>
       <c r="N18" s="1">
+        <v>10</v>
+      </c>
+      <c r="O18" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>0.75</v>
       </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
         <v>3</v>
       </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
       <c r="S18" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1">
         <v>10</v>
       </c>
       <c r="U18" s="1">
+        <v>10</v>
+      </c>
+      <c r="V18" s="1">
         <v>0.01</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>30</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="1">
         <v>1000</v>
       </c>
-      <c r="X18" s="1" t="str">
+      <c r="Y18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>52</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE18" s="9">
+      <c r="AC18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF18" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <v>16</v>
       </c>
-      <c r="AG18" s="1"/>
-      <c r="AH18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34">
+      <c r="AH18" s="1"/>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
       <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4500</v>
       </c>
-      <c r="G19" s="9">
-        <f>AE19*AF19*AG19</f>
+      <c r="H19" s="9">
+        <f>AF19*AG19*AH19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="9">
-        <f>AH19*AF19*AE19</f>
+      <c r="I19" s="9">
+        <f>AI19*AG19*AF19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>5</v>
-      </c>
       <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
       <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
         <v>0.5</v>
       </c>
-      <c r="M19" s="1">
-        <v>10</v>
-      </c>
       <c r="N19" s="1">
+        <v>10</v>
+      </c>
+      <c r="O19" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>0.75</v>
       </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
         <v>3</v>
       </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
       <c r="S19" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T19" s="1">
         <v>10</v>
       </c>
       <c r="U19" s="1">
+        <v>10</v>
+      </c>
+      <c r="V19" s="1">
         <v>0.01</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>30</v>
       </c>
-      <c r="W19" s="1">
+      <c r="X19" s="1">
         <v>1000</v>
       </c>
-      <c r="X19" s="1" t="str">
+      <c r="Y19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>52</v>
       </c>
-      <c r="AB19" s="1"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AF19" s="9"/>
       <c r="AG19" s="1"/>
-    </row>
-    <row r="20" spans="1:34">
+      <c r="AH19" s="1"/>
+    </row>
+    <row r="20" spans="1:35">
       <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4500</v>
       </c>
-      <c r="G20" s="9">
-        <f>AE20*AF20*AG20</f>
+      <c r="H20" s="9">
+        <f>AF20*AG20*AH20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="9">
-        <f>AH20*AF20*AE20</f>
+      <c r="I20" s="9">
+        <f>AI20*AG20*AF20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>60</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
       <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
         <v>0.5</v>
       </c>
-      <c r="M20" s="1">
-        <v>10</v>
-      </c>
       <c r="N20" s="1">
+        <v>10</v>
+      </c>
+      <c r="O20" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>0.75</v>
       </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
         <v>3</v>
       </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
       <c r="S20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
       </c>
       <c r="U20" s="1">
+        <v>10</v>
+      </c>
+      <c r="V20" s="1">
         <v>0.01</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>30</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="1">
         <v>1000</v>
       </c>
-      <c r="X20" s="1" t="str">
+      <c r="Y20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>52</v>
       </c>
-      <c r="AB20" s="1"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AF20" s="9"/>
       <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:34">
+      <c r="AH20" s="1"/>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="8">
+      <c r="D21" s="8">
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4500</v>
       </c>
-      <c r="G21" s="9">
-        <f>AE21*AF21*AG21</f>
+      <c r="H21" s="9">
+        <f>AF21*AG21*AH21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="9">
-        <f>AH21*AF21*AE21</f>
+      <c r="I21" s="9">
+        <f>AI21*AG21*AF21</f>
         <v>1600000000</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>15</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
       <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
         <v>0.25</v>
       </c>
-      <c r="M21" s="1">
-        <v>5</v>
-      </c>
       <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>0.75</v>
       </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
         <v>3</v>
       </c>
-      <c r="R21" s="1">
-        <v>1</v>
-      </c>
       <c r="S21" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T21" s="1">
         <v>10</v>
       </c>
       <c r="U21" s="1">
+        <v>10</v>
+      </c>
+      <c r="V21" s="1">
         <v>0.01</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>30</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="1">
         <v>1000</v>
       </c>
-      <c r="X21" s="1" t="str">
+      <c r="Y21" s="1" t="str">
         <f t="shared" si="2"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>52</v>
       </c>
-      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="9">
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="9">
         <v>20000000</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <v>16</v>
       </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
+      <c r="AH21" s="1"/>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>7200</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>4500</v>
       </c>
-      <c r="G23" s="10">
-        <f>PRODUCT(AE23:AG23)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H23" s="10">
-        <f>PRODUCT(AE23,AF23,AH23)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I23" s="1">
+        <f>PRODUCT(AF23:AH23)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I23" s="10">
+        <f>PRODUCT(AF23,AG23,AI23)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J23" s="1">
         <v>30</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
       <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
         <v>0.05</v>
       </c>
-      <c r="M23" s="1">
-        <v>10</v>
-      </c>
       <c r="N23" s="1">
+        <v>10</v>
+      </c>
+      <c r="O23" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>0.75</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>3</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3</v>
       </c>
-      <c r="R23" s="1">
-        <v>1</v>
-      </c>
       <c r="S23" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T23" s="1">
         <v>10</v>
       </c>
       <c r="U23" s="1">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1">
         <v>0.01</v>
       </c>
-      <c r="V23" s="1">
-        <v>50</v>
-      </c>
       <c r="W23" s="1">
+        <v>50</v>
+      </c>
+      <c r="X23" s="1">
         <v>1000</v>
       </c>
-      <c r="X23" s="1" t="str">
+      <c r="Y23" s="1" t="str">
         <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>59</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="9">
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <v>16</v>
       </c>
-      <c r="AG23" s="1">
-        <v>5</v>
-      </c>
       <c r="AH23" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:34">
+      <c r="AI23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>7200</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>4500</v>
       </c>
-      <c r="G24" s="10">
-        <f>PRODUCT(AE24:AG24)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H24" s="10">
-        <f>PRODUCT(AE24,AF24,AH24)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I24" s="1">
+        <f>PRODUCT(AF24:AH24)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I24" s="10">
+        <f>PRODUCT(AF24,AG24,AI24)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J24" s="1">
         <v>30</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
       <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
         <v>0.05</v>
       </c>
-      <c r="M24" s="1">
-        <v>10</v>
-      </c>
       <c r="N24" s="1">
+        <v>10</v>
+      </c>
+      <c r="O24" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>0.75</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3</v>
       </c>
-      <c r="R24" s="1">
-        <v>1</v>
-      </c>
       <c r="S24" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T24" s="1">
         <v>10</v>
       </c>
       <c r="U24" s="1">
+        <v>10</v>
+      </c>
+      <c r="V24" s="1">
         <v>20</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>150</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="1">
         <v>800</v>
       </c>
-      <c r="X24" s="1" t="str">
+      <c r="Y24" s="1" t="str">
         <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>59</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="9">
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AG24" s="1">
         <v>16</v>
       </c>
-      <c r="AG24" s="1">
-        <v>5</v>
-      </c>
       <c r="AH24" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:34">
+      <c r="AI24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="8">
+      <c r="D25" s="8">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>7200</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>4500</v>
       </c>
-      <c r="G25" s="10">
-        <f>PRODUCT(AE25:AG25)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H25" s="10">
-        <f>PRODUCT(AE25,AF25,AH25)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I25" s="1">
+        <f>PRODUCT(AF25:AH25)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I25" s="10">
+        <f>PRODUCT(AF25,AG25,AI25)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J25" s="1">
         <v>30</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>0.01</v>
       </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
       <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
         <v>0.05</v>
       </c>
-      <c r="M25" s="1">
-        <v>10</v>
-      </c>
       <c r="N25" s="1">
+        <v>10</v>
+      </c>
+      <c r="O25" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>0.75</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>3</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="R25" s="3">
         <v>3</v>
       </c>
-      <c r="R25" s="1">
-        <v>1</v>
-      </c>
       <c r="S25" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
         <v>10</v>
       </c>
       <c r="U25" s="1">
+        <v>10</v>
+      </c>
+      <c r="V25" s="1">
         <v>0.01</v>
       </c>
-      <c r="V25" s="1">
-        <v>50</v>
-      </c>
       <c r="W25" s="1">
+        <v>50</v>
+      </c>
+      <c r="X25" s="1">
         <v>1000</v>
       </c>
-      <c r="X25" s="1" t="str">
+      <c r="Y25" s="1" t="str">
         <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>59</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="9">
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <v>16</v>
       </c>
-      <c r="AG25" s="1">
-        <v>5</v>
-      </c>
       <c r="AH25" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:34">
+      <c r="AI25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="8">
+      <c r="D26" s="8">
         <v>3</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>7200</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>4500</v>
       </c>
-      <c r="G26" s="10">
-        <f>PRODUCT(AE26:AG26)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H26" s="10">
-        <f>PRODUCT(AE26,AF26,AH26)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I26" s="1">
-        <v>5</v>
+        <f>PRODUCT(AF26:AH26)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I26" s="10">
+        <f>PRODUCT(AF26,AG26,AI26)</f>
+        <v>2400000000</v>
       </c>
       <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
         <v>0</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
       <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
         <v>0.05</v>
       </c>
-      <c r="M26" s="1">
-        <v>10</v>
-      </c>
       <c r="N26" s="1">
+        <v>10</v>
+      </c>
+      <c r="O26" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>0.75</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>3</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3</v>
       </c>
-      <c r="R26" s="1">
-        <v>1</v>
-      </c>
       <c r="S26" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T26" s="1">
         <v>10</v>
       </c>
       <c r="U26" s="1">
+        <v>10</v>
+      </c>
+      <c r="V26" s="1">
         <v>0.01</v>
       </c>
-      <c r="V26" s="1">
-        <v>50</v>
-      </c>
       <c r="W26" s="1">
+        <v>50</v>
+      </c>
+      <c r="X26" s="1">
         <v>1000</v>
       </c>
-      <c r="X26" s="1" t="str">
+      <c r="Y26" s="1" t="str">
         <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>59</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="9">
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <v>16</v>
       </c>
-      <c r="AG26" s="1">
-        <v>5</v>
-      </c>
       <c r="AH26" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:34">
+      <c r="AI26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="8">
+      <c r="D27" s="8">
         <v>4</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>7200</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>4500</v>
       </c>
-      <c r="G27" s="10">
-        <f t="shared" ref="G27:G36" si="3">PRODUCT(AE27:AG27)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H27" s="10">
-        <f t="shared" ref="H27:H36" si="4">PRODUCT(AE27,AF27,AH27)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I27" s="1">
+        <f t="shared" ref="H27:H36" si="3">PRODUCT(AF27:AH27)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="I27:I36" si="4">PRODUCT(AF27,AG27,AI27)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J27" s="1">
         <v>30</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>0.05</v>
       </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
       <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
         <v>0.05</v>
       </c>
-      <c r="M27" s="1">
-        <v>10</v>
-      </c>
       <c r="N27" s="1">
+        <v>10</v>
+      </c>
+      <c r="O27" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>0.75</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3</v>
       </c>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
       <c r="S27" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T27" s="1">
         <v>10</v>
       </c>
       <c r="U27" s="1">
+        <v>10</v>
+      </c>
+      <c r="V27" s="1">
         <v>0.01</v>
       </c>
-      <c r="V27" s="1">
-        <v>50</v>
-      </c>
       <c r="W27" s="1">
+        <v>50</v>
+      </c>
+      <c r="X27" s="1">
         <v>1000</v>
       </c>
-      <c r="X27" s="1" t="str">
-        <f t="shared" ref="X27:X72" si="5">"1:10:10"</f>
+      <c r="Y27" s="1" t="str">
+        <f t="shared" ref="Y27:Y72" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>59</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="9">
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AG27" s="1">
         <v>16</v>
       </c>
-      <c r="AG27" s="1">
-        <v>5</v>
-      </c>
       <c r="AH27" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:34">
+      <c r="AI27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="8">
+      <c r="D28" s="8">
         <v>11</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>7200</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>4500</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H28" s="10">
+      <c r="I28" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>15</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
       <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
         <v>0.05</v>
       </c>
-      <c r="M28" s="1">
-        <v>10</v>
-      </c>
       <c r="N28" s="1">
+        <v>10</v>
+      </c>
+      <c r="O28" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>0.95</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="1">
         <v>4</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="R28" s="3">
         <v>3</v>
       </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
       <c r="S28" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T28" s="1">
         <v>10</v>
       </c>
       <c r="U28" s="1">
+        <v>10</v>
+      </c>
+      <c r="V28" s="1">
         <v>0.01</v>
       </c>
-      <c r="V28" s="1">
-        <v>50</v>
-      </c>
       <c r="W28" s="1">
+        <v>50</v>
+      </c>
+      <c r="X28" s="1">
         <v>1000</v>
       </c>
-      <c r="X28" s="1" t="str">
+      <c r="Y28" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>59</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="9">
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <v>16</v>
       </c>
-      <c r="AG28" s="1">
-        <v>5</v>
-      </c>
       <c r="AH28" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:34">
+      <c r="AI28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="8">
+      <c r="D29" s="8">
         <v>12</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>7200</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>4500</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H29" s="10">
+      <c r="I29" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>15</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
       <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
         <v>0.05</v>
       </c>
-      <c r="M29" s="1">
-        <v>10</v>
-      </c>
       <c r="N29" s="1">
+        <v>10</v>
+      </c>
+      <c r="O29" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>0.25</v>
       </c>
-      <c r="P29" s="1">
+      <c r="Q29" s="1">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3</v>
       </c>
-      <c r="R29" s="1">
-        <v>1</v>
-      </c>
       <c r="S29" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
         <v>10</v>
       </c>
       <c r="U29" s="1">
+        <v>10</v>
+      </c>
+      <c r="V29" s="1">
         <v>0.01</v>
       </c>
-      <c r="V29" s="1">
-        <v>50</v>
-      </c>
       <c r="W29" s="1">
+        <v>50</v>
+      </c>
+      <c r="X29" s="1">
         <v>1000</v>
       </c>
-      <c r="X29" s="1" t="str">
+      <c r="Y29" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>59</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="9">
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AG29" s="1">
         <v>16</v>
       </c>
-      <c r="AG29" s="1">
-        <v>5</v>
-      </c>
       <c r="AH29" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:34">
+      <c r="AI29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="8">
+      <c r="D30" s="8">
         <v>13</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>7200</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>4500</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H30" s="10">
+      <c r="I30" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>15</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
       <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
         <v>0.05</v>
       </c>
-      <c r="M30" s="1">
-        <v>10</v>
-      </c>
       <c r="N30" s="1">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>0.6</v>
       </c>
-      <c r="P30" s="1">
+      <c r="Q30" s="1">
         <v>4</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="R30" s="3">
         <v>3</v>
       </c>
-      <c r="R30" s="1">
-        <v>1</v>
-      </c>
       <c r="S30" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T30" s="1">
         <v>10</v>
       </c>
       <c r="U30" s="1">
+        <v>10</v>
+      </c>
+      <c r="V30" s="1">
         <v>0.01</v>
       </c>
-      <c r="V30" s="1">
-        <v>50</v>
-      </c>
       <c r="W30" s="1">
+        <v>50</v>
+      </c>
+      <c r="X30" s="1">
         <v>1000</v>
       </c>
-      <c r="X30" s="1" t="str">
+      <c r="Y30" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>59</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="9">
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AG30" s="1">
         <v>16</v>
       </c>
-      <c r="AG30" s="1">
-        <v>5</v>
-      </c>
       <c r="AH30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:34">
+      <c r="AI30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="8">
+      <c r="D31" s="8">
         <v>31</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>7200</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>4500</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H31" s="10">
+      <c r="I31" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>30</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
       <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
         <v>0.05</v>
       </c>
-      <c r="M31" s="1">
-        <v>10</v>
-      </c>
       <c r="N31" s="1">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <v>4</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="R31" s="3">
         <v>3</v>
       </c>
-      <c r="R31" s="1">
-        <v>1</v>
-      </c>
       <c r="S31" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T31" s="1">
         <v>10</v>
       </c>
       <c r="U31" s="1">
+        <v>10</v>
+      </c>
+      <c r="V31" s="1">
         <v>0.01</v>
       </c>
-      <c r="V31" s="1">
-        <v>50</v>
-      </c>
       <c r="W31" s="1">
+        <v>50</v>
+      </c>
+      <c r="X31" s="1">
         <v>1000</v>
       </c>
-      <c r="X31" s="1" t="str">
+      <c r="Y31" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>59</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="9">
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AG31" s="1">
         <v>16</v>
       </c>
-      <c r="AG31" s="1">
-        <v>5</v>
-      </c>
       <c r="AH31" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:34">
+      <c r="AI31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="8">
+      <c r="D32" s="8">
         <v>32</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <v>7200</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>4500</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H32" s="10">
+      <c r="I32" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>30</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
       <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
         <v>0.05</v>
       </c>
-      <c r="M32" s="1">
-        <v>10</v>
-      </c>
       <c r="N32" s="1">
+        <v>10</v>
+      </c>
+      <c r="O32" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>0.25</v>
       </c>
-      <c r="P32" s="1">
+      <c r="Q32" s="1">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3</v>
       </c>
-      <c r="R32" s="1">
-        <v>1</v>
-      </c>
       <c r="S32" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T32" s="1">
         <v>10</v>
       </c>
       <c r="U32" s="1">
+        <v>10</v>
+      </c>
+      <c r="V32" s="1">
         <v>0.01</v>
       </c>
-      <c r="V32" s="1">
-        <v>50</v>
-      </c>
       <c r="W32" s="1">
+        <v>50</v>
+      </c>
+      <c r="X32" s="1">
         <v>1000</v>
       </c>
-      <c r="X32" s="1" t="str">
+      <c r="Y32" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>59</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="9">
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AG32" s="1">
         <v>16</v>
       </c>
-      <c r="AG32" s="1">
-        <v>5</v>
-      </c>
       <c r="AH32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:34">
+      <c r="AI32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>11</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="8">
+      <c r="D33" s="8">
         <v>33</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>7200</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>4500</v>
       </c>
-      <c r="G33" s="10">
+      <c r="H33" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H33" s="10">
+      <c r="I33" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>30</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
       <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
         <v>0.05</v>
       </c>
-      <c r="M33" s="1">
-        <v>10</v>
-      </c>
       <c r="N33" s="1">
+        <v>10</v>
+      </c>
+      <c r="O33" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>0.6</v>
       </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3</v>
       </c>
-      <c r="R33" s="1">
-        <v>1</v>
-      </c>
       <c r="S33" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1">
         <v>10</v>
       </c>
       <c r="U33" s="1">
+        <v>10</v>
+      </c>
+      <c r="V33" s="1">
         <v>0.01</v>
       </c>
-      <c r="V33" s="1">
-        <v>50</v>
-      </c>
       <c r="W33" s="1">
+        <v>50</v>
+      </c>
+      <c r="X33" s="1">
         <v>1000</v>
       </c>
-      <c r="X33" s="1" t="str">
+      <c r="Y33" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>59</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="9">
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AG33" s="1">
         <v>16</v>
       </c>
-      <c r="AG33" s="1">
-        <v>5</v>
-      </c>
       <c r="AH33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:34">
+      <c r="AI33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="8">
+      <c r="D34" s="8">
         <v>41</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>7200</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>4500</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H34" s="10">
+      <c r="I34" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>40</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
       <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
         <v>0.05</v>
       </c>
-      <c r="M34" s="1">
-        <v>10</v>
-      </c>
       <c r="N34" s="1">
+        <v>10</v>
+      </c>
+      <c r="O34" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>0.95</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>4</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="R34" s="3">
         <v>3</v>
       </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
       <c r="S34" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T34" s="1">
         <v>10</v>
       </c>
       <c r="U34" s="1">
+        <v>10</v>
+      </c>
+      <c r="V34" s="1">
         <v>0.01</v>
       </c>
-      <c r="V34" s="1">
-        <v>50</v>
-      </c>
       <c r="W34" s="1">
+        <v>50</v>
+      </c>
+      <c r="X34" s="1">
         <v>1000</v>
       </c>
-      <c r="X34" s="1" t="str">
+      <c r="Y34" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>59</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA34" s="1"/>
       <c r="AB34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="9">
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AG34" s="1">
         <v>16</v>
       </c>
-      <c r="AG34" s="1">
-        <v>5</v>
-      </c>
       <c r="AH34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:34">
+      <c r="AI34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>13</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="8">
+      <c r="D35" s="8">
         <v>42</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>7200</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>4500</v>
       </c>
-      <c r="G35" s="10">
+      <c r="H35" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H35" s="10">
+      <c r="I35" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>40</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
       <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
         <v>0.05</v>
       </c>
-      <c r="M35" s="1">
-        <v>10</v>
-      </c>
       <c r="N35" s="1">
+        <v>10</v>
+      </c>
+      <c r="O35" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>0.25</v>
       </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3</v>
       </c>
-      <c r="R35" s="1">
-        <v>1</v>
-      </c>
       <c r="S35" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T35" s="1">
         <v>10</v>
       </c>
       <c r="U35" s="1">
+        <v>10</v>
+      </c>
+      <c r="V35" s="1">
         <v>0.01</v>
       </c>
-      <c r="V35" s="1">
-        <v>50</v>
-      </c>
       <c r="W35" s="1">
+        <v>50</v>
+      </c>
+      <c r="X35" s="1">
         <v>1000</v>
       </c>
-      <c r="X35" s="1" t="str">
+      <c r="Y35" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>59</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA35" s="1"/>
       <c r="AB35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="9">
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AG35" s="1">
         <v>16</v>
       </c>
-      <c r="AG35" s="1">
-        <v>5</v>
-      </c>
       <c r="AH35" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:34">
+      <c r="AI35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="8">
+      <c r="D36" s="8">
         <v>43</v>
       </c>
-      <c r="E36" s="1">
+      <c r="F36" s="1">
         <v>7200</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>4500</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>2400000000</v>
       </c>
-      <c r="H36" s="10">
+      <c r="I36" s="10">
         <f t="shared" si="4"/>
         <v>2400000000</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>40</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
       <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
         <v>0.05</v>
       </c>
-      <c r="M36" s="1">
-        <v>10</v>
-      </c>
       <c r="N36" s="1">
+        <v>10</v>
+      </c>
+      <c r="O36" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>0.6</v>
       </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <v>4</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="R36" s="3">
         <v>3</v>
       </c>
-      <c r="R36" s="1">
-        <v>1</v>
-      </c>
       <c r="S36" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T36" s="1">
         <v>10</v>
       </c>
       <c r="U36" s="1">
+        <v>10</v>
+      </c>
+      <c r="V36" s="1">
         <v>0.01</v>
       </c>
-      <c r="V36" s="1">
-        <v>50</v>
-      </c>
       <c r="W36" s="1">
+        <v>50</v>
+      </c>
+      <c r="X36" s="1">
         <v>1000</v>
       </c>
-      <c r="X36" s="1" t="str">
+      <c r="Y36" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>59</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA36" s="1"/>
       <c r="AB36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="9">
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AG36" s="1">
         <v>16</v>
       </c>
-      <c r="AG36" s="1">
-        <v>5</v>
-      </c>
       <c r="AH36" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:34">
+      <c r="AI36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="8">
+      <c r="D37" s="8">
         <v>51</v>
       </c>
-      <c r="E37" s="1">
+      <c r="F37" s="1">
         <v>7200</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>4500</v>
       </c>
-      <c r="G37" s="10">
-        <f t="shared" ref="G37:G47" si="6">PRODUCT(AE37:AG37)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H37" s="10">
-        <f t="shared" ref="H37:H47" si="7">PRODUCT(AE37,AF37,AH37)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I37" s="1">
+        <f t="shared" ref="H37:H47" si="6">PRODUCT(AF37:AH37)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" ref="I37:I47" si="7">PRODUCT(AF37,AG37,AI37)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J37" s="1">
         <v>20</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
       <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
         <v>0.05</v>
       </c>
-      <c r="M37" s="1">
-        <v>10</v>
-      </c>
       <c r="N37" s="1">
+        <v>10</v>
+      </c>
+      <c r="O37" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>0.6</v>
       </c>
-      <c r="P37" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="1">
+        <v>5</v>
+      </c>
+      <c r="R37" s="3">
         <v>3</v>
       </c>
-      <c r="R37" s="1">
-        <v>1</v>
-      </c>
       <c r="S37" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T37" s="1">
         <v>10</v>
       </c>
       <c r="U37" s="1">
+        <v>10</v>
+      </c>
+      <c r="V37" s="1">
         <v>0.01</v>
       </c>
-      <c r="V37" s="1">
-        <v>10</v>
-      </c>
       <c r="W37" s="1">
+        <v>10</v>
+      </c>
+      <c r="X37" s="1">
         <v>20</v>
       </c>
-      <c r="X37" s="1" t="str">
+      <c r="Y37" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>59</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA37" s="1"/>
       <c r="AB37" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD37" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="9">
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AG37" s="1">
         <v>16</v>
       </c>
-      <c r="AG37" s="1">
-        <v>5</v>
-      </c>
       <c r="AH37" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:34">
+      <c r="AI37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="11">
+      <c r="D38" s="11">
         <v>52</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>7200</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>4500</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H38" s="10">
+      <c r="I38" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>20</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
       <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
         <v>0.05</v>
       </c>
-      <c r="M38" s="1">
-        <v>10</v>
-      </c>
       <c r="N38" s="1">
+        <v>10</v>
+      </c>
+      <c r="O38" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>0.6</v>
       </c>
-      <c r="P38" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="1">
+        <v>5</v>
+      </c>
+      <c r="R38" s="3">
         <v>3</v>
       </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
       <c r="S38" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T38" s="1">
         <v>10</v>
       </c>
       <c r="U38" s="1">
+        <v>10</v>
+      </c>
+      <c r="V38" s="1">
         <v>0.01</v>
       </c>
-      <c r="V38" s="1">
-        <v>10</v>
-      </c>
       <c r="W38" s="1">
+        <v>10</v>
+      </c>
+      <c r="X38" s="1">
         <v>20</v>
       </c>
-      <c r="X38" s="1" t="str">
+      <c r="Y38" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>59</v>
       </c>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA38" s="1"/>
       <c r="AB38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="9">
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AG38" s="1">
         <v>16</v>
       </c>
-      <c r="AG38" s="1">
-        <v>5</v>
-      </c>
       <c r="AH38" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:34">
+      <c r="AI38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>17</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="11">
+      <c r="D39" s="11">
         <v>53</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>7200</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>4500</v>
       </c>
-      <c r="G39" s="10">
+      <c r="H39" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H39" s="10">
+      <c r="I39" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>20</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
       <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
         <v>0.05</v>
       </c>
-      <c r="M39" s="1">
-        <v>10</v>
-      </c>
       <c r="N39" s="1">
+        <v>10</v>
+      </c>
+      <c r="O39" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>0.6</v>
       </c>
-      <c r="P39" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="1">
+        <v>5</v>
+      </c>
+      <c r="R39" s="3">
         <v>3</v>
       </c>
-      <c r="R39" s="1">
-        <v>1</v>
-      </c>
       <c r="S39" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T39" s="1">
         <v>10</v>
       </c>
       <c r="U39" s="1">
+        <v>10</v>
+      </c>
+      <c r="V39" s="1">
         <v>0.01</v>
       </c>
-      <c r="V39" s="1">
-        <v>10</v>
-      </c>
       <c r="W39" s="1">
+        <v>10</v>
+      </c>
+      <c r="X39" s="1">
         <v>20</v>
       </c>
-      <c r="X39" s="1" t="str">
+      <c r="Y39" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>68</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="9">
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AG39" s="1">
         <v>16</v>
       </c>
-      <c r="AG39" s="1">
-        <v>5</v>
-      </c>
       <c r="AH39" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:34">
+      <c r="AI39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>18</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="11">
+      <c r="D40" s="11">
         <v>54</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>7200</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>4500</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H40" s="10">
+      <c r="I40" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>20</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
       <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
         <v>0.05</v>
       </c>
-      <c r="M40" s="1">
-        <v>10</v>
-      </c>
       <c r="N40" s="1">
+        <v>10</v>
+      </c>
+      <c r="O40" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>0.6</v>
       </c>
-      <c r="P40" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+      <c r="R40" s="3">
         <v>3</v>
       </c>
-      <c r="R40" s="1">
-        <v>1</v>
-      </c>
       <c r="S40" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T40" s="1">
         <v>10</v>
       </c>
       <c r="U40" s="1">
+        <v>10</v>
+      </c>
+      <c r="V40" s="1">
         <v>0.01</v>
       </c>
-      <c r="V40" s="1">
-        <v>10</v>
-      </c>
       <c r="W40" s="1">
+        <v>10</v>
+      </c>
+      <c r="X40" s="1">
         <v>20</v>
       </c>
-      <c r="X40" s="1" t="str">
+      <c r="Y40" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>68</v>
       </c>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD40" s="1"/>
-      <c r="AE40" s="9">
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AG40" s="1">
         <v>16</v>
       </c>
-      <c r="AG40" s="1">
-        <v>5</v>
-      </c>
       <c r="AH40" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:34">
+      <c r="AI40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>19</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="11">
+      <c r="D41" s="11">
         <v>55</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>7200</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>4500</v>
       </c>
-      <c r="G41" s="10">
+      <c r="H41" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H41" s="10">
+      <c r="I41" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>20</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
       <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
         <v>0.05</v>
       </c>
-      <c r="M41" s="1">
-        <v>10</v>
-      </c>
       <c r="N41" s="1">
+        <v>10</v>
+      </c>
+      <c r="O41" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>0.6</v>
       </c>
-      <c r="P41" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="1">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>3</v>
       </c>
-      <c r="R41" s="1">
-        <v>1</v>
-      </c>
       <c r="S41" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T41" s="1">
         <v>10</v>
       </c>
       <c r="U41" s="1">
+        <v>10</v>
+      </c>
+      <c r="V41" s="1">
         <v>0.01</v>
       </c>
-      <c r="V41" s="1">
-        <v>10</v>
-      </c>
       <c r="W41" s="1">
+        <v>10</v>
+      </c>
+      <c r="X41" s="1">
         <v>20</v>
       </c>
-      <c r="X41" s="1" t="str">
+      <c r="Y41" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>68</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA41" s="1"/>
       <c r="AB41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="9">
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AG41" s="1">
         <v>16</v>
       </c>
-      <c r="AG41" s="1">
-        <v>5</v>
-      </c>
       <c r="AH41" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:34">
+      <c r="AI41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="8">
+      <c r="D42" s="8">
         <v>56</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>7200</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>4500</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H42" s="10">
+      <c r="I42" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>20</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
       <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
         <v>0.05</v>
       </c>
-      <c r="M42" s="1">
-        <v>10</v>
-      </c>
       <c r="N42" s="1">
+        <v>10</v>
+      </c>
+      <c r="O42" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>0.6</v>
       </c>
-      <c r="P42" s="1">
+      <c r="Q42" s="1">
         <v>6</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3</v>
       </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
       <c r="S42" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T42" s="1">
         <v>10</v>
       </c>
       <c r="U42" s="1">
+        <v>10</v>
+      </c>
+      <c r="V42" s="1">
         <v>0.01</v>
       </c>
-      <c r="V42" s="1">
-        <v>10</v>
-      </c>
       <c r="W42" s="1">
+        <v>10</v>
+      </c>
+      <c r="X42" s="1">
         <v>20</v>
       </c>
-      <c r="X42" s="1" t="str">
+      <c r="Y42" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>68</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="9">
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AG42" s="1">
         <v>16</v>
       </c>
-      <c r="AG42" s="1">
-        <v>5</v>
-      </c>
       <c r="AH42" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:34">
+      <c r="AI42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>21</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="8">
+      <c r="D43" s="8">
         <v>57</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>7200</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>4500</v>
       </c>
-      <c r="G43" s="10">
+      <c r="H43" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H43" s="10">
+      <c r="I43" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>20</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
       <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M43" s="1">
-        <v>5</v>
-      </c>
       <c r="N43" s="1">
+        <v>5</v>
+      </c>
+      <c r="O43" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>0.6</v>
       </c>
-      <c r="P43" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="1">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>3</v>
       </c>
-      <c r="R43" s="1">
-        <v>1</v>
-      </c>
       <c r="S43" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>10</v>
       </c>
       <c r="U43" s="1">
+        <v>10</v>
+      </c>
+      <c r="V43" s="1">
         <v>0.01</v>
       </c>
-      <c r="V43" s="1">
-        <v>10</v>
-      </c>
       <c r="W43" s="1">
+        <v>10</v>
+      </c>
+      <c r="X43" s="1">
         <v>20</v>
       </c>
-      <c r="X43" s="1" t="str">
+      <c r="Y43" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>68</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA43" s="1"/>
       <c r="AB43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD43" s="1"/>
-      <c r="AE43" s="9">
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AG43" s="1">
         <v>16</v>
       </c>
-      <c r="AG43" s="1">
-        <v>5</v>
-      </c>
       <c r="AH43" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:34">
+      <c r="AI43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="8">
+      <c r="D44" s="8">
         <v>58</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>7200</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>4500</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H44" s="10">
+      <c r="I44" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>20</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
       <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
         <v>0.05</v>
       </c>
-      <c r="M44" s="1">
-        <v>10</v>
-      </c>
       <c r="N44" s="1">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>0.9</v>
       </c>
-      <c r="P44" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="1">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>3</v>
       </c>
-      <c r="R44" s="1">
-        <v>1</v>
-      </c>
       <c r="S44" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T44" s="1">
         <v>10</v>
       </c>
       <c r="U44" s="1">
+        <v>10</v>
+      </c>
+      <c r="V44" s="1">
         <v>0.01</v>
       </c>
-      <c r="V44" s="1">
-        <v>10</v>
-      </c>
       <c r="W44" s="1">
+        <v>10</v>
+      </c>
+      <c r="X44" s="1">
         <v>20</v>
       </c>
-      <c r="X44" s="1" t="str">
+      <c r="Y44" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>68</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA44" s="1"/>
       <c r="AB44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="9">
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF44" s="1">
+      <c r="AG44" s="1">
         <v>16</v>
       </c>
-      <c r="AG44" s="1">
-        <v>5</v>
-      </c>
       <c r="AH44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:34">
+      <c r="AI44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>23</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="11">
+      <c r="D45" s="11">
         <v>59</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>7200</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>4500</v>
       </c>
-      <c r="G45" s="10">
+      <c r="H45" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H45" s="10">
+      <c r="I45" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>20</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
       <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
         <v>0.05</v>
       </c>
-      <c r="M45" s="1">
-        <v>10</v>
-      </c>
       <c r="N45" s="1">
+        <v>10</v>
+      </c>
+      <c r="O45" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O45" s="1">
+      <c r="P45" s="1">
         <v>0.6</v>
       </c>
-      <c r="P45" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="1">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>3</v>
       </c>
-      <c r="R45" s="1">
-        <v>1</v>
-      </c>
       <c r="S45" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>10</v>
       </c>
       <c r="U45" s="1">
+        <v>10</v>
+      </c>
+      <c r="V45" s="1">
         <v>0.01</v>
       </c>
-      <c r="V45" s="1">
-        <v>10</v>
-      </c>
       <c r="W45" s="1">
+        <v>10</v>
+      </c>
+      <c r="X45" s="1">
         <v>20</v>
       </c>
-      <c r="X45" s="1" t="str">
+      <c r="Y45" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>59</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA45" s="1"/>
       <c r="AB45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="9">
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF45" s="1">
+      <c r="AG45" s="1">
         <v>16</v>
       </c>
-      <c r="AG45" s="1">
-        <v>5</v>
-      </c>
       <c r="AH45" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:34">
+      <c r="AI45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>24</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="11">
+      <c r="D46" s="11">
         <v>60</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>7200</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>4500</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H46" s="10">
+      <c r="I46" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>20</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
       <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
         <v>0.05</v>
       </c>
-      <c r="M46" s="1">
-        <v>10</v>
-      </c>
       <c r="N46" s="1">
+        <v>10</v>
+      </c>
+      <c r="O46" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>0.6</v>
       </c>
-      <c r="P46" s="1">
+      <c r="Q46" s="1">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3</v>
       </c>
-      <c r="R46" s="1">
-        <v>1</v>
-      </c>
       <c r="S46" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T46" s="1">
         <v>10</v>
       </c>
       <c r="U46" s="1">
+        <v>10</v>
+      </c>
+      <c r="V46" s="1">
         <v>0.01</v>
       </c>
-      <c r="V46" s="1">
-        <v>10</v>
-      </c>
       <c r="W46" s="1">
+        <v>10</v>
+      </c>
+      <c r="X46" s="1">
         <v>20</v>
       </c>
-      <c r="X46" s="1" t="str">
+      <c r="Y46" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>68</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA46" s="1"/>
       <c r="AB46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD46" s="1"/>
-      <c r="AE46" s="9">
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF46" s="1">
+      <c r="AG46" s="1">
         <v>16</v>
       </c>
-      <c r="AG46" s="1">
-        <v>5</v>
-      </c>
       <c r="AH46" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:34">
+      <c r="AI46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>25</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="11">
+      <c r="D47" s="11">
         <v>61</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>7200</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>4500</v>
       </c>
-      <c r="G47" s="10">
+      <c r="H47" s="10">
         <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
-      <c r="H47" s="10">
+      <c r="I47" s="10">
         <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>20</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
       <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
         <v>0.05</v>
       </c>
-      <c r="M47" s="1">
-        <v>10</v>
-      </c>
       <c r="N47" s="1">
+        <v>10</v>
+      </c>
+      <c r="O47" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>0.6</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <v>6</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3</v>
       </c>
-      <c r="R47" s="1">
-        <v>1</v>
-      </c>
       <c r="S47" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T47" s="1">
         <v>10</v>
       </c>
       <c r="U47" s="1">
+        <v>10</v>
+      </c>
+      <c r="V47" s="1">
         <v>0.01</v>
       </c>
-      <c r="V47" s="1">
-        <v>10</v>
-      </c>
       <c r="W47" s="1">
+        <v>10</v>
+      </c>
+      <c r="X47" s="1">
         <v>20</v>
       </c>
-      <c r="X47" s="1" t="str">
+      <c r="Y47" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>59</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA47" s="1"/>
       <c r="AB47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="9">
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF47" s="1">
+      <c r="AG47" s="1">
         <v>16</v>
       </c>
-      <c r="AG47" s="1">
-        <v>5</v>
-      </c>
       <c r="AH47" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:34">
+      <c r="AI47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>26</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="8">
+      <c r="D48" s="8">
         <v>356</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="1">
+      <c r="F48" s="1">
         <v>7200</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>4500</v>
       </c>
-      <c r="G48" s="10">
-        <f t="shared" ref="G48:G49" si="8">PRODUCT(AE48:AG48)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48:H49" si="9">PRODUCT(AE48,AF48,AH48)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I48" s="1">
+        <f t="shared" ref="H48:H49" si="8">PRODUCT(AF48:AH48)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" ref="I48:I49" si="9">PRODUCT(AF48,AG48,AI48)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J48" s="1">
         <v>30</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
       <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
         <v>0.05</v>
       </c>
-      <c r="M48" s="1">
-        <v>10</v>
-      </c>
       <c r="N48" s="1">
+        <v>10</v>
+      </c>
+      <c r="O48" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>0.6</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <v>6</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3</v>
       </c>
-      <c r="R48" s="1">
-        <v>1</v>
-      </c>
       <c r="S48" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T48" s="1">
         <v>10</v>
       </c>
       <c r="U48" s="1">
+        <v>10</v>
+      </c>
+      <c r="V48" s="1">
         <v>0.01</v>
       </c>
-      <c r="V48" s="1">
-        <v>10</v>
-      </c>
       <c r="W48" s="1">
+        <v>10</v>
+      </c>
+      <c r="X48" s="1">
         <v>20</v>
       </c>
-      <c r="X48" s="1" t="str">
+      <c r="Y48" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>68</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA48" s="1"/>
       <c r="AB48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="9">
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF48" s="1">
+      <c r="AG48" s="1">
         <v>16</v>
       </c>
-      <c r="AG48" s="1">
-        <v>5</v>
-      </c>
       <c r="AH48" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:34">
+      <c r="AI48" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>27</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="8">
+      <c r="D49" s="8">
         <v>361</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="1">
+      <c r="F49" s="1">
         <v>7200</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>4500</v>
       </c>
-      <c r="G49" s="10">
+      <c r="H49" s="10">
         <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
-      <c r="H49" s="10">
+      <c r="I49" s="10">
         <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>30</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
       <c r="L49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
         <v>0.05</v>
       </c>
-      <c r="M49" s="1">
-        <v>10</v>
-      </c>
       <c r="N49" s="1">
+        <v>10</v>
+      </c>
+      <c r="O49" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>0.6</v>
       </c>
-      <c r="P49" s="1">
+      <c r="Q49" s="1">
         <v>6</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3</v>
       </c>
-      <c r="R49" s="1">
-        <v>1</v>
-      </c>
       <c r="S49" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
         <v>10</v>
       </c>
       <c r="U49" s="1">
+        <v>10</v>
+      </c>
+      <c r="V49" s="1">
         <v>0.01</v>
       </c>
-      <c r="V49" s="1">
-        <v>10</v>
-      </c>
       <c r="W49" s="1">
+        <v>10</v>
+      </c>
+      <c r="X49" s="1">
         <v>20</v>
       </c>
-      <c r="X49" s="1" t="str">
+      <c r="Y49" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>59</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA49" s="1"/>
       <c r="AB49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="9">
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF49" s="1">
+      <c r="AG49" s="1">
         <v>16</v>
       </c>
-      <c r="AG49" s="1">
-        <v>5</v>
-      </c>
       <c r="AH49" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:34">
+      <c r="AI49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>28</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="8">
+      <c r="D50" s="8">
         <v>456</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>7200</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>4500</v>
       </c>
-      <c r="G50" s="10">
-        <f t="shared" ref="G50:G51" si="10">PRODUCT(AE50:AG50)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H50" s="10">
-        <f t="shared" ref="H50:H51" si="11">PRODUCT(AE50,AF50,AH50)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I50" s="1">
+        <f t="shared" ref="H50:H51" si="10">PRODUCT(AF50:AH50)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" ref="I50:I51" si="11">PRODUCT(AF50,AG50,AI50)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J50" s="1">
         <v>40</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
       <c r="L50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
         <v>0.05</v>
       </c>
-      <c r="M50" s="1">
-        <v>10</v>
-      </c>
       <c r="N50" s="1">
+        <v>10</v>
+      </c>
+      <c r="O50" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>0.6</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <v>6</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="3">
         <v>3</v>
       </c>
-      <c r="R50" s="1">
-        <v>1</v>
-      </c>
       <c r="S50" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T50" s="1">
         <v>10</v>
       </c>
       <c r="U50" s="1">
+        <v>10</v>
+      </c>
+      <c r="V50" s="1">
         <v>0.01</v>
       </c>
-      <c r="V50" s="1">
-        <v>10</v>
-      </c>
       <c r="W50" s="1">
+        <v>10</v>
+      </c>
+      <c r="X50" s="1">
         <v>20</v>
       </c>
-      <c r="X50" s="1" t="str">
+      <c r="Y50" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>68</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA50" s="1"/>
       <c r="AB50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD50" s="1"/>
-      <c r="AE50" s="9">
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF50" s="1">
+      <c r="AG50" s="1">
         <v>16</v>
       </c>
-      <c r="AG50" s="1">
-        <v>5</v>
-      </c>
       <c r="AH50" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:34">
+      <c r="AI50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>29</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="8">
+      <c r="D51" s="8">
         <v>461</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>7200</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>4500</v>
       </c>
-      <c r="G51" s="10">
+      <c r="H51" s="10">
         <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
-      <c r="H51" s="10">
+      <c r="I51" s="10">
         <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>40</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
       <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
         <v>0.05</v>
       </c>
-      <c r="M51" s="1">
-        <v>10</v>
-      </c>
       <c r="N51" s="1">
+        <v>10</v>
+      </c>
+      <c r="O51" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>0.6</v>
       </c>
-      <c r="P51" s="1">
+      <c r="Q51" s="1">
         <v>6</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="R51" s="3">
         <v>3</v>
       </c>
-      <c r="R51" s="1">
-        <v>1</v>
-      </c>
       <c r="S51" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
         <v>10</v>
       </c>
       <c r="U51" s="1">
+        <v>10</v>
+      </c>
+      <c r="V51" s="1">
         <v>0.01</v>
       </c>
-      <c r="V51" s="1">
-        <v>10</v>
-      </c>
       <c r="W51" s="1">
+        <v>10</v>
+      </c>
+      <c r="X51" s="1">
         <v>20</v>
       </c>
-      <c r="X51" s="1" t="str">
+      <c r="Y51" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>59</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA51" s="1"/>
       <c r="AB51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD51" s="1"/>
-      <c r="AE51" s="9">
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF51" s="1">
+      <c r="AG51" s="1">
         <v>16</v>
       </c>
-      <c r="AG51" s="1">
-        <v>5</v>
-      </c>
       <c r="AH51" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:34">
+      <c r="AI51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>30</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="8">
+      <c r="D52" s="8">
         <v>62</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="1">
+      <c r="F52" s="1">
         <v>7200</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>4500</v>
       </c>
-      <c r="G52" s="10">
-        <f t="shared" ref="G52" si="12">PRODUCT(AE52:AG52)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H52" s="10">
-        <f t="shared" ref="H52" si="13">PRODUCT(AE52,AF52,AH52)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I52" s="1">
+        <f t="shared" ref="H52" si="12">PRODUCT(AF52:AH52)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" ref="I52" si="13">PRODUCT(AF52,AG52,AI52)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J52" s="1">
         <v>30</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
       <c r="L52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
         <v>0.05</v>
       </c>
-      <c r="M52" s="1">
-        <v>10</v>
-      </c>
       <c r="N52" s="1">
+        <v>10</v>
+      </c>
+      <c r="O52" s="1">
         <v>-0.3</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>0.6</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <v>6</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3</v>
       </c>
-      <c r="R52" s="1">
-        <v>1</v>
-      </c>
       <c r="S52" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
         <v>10</v>
       </c>
       <c r="U52" s="1">
+        <v>10</v>
+      </c>
+      <c r="V52" s="1">
         <v>0.01</v>
       </c>
-      <c r="V52" s="1">
-        <v>10</v>
-      </c>
       <c r="W52" s="1">
+        <v>10</v>
+      </c>
+      <c r="X52" s="1">
         <v>20</v>
       </c>
-      <c r="X52" s="1" t="str">
+      <c r="Y52" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>59</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA52" s="1"/>
       <c r="AB52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="9">
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF52" s="1">
+      <c r="AG52" s="1">
         <v>16</v>
       </c>
-      <c r="AG52" s="1">
-        <v>5</v>
-      </c>
       <c r="AH52" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:34">
+      <c r="AI52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>31</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="8">
+      <c r="D53" s="8">
         <v>63</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>80</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>7200</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>4500</v>
       </c>
-      <c r="G53" s="10">
-        <f t="shared" ref="G53:G54" si="14">PRODUCT(AE53:AG53)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H53" s="10">
-        <f t="shared" ref="H53:H54" si="15">PRODUCT(AE53,AF53,AH53)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I53" s="1">
+        <f t="shared" ref="H53:H54" si="14">PRODUCT(AF53:AH53)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" ref="I53:I54" si="15">PRODUCT(AF53,AG53,AI53)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J53" s="1">
         <v>30</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
       <c r="L53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
         <v>0.05</v>
       </c>
-      <c r="M53" s="1">
-        <v>10</v>
-      </c>
       <c r="N53" s="1">
+        <v>10</v>
+      </c>
+      <c r="O53" s="1">
         <v>-0.6</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>0.6</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <v>6</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="R53" s="3">
         <v>3</v>
       </c>
-      <c r="R53" s="1">
-        <v>1</v>
-      </c>
       <c r="S53" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T53" s="1">
         <v>10</v>
       </c>
       <c r="U53" s="1">
+        <v>10</v>
+      </c>
+      <c r="V53" s="1">
         <v>0.01</v>
       </c>
-      <c r="V53" s="1">
-        <v>10</v>
-      </c>
       <c r="W53" s="1">
+        <v>10</v>
+      </c>
+      <c r="X53" s="1">
         <v>20</v>
       </c>
-      <c r="X53" s="1" t="str">
+      <c r="Y53" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>59</v>
       </c>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA53" s="1"/>
       <c r="AB53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="9">
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AG53" s="1">
         <v>16</v>
       </c>
-      <c r="AG53" s="1">
-        <v>5</v>
-      </c>
       <c r="AH53" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:34">
-      <c r="C54" s="8">
+      <c r="AI53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="D54" s="8">
         <v>64</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>7200</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>4500</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
-      <c r="H54" s="10">
+      <c r="I54" s="10">
         <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>30</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
       <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
         <v>0.05</v>
       </c>
-      <c r="M54" s="1">
-        <v>10</v>
-      </c>
       <c r="N54" s="1">
+        <v>10</v>
+      </c>
+      <c r="O54" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>0.6</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <v>6</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3</v>
       </c>
-      <c r="R54" s="1">
-        <v>1</v>
-      </c>
       <c r="S54" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T54" s="1">
         <v>10</v>
       </c>
       <c r="U54" s="1">
+        <v>10</v>
+      </c>
+      <c r="V54" s="1">
         <v>0.01</v>
       </c>
-      <c r="V54" s="1">
-        <v>10</v>
-      </c>
       <c r="W54" s="1">
+        <v>10</v>
+      </c>
+      <c r="X54" s="1">
         <v>20</v>
       </c>
-      <c r="X54" s="1" t="str">
+      <c r="Y54" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>82</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA54" s="1"/>
       <c r="AB54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="9">
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AG54" s="1">
         <v>16</v>
       </c>
-      <c r="AG54" s="1">
-        <v>5</v>
-      </c>
       <c r="AH54" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:34">
-      <c r="C55" s="11" t="s">
+      <c r="AI54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
+      <c r="D55" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="1">
+      <c r="F55" s="1">
         <v>7200</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>4500</v>
       </c>
-      <c r="G55" s="10">
-        <f t="shared" ref="G55:G57" si="16">PRODUCT(AE55:AG55)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H55" s="10">
-        <f t="shared" ref="H55:H57" si="17">PRODUCT(AE55,AF55,AH55)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I55" s="1">
+        <f t="shared" ref="H55:H57" si="16">PRODUCT(AF55:AH55)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" ref="I55:I57" si="17">PRODUCT(AF55,AG55,AI55)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J55" s="1">
         <v>30</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K55" s="1">
-        <v>1</v>
-      </c>
       <c r="L55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
         <v>0.05</v>
       </c>
-      <c r="M55" s="1">
-        <v>10</v>
-      </c>
       <c r="N55" s="1">
+        <v>10</v>
+      </c>
+      <c r="O55" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>0.6</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <v>6</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="R55" s="3">
         <v>3</v>
       </c>
-      <c r="R55" s="1">
-        <v>1</v>
-      </c>
       <c r="S55" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T55" s="1">
         <v>10</v>
       </c>
       <c r="U55" s="1">
+        <v>10</v>
+      </c>
+      <c r="V55" s="1">
         <v>0.01</v>
       </c>
-      <c r="V55" s="1">
-        <v>10</v>
-      </c>
       <c r="W55" s="1">
+        <v>10</v>
+      </c>
+      <c r="X55" s="1">
         <v>20</v>
       </c>
-      <c r="X55" s="1" t="str">
+      <c r="Y55" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>82</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA55" s="1"/>
       <c r="AB55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD55" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="9">
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AG55" s="1">
         <v>16</v>
       </c>
-      <c r="AG55" s="1">
-        <v>5</v>
-      </c>
       <c r="AH55" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:34">
-      <c r="C56" s="8">
+      <c r="AI55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
+      <c r="D56" s="8">
         <v>65</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F56" s="1">
         <v>7200</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>4500</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="10">
         <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
-      <c r="H56" s="10">
+      <c r="I56" s="10">
         <f t="shared" si="17"/>
         <v>2400000000</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>30</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K56" s="1">
-        <v>1</v>
-      </c>
       <c r="L56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
         <v>0.05</v>
       </c>
-      <c r="M56" s="1">
-        <v>10</v>
-      </c>
       <c r="N56" s="1">
+        <v>10</v>
+      </c>
+      <c r="O56" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>0.6</v>
       </c>
-      <c r="P56" s="1">
+      <c r="Q56" s="1">
         <v>6</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="R56" s="3">
         <v>3</v>
       </c>
-      <c r="R56" s="1">
-        <v>1</v>
-      </c>
       <c r="S56" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T56" s="1">
         <v>10</v>
       </c>
       <c r="U56" s="1">
+        <v>10</v>
+      </c>
+      <c r="V56" s="1">
         <v>0.01</v>
       </c>
-      <c r="V56" s="1">
-        <v>10</v>
-      </c>
       <c r="W56" s="1">
+        <v>10</v>
+      </c>
+      <c r="X56" s="1">
         <v>20</v>
       </c>
-      <c r="X56" s="1" t="str">
+      <c r="Y56" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>86</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA56" s="1"/>
       <c r="AB56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="9">
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AG56" s="1">
         <v>16</v>
       </c>
-      <c r="AG56" s="1">
-        <v>5</v>
-      </c>
       <c r="AH56" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:34">
-      <c r="C57" s="8">
+      <c r="AI56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
+      <c r="D57" s="8">
         <v>71</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="1">
+      <c r="F57" s="1">
         <v>7200</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>4500</v>
       </c>
-      <c r="G57" s="10">
+      <c r="H57" s="10">
         <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
-      <c r="H57" s="10">
+      <c r="I57" s="10">
         <f t="shared" si="17"/>
         <v>2400000000</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>30</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K57" s="1">
-        <v>1</v>
-      </c>
       <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
         <v>0.05</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <v>2.5</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>0.6</v>
       </c>
-      <c r="P57" s="1">
+      <c r="Q57" s="1">
         <v>6</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3</v>
       </c>
-      <c r="R57" s="1">
-        <v>1</v>
-      </c>
       <c r="S57" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T57" s="1">
         <v>10</v>
       </c>
       <c r="U57" s="1">
+        <v>10</v>
+      </c>
+      <c r="V57" s="1">
         <v>0.01</v>
       </c>
-      <c r="V57" s="1">
-        <v>10</v>
-      </c>
       <c r="W57" s="1">
+        <v>10</v>
+      </c>
+      <c r="X57" s="1">
         <v>20</v>
       </c>
-      <c r="X57" s="1" t="str">
+      <c r="Y57" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>59</v>
       </c>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA57" s="1"/>
       <c r="AB57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="9">
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF57" s="1">
+      <c r="AG57" s="1">
         <v>16</v>
       </c>
-      <c r="AG57" s="1">
-        <v>5</v>
-      </c>
       <c r="AH57" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:34">
-      <c r="C58" s="8">
+      <c r="AI57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="D58" s="8">
         <v>72</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="1">
+      <c r="F58" s="1">
         <v>7200</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>4500</v>
       </c>
-      <c r="G58" s="10">
-        <f t="shared" ref="G58" si="18">PRODUCT(AE58:AG58)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58" si="19">PRODUCT(AE58,AF58,AH58)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I58" s="1">
+        <f t="shared" ref="H58" si="18">PRODUCT(AF58:AH58)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" ref="I58" si="19">PRODUCT(AF58,AG58,AI58)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J58" s="1">
         <v>30</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K58" s="1">
-        <v>1</v>
-      </c>
       <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
         <v>0.05</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N58" s="1">
         <v>2.5</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>0.6</v>
       </c>
-      <c r="P58" s="1">
+      <c r="Q58" s="1">
         <v>6</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3</v>
       </c>
-      <c r="R58" s="1">
-        <v>1</v>
-      </c>
       <c r="S58" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T58" s="1">
         <v>10</v>
       </c>
       <c r="U58" s="1">
+        <v>10</v>
+      </c>
+      <c r="V58" s="1">
         <v>0.01</v>
       </c>
-      <c r="V58" s="1">
-        <v>10</v>
-      </c>
       <c r="W58" s="1">
+        <v>10</v>
+      </c>
+      <c r="X58" s="1">
         <v>20</v>
       </c>
-      <c r="X58" s="1" t="str">
+      <c r="Y58" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>68</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA58" s="1"/>
       <c r="AB58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="9">
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AG58" s="1">
         <v>16</v>
       </c>
-      <c r="AG58" s="1">
-        <v>5</v>
-      </c>
       <c r="AH58" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:34">
-      <c r="C60" s="8" t="s">
+      <c r="AI58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="D60" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="1">
+      <c r="F60" s="1">
         <v>7200</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>4500</v>
       </c>
-      <c r="G60" s="10">
-        <f t="shared" ref="G60:G65" si="20">PRODUCT(AE60:AG60)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H60" s="10">
-        <f t="shared" ref="H60:H65" si="21">PRODUCT(AE60,AF60,AH60)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I60" s="1">
+        <f t="shared" ref="H60:H65" si="20">PRODUCT(AF60:AH60)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I60" s="10">
+        <f t="shared" ref="I60:I65" si="21">PRODUCT(AF60,AG60,AI60)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J60" s="1">
         <v>30</v>
       </c>
-      <c r="J60" s="1">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
-      <c r="K60" s="1">
-        <v>1</v>
-      </c>
       <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
         <v>0.05</v>
       </c>
-      <c r="M60" s="1">
-        <v>10</v>
-      </c>
       <c r="N60" s="1">
+        <v>10</v>
+      </c>
+      <c r="O60" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O60" s="1">
+      <c r="P60" s="1">
         <v>0.6</v>
       </c>
-      <c r="P60" s="1">
+      <c r="Q60" s="1">
         <v>6</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3</v>
       </c>
-      <c r="R60" s="1">
-        <v>1</v>
-      </c>
       <c r="S60" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
         <v>10</v>
       </c>
       <c r="U60" s="1">
+        <v>10</v>
+      </c>
+      <c r="V60" s="1">
         <v>0.01</v>
       </c>
-      <c r="V60" s="1">
-        <v>10</v>
-      </c>
       <c r="W60" s="1">
+        <v>10</v>
+      </c>
+      <c r="X60" s="1">
         <v>20</v>
       </c>
-      <c r="X60" s="1" t="str">
+      <c r="Y60" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>82</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA60" s="1"/>
       <c r="AB60" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="9">
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AG60" s="1">
         <v>16</v>
       </c>
-      <c r="AG60" s="1">
-        <v>5</v>
-      </c>
       <c r="AH60" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:34">
-      <c r="C61" s="8" t="s">
+      <c r="AI60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35">
+      <c r="D61" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>7200</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>4500</v>
       </c>
-      <c r="G61" s="10">
+      <c r="H61" s="10">
         <f t="shared" si="20"/>
         <v>2400000000</v>
       </c>
-      <c r="H61" s="10">
+      <c r="I61" s="10">
         <f t="shared" si="21"/>
         <v>2400000000</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>30</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
       <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
         <v>0.05</v>
       </c>
-      <c r="M61" s="1">
-        <v>10</v>
-      </c>
       <c r="N61" s="1">
+        <v>10</v>
+      </c>
+      <c r="O61" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <v>0.6</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <v>4</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3</v>
       </c>
-      <c r="R61" s="1">
-        <v>1</v>
-      </c>
       <c r="S61" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T61" s="1">
         <v>10</v>
       </c>
       <c r="U61" s="1">
+        <v>10</v>
+      </c>
+      <c r="V61" s="1">
         <v>0.01</v>
       </c>
-      <c r="V61" s="1">
-        <v>10</v>
-      </c>
       <c r="W61" s="1">
+        <v>10</v>
+      </c>
+      <c r="X61" s="1">
         <v>20</v>
       </c>
-      <c r="X61" s="1" t="str">
+      <c r="Y61" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>82</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="9">
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AG61" s="1">
         <v>16</v>
       </c>
-      <c r="AG61" s="1">
-        <v>5</v>
-      </c>
       <c r="AH61" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:34">
-      <c r="C62" s="8" t="s">
+      <c r="AI61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="D62" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>7200</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>4500</v>
       </c>
-      <c r="G62" s="10">
+      <c r="H62" s="10">
         <f t="shared" si="20"/>
         <v>2400000000</v>
       </c>
-      <c r="H62" s="10">
+      <c r="I62" s="10">
         <f t="shared" si="21"/>
         <v>2400000000</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J62" s="1">
         <v>30</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
       <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
         <v>0.05</v>
       </c>
-      <c r="M62" s="1">
-        <v>10</v>
-      </c>
       <c r="N62" s="1">
+        <v>10</v>
+      </c>
+      <c r="O62" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O62" s="1">
+      <c r="P62" s="1">
         <v>0.6</v>
       </c>
-      <c r="P62" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="1">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>3</v>
       </c>
-      <c r="R62" s="1">
-        <v>1</v>
-      </c>
       <c r="S62" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T62" s="1">
         <v>10</v>
       </c>
       <c r="U62" s="1">
+        <v>10</v>
+      </c>
+      <c r="V62" s="1">
         <v>0.01</v>
       </c>
-      <c r="V62" s="1">
-        <v>10</v>
-      </c>
       <c r="W62" s="1">
+        <v>10</v>
+      </c>
+      <c r="X62" s="1">
         <v>20</v>
       </c>
-      <c r="X62" s="1" t="str">
+      <c r="Y62" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>82</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA62" s="1"/>
       <c r="AB62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="9">
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF62" s="1">
+      <c r="AG62" s="1">
         <v>16</v>
       </c>
-      <c r="AG62" s="1">
-        <v>5</v>
-      </c>
       <c r="AH62" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:34">
-      <c r="C63" s="8" t="s">
+      <c r="AI62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35">
+      <c r="D63" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="1">
+      <c r="F63" s="1">
         <v>7200</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>4500</v>
       </c>
-      <c r="G63" s="10">
+      <c r="H63" s="10">
         <f t="shared" si="20"/>
         <v>2400000000</v>
       </c>
-      <c r="H63" s="10">
+      <c r="I63" s="10">
         <f t="shared" si="21"/>
         <v>2400000000</v>
       </c>
-      <c r="I63" s="1">
-        <v>5</v>
-      </c>
       <c r="J63" s="1">
+        <v>5</v>
+      </c>
+      <c r="K63" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K63" s="1">
-        <v>1</v>
-      </c>
       <c r="L63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
         <v>0.05</v>
       </c>
-      <c r="M63" s="1">
-        <v>10</v>
-      </c>
       <c r="N63" s="1">
+        <v>10</v>
+      </c>
+      <c r="O63" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O63" s="1">
+      <c r="P63" s="1">
         <v>0.6</v>
       </c>
-      <c r="P63" s="1">
+      <c r="Q63" s="1">
         <v>6</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="R63" s="3">
         <v>3</v>
       </c>
-      <c r="R63" s="1">
-        <v>1</v>
-      </c>
       <c r="S63" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T63" s="1">
         <v>10</v>
       </c>
       <c r="U63" s="1">
+        <v>10</v>
+      </c>
+      <c r="V63" s="1">
         <v>0.01</v>
       </c>
-      <c r="V63" s="1">
-        <v>10</v>
-      </c>
       <c r="W63" s="1">
+        <v>10</v>
+      </c>
+      <c r="X63" s="1">
         <v>20</v>
       </c>
-      <c r="X63" s="1" t="str">
+      <c r="Y63" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>82</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA63" s="1"/>
       <c r="AB63" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD63" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD63" s="1"/>
-      <c r="AE63" s="9">
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AG63" s="1">
         <v>16</v>
       </c>
-      <c r="AG63" s="1">
-        <v>5</v>
-      </c>
       <c r="AH63" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:34">
-      <c r="C64" s="8" t="s">
+      <c r="AI63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35">
+      <c r="D64" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>7200</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>4500</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <f t="shared" si="20"/>
         <v>2400000000</v>
       </c>
-      <c r="H64" s="10">
+      <c r="I64" s="10">
         <f t="shared" si="21"/>
         <v>2400000000</v>
       </c>
-      <c r="I64" s="1">
+      <c r="J64" s="1">
         <v>60</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K64" s="1">
-        <v>1</v>
-      </c>
       <c r="L64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
         <v>0.05</v>
       </c>
-      <c r="M64" s="1">
-        <v>10</v>
-      </c>
       <c r="N64" s="1">
+        <v>10</v>
+      </c>
+      <c r="O64" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O64" s="1">
+      <c r="P64" s="1">
         <v>0.6</v>
       </c>
-      <c r="P64" s="1">
+      <c r="Q64" s="1">
         <v>6</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="R64" s="3">
         <v>3</v>
       </c>
-      <c r="R64" s="1">
-        <v>1</v>
-      </c>
       <c r="S64" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T64" s="1">
         <v>10</v>
       </c>
       <c r="U64" s="1">
+        <v>10</v>
+      </c>
+      <c r="V64" s="1">
         <v>0.01</v>
       </c>
-      <c r="V64" s="1">
-        <v>10</v>
-      </c>
       <c r="W64" s="1">
+        <v>10</v>
+      </c>
+      <c r="X64" s="1">
         <v>20</v>
       </c>
-      <c r="X64" s="1" t="str">
+      <c r="Y64" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>82</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA64" s="1"/>
       <c r="AB64" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="9">
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AG64" s="1">
         <v>16</v>
       </c>
-      <c r="AG64" s="1">
-        <v>5</v>
-      </c>
       <c r="AH64" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="2:34">
-      <c r="C65" s="8" t="s">
+      <c r="AI64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:35">
+      <c r="D65" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E65" s="1">
+      <c r="F65" s="1">
         <v>7200</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>4500</v>
       </c>
-      <c r="G65" s="10">
+      <c r="H65" s="10">
         <f t="shared" si="20"/>
         <v>2400000000</v>
       </c>
-      <c r="H65" s="10">
+      <c r="I65" s="10">
         <f t="shared" si="21"/>
         <v>2400000000</v>
       </c>
-      <c r="I65" s="1">
+      <c r="J65" s="1">
         <v>100</v>
       </c>
-      <c r="J65" s="1">
+      <c r="K65" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K65" s="1">
-        <v>1</v>
-      </c>
       <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
         <v>0.05</v>
       </c>
-      <c r="M65" s="1">
-        <v>10</v>
-      </c>
       <c r="N65" s="1">
+        <v>10</v>
+      </c>
+      <c r="O65" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O65" s="1">
+      <c r="P65" s="1">
         <v>0.6</v>
       </c>
-      <c r="P65" s="1">
+      <c r="Q65" s="1">
         <v>6</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="R65" s="3">
         <v>3</v>
       </c>
-      <c r="R65" s="1">
-        <v>1</v>
-      </c>
       <c r="S65" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T65" s="1">
         <v>10</v>
       </c>
       <c r="U65" s="1">
+        <v>10</v>
+      </c>
+      <c r="V65" s="1">
         <v>0.01</v>
       </c>
-      <c r="V65" s="1">
-        <v>10</v>
-      </c>
       <c r="W65" s="1">
+        <v>10</v>
+      </c>
+      <c r="X65" s="1">
         <v>20</v>
       </c>
-      <c r="X65" s="1" t="str">
+      <c r="Y65" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>82</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA65" s="1"/>
       <c r="AB65" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="9">
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AG65" s="1">
         <v>16</v>
       </c>
-      <c r="AG65" s="1">
-        <v>5</v>
-      </c>
       <c r="AH65" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:34">
-      <c r="C67" s="8" t="s">
+      <c r="AI65" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="3:35">
+      <c r="D67" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="1">
+      <c r="F67" s="1">
         <v>7200</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>4500</v>
       </c>
-      <c r="G67" s="10">
-        <f t="shared" ref="G67:G72" si="22">PRODUCT(AE67:AG67)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H72" si="23">PRODUCT(AE67,AF67,AH67)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I67" s="1">
+        <f t="shared" ref="H67:H72" si="22">PRODUCT(AF67:AH67)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" ref="I67:I72" si="23">PRODUCT(AF67,AG67,AI67)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J67" s="1">
         <v>30</v>
       </c>
-      <c r="J67" s="1">
+      <c r="K67" s="1">
         <v>0</v>
       </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
       <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
         <v>0.05</v>
       </c>
-      <c r="M67" s="1">
-        <v>10</v>
-      </c>
       <c r="N67" s="1">
+        <v>10</v>
+      </c>
+      <c r="O67" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O67" s="1">
+      <c r="P67" s="1">
         <v>0.6</v>
       </c>
-      <c r="P67" s="1">
+      <c r="Q67" s="1">
         <v>6</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="R67" s="3">
         <v>3</v>
       </c>
-      <c r="R67" s="1">
-        <v>1</v>
-      </c>
       <c r="S67" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T67" s="1">
         <v>10</v>
       </c>
       <c r="U67" s="1">
+        <v>10</v>
+      </c>
+      <c r="V67" s="1">
         <v>0.01</v>
       </c>
-      <c r="V67" s="1">
-        <v>10</v>
-      </c>
       <c r="W67" s="1">
+        <v>10</v>
+      </c>
+      <c r="X67" s="1">
         <v>20</v>
       </c>
-      <c r="X67" s="1" t="str">
+      <c r="Y67" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>86</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA67" s="1"/>
       <c r="AB67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="9">
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AG67" s="1">
         <v>16</v>
       </c>
-      <c r="AG67" s="1">
-        <v>5</v>
-      </c>
       <c r="AH67" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="2:34">
-      <c r="C68" s="8" t="s">
+      <c r="AI67" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:35">
+      <c r="D68" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="1">
+      <c r="F68" s="1">
         <v>7200</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>4500</v>
       </c>
-      <c r="G68" s="10">
+      <c r="H68" s="10">
         <f t="shared" si="22"/>
         <v>2400000000</v>
       </c>
-      <c r="H68" s="10">
+      <c r="I68" s="10">
         <f t="shared" si="23"/>
         <v>2400000000</v>
       </c>
-      <c r="I68" s="1">
+      <c r="J68" s="1">
         <v>30</v>
       </c>
-      <c r="J68" s="1">
+      <c r="K68" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K68" s="1">
-        <v>1</v>
-      </c>
       <c r="L68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
         <v>0.05</v>
       </c>
-      <c r="M68" s="1">
-        <v>10</v>
-      </c>
       <c r="N68" s="1">
+        <v>10</v>
+      </c>
+      <c r="O68" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O68" s="1">
+      <c r="P68" s="1">
         <v>0.6</v>
       </c>
-      <c r="P68" s="1">
+      <c r="Q68" s="1">
         <v>4</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="R68" s="3">
         <v>3</v>
       </c>
-      <c r="R68" s="1">
-        <v>1</v>
-      </c>
       <c r="S68" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T68" s="1">
         <v>10</v>
       </c>
       <c r="U68" s="1">
+        <v>10</v>
+      </c>
+      <c r="V68" s="1">
         <v>0.01</v>
       </c>
-      <c r="V68" s="1">
-        <v>10</v>
-      </c>
       <c r="W68" s="1">
+        <v>10</v>
+      </c>
+      <c r="X68" s="1">
         <v>20</v>
       </c>
-      <c r="X68" s="1" t="str">
+      <c r="Y68" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>86</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA68" s="1"/>
       <c r="AB68" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="9">
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF68" s="1">
+      <c r="AG68" s="1">
         <v>16</v>
       </c>
-      <c r="AG68" s="1">
-        <v>5</v>
-      </c>
       <c r="AH68" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="2:34">
-      <c r="C69" s="8" t="s">
+      <c r="AI68" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:35">
+      <c r="D69" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="1">
+      <c r="F69" s="1">
         <v>7200</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>4500</v>
       </c>
-      <c r="G69" s="10">
+      <c r="H69" s="10">
         <f t="shared" si="22"/>
         <v>2400000000</v>
       </c>
-      <c r="H69" s="10">
+      <c r="I69" s="10">
         <f t="shared" si="23"/>
         <v>2400000000</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>30</v>
       </c>
-      <c r="J69" s="1">
+      <c r="K69" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
       <c r="L69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
         <v>0.05</v>
       </c>
-      <c r="M69" s="1">
-        <v>10</v>
-      </c>
       <c r="N69" s="1">
+        <v>10</v>
+      </c>
+      <c r="O69" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O69" s="1">
+      <c r="P69" s="1">
         <v>0.6</v>
       </c>
-      <c r="P69" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q69" s="3">
+      <c r="Q69" s="1">
+        <v>5</v>
+      </c>
+      <c r="R69" s="3">
         <v>3</v>
       </c>
-      <c r="R69" s="1">
-        <v>1</v>
-      </c>
       <c r="S69" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T69" s="1">
         <v>10</v>
       </c>
       <c r="U69" s="1">
+        <v>10</v>
+      </c>
+      <c r="V69" s="1">
         <v>0.01</v>
       </c>
-      <c r="V69" s="1">
-        <v>10</v>
-      </c>
       <c r="W69" s="1">
+        <v>10</v>
+      </c>
+      <c r="X69" s="1">
         <v>20</v>
       </c>
-      <c r="X69" s="1" t="str">
+      <c r="Y69" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>86</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA69" s="1"/>
       <c r="AB69" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="9">
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AG69" s="1">
         <v>16</v>
       </c>
-      <c r="AG69" s="1">
-        <v>5</v>
-      </c>
       <c r="AH69" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="2:34">
-      <c r="C70" s="8" t="s">
+      <c r="AI69" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:35">
+      <c r="D70" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E70" s="1">
+      <c r="F70" s="1">
         <v>7200</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>4500</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <f t="shared" si="22"/>
         <v>2400000000</v>
       </c>
-      <c r="H70" s="10">
+      <c r="I70" s="10">
         <f t="shared" si="23"/>
         <v>2400000000</v>
       </c>
-      <c r="I70" s="1">
-        <v>5</v>
-      </c>
       <c r="J70" s="1">
+        <v>5</v>
+      </c>
+      <c r="K70" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K70" s="1">
-        <v>1</v>
-      </c>
       <c r="L70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
         <v>0.05</v>
       </c>
-      <c r="M70" s="1">
-        <v>10</v>
-      </c>
       <c r="N70" s="1">
+        <v>10</v>
+      </c>
+      <c r="O70" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O70" s="1">
+      <c r="P70" s="1">
         <v>0.6</v>
       </c>
-      <c r="P70" s="1">
+      <c r="Q70" s="1">
         <v>6</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3</v>
       </c>
-      <c r="R70" s="1">
-        <v>1</v>
-      </c>
       <c r="S70" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T70" s="1">
         <v>10</v>
       </c>
       <c r="U70" s="1">
+        <v>10</v>
+      </c>
+      <c r="V70" s="1">
         <v>0.01</v>
       </c>
-      <c r="V70" s="1">
-        <v>10</v>
-      </c>
       <c r="W70" s="1">
+        <v>10</v>
+      </c>
+      <c r="X70" s="1">
         <v>20</v>
       </c>
-      <c r="X70" s="1" t="str">
+      <c r="Y70" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>86</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA70" s="1"/>
       <c r="AB70" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD70" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="9">
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF70" s="1">
+      <c r="AG70" s="1">
         <v>16</v>
       </c>
-      <c r="AG70" s="1">
-        <v>5</v>
-      </c>
       <c r="AH70" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="2:34">
-      <c r="C71" s="8" t="s">
+      <c r="AI70" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:35">
+      <c r="D71" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E71" s="1">
+      <c r="F71" s="1">
         <v>7200</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>4500</v>
       </c>
-      <c r="G71" s="10">
+      <c r="H71" s="10">
         <f t="shared" si="22"/>
         <v>2400000000</v>
       </c>
-      <c r="H71" s="10">
+      <c r="I71" s="10">
         <f t="shared" si="23"/>
         <v>2400000000</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>60</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K71" s="1">
-        <v>1</v>
-      </c>
       <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
         <v>0.05</v>
       </c>
-      <c r="M71" s="1">
-        <v>10</v>
-      </c>
       <c r="N71" s="1">
+        <v>10</v>
+      </c>
+      <c r="O71" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O71" s="1">
+      <c r="P71" s="1">
         <v>0.6</v>
       </c>
-      <c r="P71" s="1">
+      <c r="Q71" s="1">
         <v>6</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="R71" s="3">
         <v>3</v>
       </c>
-      <c r="R71" s="1">
-        <v>1</v>
-      </c>
       <c r="S71" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T71" s="1">
         <v>10</v>
       </c>
       <c r="U71" s="1">
+        <v>10</v>
+      </c>
+      <c r="V71" s="1">
         <v>0.01</v>
       </c>
-      <c r="V71" s="1">
-        <v>10</v>
-      </c>
       <c r="W71" s="1">
+        <v>10</v>
+      </c>
+      <c r="X71" s="1">
         <v>20</v>
       </c>
-      <c r="X71" s="1" t="str">
+      <c r="Y71" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>86</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA71" s="1"/>
       <c r="AB71" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD71" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="9">
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF71" s="1">
+      <c r="AG71" s="1">
         <v>16</v>
       </c>
-      <c r="AG71" s="1">
-        <v>5</v>
-      </c>
       <c r="AH71" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="2:34">
-      <c r="C72" s="8" t="s">
+      <c r="AI71" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="3:35">
+      <c r="D72" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="1">
+      <c r="F72" s="1">
         <v>7200</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>4500</v>
       </c>
-      <c r="G72" s="10">
+      <c r="H72" s="10">
         <f t="shared" si="22"/>
         <v>2400000000</v>
       </c>
-      <c r="H72" s="10">
+      <c r="I72" s="10">
         <f t="shared" si="23"/>
         <v>2400000000</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J72" s="1">
         <v>100</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K72" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K72" s="1">
-        <v>1</v>
-      </c>
       <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
         <v>0.05</v>
       </c>
-      <c r="M72" s="1">
-        <v>10</v>
-      </c>
       <c r="N72" s="1">
+        <v>10</v>
+      </c>
+      <c r="O72" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O72" s="1">
+      <c r="P72" s="1">
         <v>0.6</v>
       </c>
-      <c r="P72" s="1">
+      <c r="Q72" s="1">
         <v>6</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3</v>
       </c>
-      <c r="R72" s="1">
-        <v>1</v>
-      </c>
       <c r="S72" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T72" s="1">
         <v>10</v>
       </c>
       <c r="U72" s="1">
+        <v>10</v>
+      </c>
+      <c r="V72" s="1">
         <v>0.01</v>
       </c>
-      <c r="V72" s="1">
-        <v>10</v>
-      </c>
       <c r="W72" s="1">
+        <v>10</v>
+      </c>
+      <c r="X72" s="1">
         <v>20</v>
       </c>
-      <c r="X72" s="1" t="str">
+      <c r="Y72" s="1" t="str">
         <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>86</v>
       </c>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA72" s="1"/>
       <c r="AB72" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD72" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="9">
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF72" s="1">
+      <c r="AG72" s="1">
         <v>16</v>
       </c>
-      <c r="AG72" s="1">
-        <v>5</v>
-      </c>
       <c r="AH72" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="2:34">
-      <c r="B75" t="s">
+      <c r="AI72" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="3:35">
+      <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="8">
+      <c r="D75" s="8">
         <v>64</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>102</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <v>7200</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>4500</v>
       </c>
-      <c r="G75" s="10">
-        <f t="shared" ref="G75" si="24">PRODUCT(AE75:AG75)</f>
-        <v>2400000000</v>
-      </c>
       <c r="H75" s="10">
-        <f t="shared" ref="H75" si="25">PRODUCT(AE75,AF75,AH75)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I75" s="1">
+        <f t="shared" ref="H75" si="24">PRODUCT(AF75:AH75)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" ref="I75" si="25">PRODUCT(AF75,AG75,AI75)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J75" s="1">
         <v>30</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="K75" s="1">
-        <v>1</v>
-      </c>
       <c r="L75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
         <v>0.05</v>
       </c>
-      <c r="M75" s="1">
-        <v>10</v>
-      </c>
       <c r="N75" s="1">
+        <v>10</v>
+      </c>
+      <c r="O75" s="1">
         <v>-0.5</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <v>0.6</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <v>6</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="R75" s="3">
         <v>3</v>
       </c>
-      <c r="R75" s="1">
-        <v>1</v>
-      </c>
       <c r="S75" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T75" s="1">
         <v>10</v>
       </c>
       <c r="U75" s="1">
+        <v>10</v>
+      </c>
+      <c r="V75" s="1">
         <v>0.01</v>
       </c>
-      <c r="V75" s="1">
-        <v>10</v>
-      </c>
       <c r="W75" s="1">
+        <v>10</v>
+      </c>
+      <c r="X75" s="1">
         <v>20</v>
       </c>
-      <c r="X75" s="1" t="str">
-        <f t="shared" ref="X75" si="26">"1:10:10"</f>
+      <c r="Y75" s="1" t="str">
+        <f t="shared" ref="Y75" si="26">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>103</v>
       </c>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AA75" s="1"/>
       <c r="AB75" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="9">
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="9">
         <v>30000000</v>
       </c>
-      <c r="AF75" s="1">
+      <c r="AG75" s="1">
         <v>16</v>
       </c>
-      <c r="AG75" s="1">
-        <v>5</v>
-      </c>
       <c r="AH75" s="1">
         <v>5</v>
       </c>
+      <c r="AI75" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A6:AH18">
-    <sortCondition ref="C6:C18"/>
+  <sortState ref="A6:AI18">
+    <sortCondition ref="D6:D18"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="30540" windowHeight="9780" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,12 +440,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -720,7 +726,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,6 +757,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2091,10 +2098,10 @@
   <dimension ref="A1:AI75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2544,7 +2551,7 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="12">
         <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3125,7 +3132,7 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="12">
         <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -6407,11 +6414,11 @@
         <v>4500</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48:H49" si="8">PRODUCT(AF48:AH48)</f>
+        <f t="shared" ref="H48:H58" si="8">PRODUCT(AF48:AH48)</f>
         <v>2400000000</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" ref="I48:I49" si="9">PRODUCT(AF48,AG48,AI48)</f>
+        <f t="shared" ref="I48:I58" si="9">PRODUCT(AF48,AG48,AI48)</f>
         <v>2400000000</v>
       </c>
       <c r="J48" s="1">
@@ -6613,11 +6620,11 @@
         <v>4500</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" ref="H50:H51" si="10">PRODUCT(AF50:AH50)</f>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" ref="I50:I51" si="11">PRODUCT(AF50,AG50,AI50)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J50" s="1">
@@ -6716,11 +6723,11 @@
         <v>4500</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J51" s="1">
@@ -6819,11 +6826,11 @@
         <v>4500</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" ref="H52" si="12">PRODUCT(AF52:AH52)</f>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" ref="I52" si="13">PRODUCT(AF52,AG52,AI52)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J52" s="1">
@@ -6922,11 +6929,11 @@
         <v>4500</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" ref="H53:H54" si="14">PRODUCT(AF53:AH53)</f>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" ref="I53:I54" si="15">PRODUCT(AF53,AG53,AI53)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J53" s="1">
@@ -7019,11 +7026,11 @@
         <v>4500</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J54" s="1">
@@ -7116,11 +7123,11 @@
         <v>4500</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" ref="H55:H57" si="16">PRODUCT(AF55:AH55)</f>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" ref="I55:I57" si="17">PRODUCT(AF55,AG55,AI55)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J55" s="1">
@@ -7213,11 +7220,11 @@
         <v>4500</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J56" s="1">
@@ -7310,11 +7317,11 @@
         <v>4500</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J57" s="1">
@@ -7407,11 +7414,11 @@
         <v>4500</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" ref="H58" si="18">PRODUCT(AF58:AH58)</f>
+        <f t="shared" si="8"/>
         <v>2400000000</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" ref="I58" si="19">PRODUCT(AF58,AG58,AI58)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="J58" s="1">
@@ -7501,11 +7508,11 @@
         <v>4500</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" ref="H60:H65" si="20">PRODUCT(AF60:AH60)</f>
+        <f t="shared" ref="H60:H65" si="10">PRODUCT(AF60:AH60)</f>
         <v>2400000000</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" ref="I60:I65" si="21">PRODUCT(AF60,AG60,AI60)</f>
+        <f t="shared" ref="I60:I65" si="11">PRODUCT(AF60,AG60,AI60)</f>
         <v>2400000000</v>
       </c>
       <c r="J60" s="1">
@@ -7595,11 +7602,11 @@
         <v>4500</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J61" s="1">
@@ -7689,11 +7696,11 @@
         <v>4500</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J62" s="1">
@@ -7783,11 +7790,11 @@
         <v>4500</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J63" s="1">
@@ -7877,11 +7884,11 @@
         <v>4500</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J64" s="1">
@@ -7971,11 +7978,11 @@
         <v>4500</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J65" s="1">
@@ -8065,11 +8072,11 @@
         <v>4500</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H72" si="22">PRODUCT(AF67:AH67)</f>
+        <f t="shared" ref="H67:H72" si="12">PRODUCT(AF67:AH67)</f>
         <v>2400000000</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" ref="I67:I72" si="23">PRODUCT(AF67,AG67,AI67)</f>
+        <f t="shared" ref="I67:I72" si="13">PRODUCT(AF67,AG67,AI67)</f>
         <v>2400000000</v>
       </c>
       <c r="J67" s="1">
@@ -8159,11 +8166,11 @@
         <v>4500</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="J68" s="1">
@@ -8253,11 +8260,11 @@
         <v>4500</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="J69" s="1">
@@ -8347,11 +8354,11 @@
         <v>4500</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="J70" s="1">
@@ -8441,11 +8448,11 @@
         <v>4500</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="J71" s="1">
@@ -8535,11 +8542,11 @@
         <v>4500</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="J72" s="1">
@@ -8635,11 +8642,11 @@
         <v>4500</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" ref="H75" si="24">PRODUCT(AF75:AH75)</f>
+        <f>PRODUCT(AF75:AH75)</f>
         <v>2400000000</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75" si="25">PRODUCT(AF75,AG75,AI75)</f>
+        <f>PRODUCT(AF75,AG75,AI75)</f>
         <v>2400000000</v>
       </c>
       <c r="J75" s="1">
@@ -8688,7 +8695,7 @@
         <v>20</v>
       </c>
       <c r="Y75" s="1" t="str">
-        <f t="shared" ref="Y75" si="26">"1:10:10"</f>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z75" t="s">

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="18520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$3:$P$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$C$23:$Z$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$C$35:$Z$56</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="129">
   <si>
     <t>COMMENT</t>
   </si>
@@ -387,6 +387,30 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>021_rd050</t>
+  </si>
+  <si>
+    <t>Baseline model + crust, dreceiver is 0.25km</t>
+  </si>
+  <si>
+    <t>021_rd100</t>
+  </si>
+  <si>
+    <t>021_rd025</t>
+  </si>
+  <si>
+    <t>021_rd125</t>
+  </si>
+  <si>
+    <t>Baseline model + crust, dreceiver is 0.50km</t>
+  </si>
+  <si>
+    <t>Baseline model + crust, dreceiver is 1.00km</t>
+  </si>
+  <si>
+    <t>Baseline model + crust, dreceiver is 1.25km</t>
   </si>
 </sst>
 </file>
@@ -463,8 +487,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="261">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -759,7 +789,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="261">
+  <cellStyles count="267">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -890,6 +920,9 @@
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1020,6 +1053,9 @@
     <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2095,13 +2131,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI75"/>
+  <dimension ref="A1:AI87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3867,244 +3903,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G23" s="1">
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>4500</v>
       </c>
-      <c r="H23" s="10">
-        <f>PRODUCT(AF23:AH23)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I23" s="10">
-        <f>PRODUCT(AF23,AG23,AI23)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="J23" s="1">
-        <v>30</v>
-      </c>
-      <c r="K23" s="1">
+      <c r="H25" s="9">
+        <f t="shared" ref="H25" si="3">AF25*AG25*AH25</f>
         <v>0</v>
       </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N23" s="1">
-        <v>10</v>
-      </c>
-      <c r="O23" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3">
-        <v>3</v>
-      </c>
-      <c r="S23" s="1">
-        <v>1</v>
-      </c>
-      <c r="T23" s="1">
-        <v>10</v>
-      </c>
-      <c r="U23" s="1">
-        <v>10</v>
-      </c>
-      <c r="V23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W23" s="1">
-        <v>50</v>
-      </c>
-      <c r="X23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y23" s="1" t="str">
-        <f>"1:10:10"</f>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G24" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H24" s="10">
-        <f>PRODUCT(AF24:AH24)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I24" s="10">
-        <f>PRODUCT(AF24,AG24,AI24)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="J24" s="1">
-        <v>30</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N24" s="1">
-        <v>10</v>
-      </c>
-      <c r="O24" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
-        <v>3</v>
-      </c>
-      <c r="S24" s="1">
-        <v>1</v>
-      </c>
-      <c r="T24" s="1">
-        <v>10</v>
-      </c>
-      <c r="U24" s="1">
-        <v>10</v>
-      </c>
-      <c r="V24" s="1">
-        <v>20</v>
-      </c>
-      <c r="W24" s="1">
-        <v>150</v>
-      </c>
-      <c r="X24" s="1">
-        <v>800</v>
-      </c>
-      <c r="Y24" s="1" t="str">
-        <f>"1:10:10"</f>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H25" s="10">
-        <f>PRODUCT(AF25:AH25)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I25" s="10">
-        <f>PRODUCT(AF25,AG25,AI25)</f>
-        <v>2400000000</v>
+      <c r="I25" s="9">
+        <f t="shared" ref="I25" si="4">AI25*AG25*AF25</f>
+        <v>1600000000</v>
       </c>
       <c r="J25" s="1">
         <v>30</v>
       </c>
       <c r="K25" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N25" s="1">
         <v>10</v>
@@ -4116,7 +3955,7 @@
         <v>0.75</v>
       </c>
       <c r="Q25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" s="3">
         <v>3</v>
@@ -4134,68 +3973,68 @@
         <v>0.01</v>
       </c>
       <c r="W25" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X25" s="1">
         <v>1000</v>
       </c>
       <c r="Y25" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" ref="Y25:Y28" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="9">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AG25" s="1">
         <v>16</v>
       </c>
-      <c r="AH25" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI25" s="1">
+      <c r="AH25" s="1"/>
+      <c r="AI25">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26">
-        <v>4</v>
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="8">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F26" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>4500</v>
       </c>
-      <c r="H26" s="10">
-        <f>PRODUCT(AF26:AH26)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I26" s="10">
-        <f>PRODUCT(AF26,AG26,AI26)</f>
-        <v>2400000000</v>
+      <c r="H26" s="9">
+        <f t="shared" ref="H26:H27" si="6">AF26*AG26*AH26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" ref="I26:I27" si="7">AI26*AG26*AF26</f>
+        <v>1600000000</v>
       </c>
       <c r="J26" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -4204,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N26" s="1">
         <v>10</v>
@@ -4216,7 +4055,7 @@
         <v>0.75</v>
       </c>
       <c r="Q26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" s="3">
         <v>3</v>
@@ -4234,77 +4073,77 @@
         <v>0.01</v>
       </c>
       <c r="W26" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X26" s="1">
         <v>1000</v>
       </c>
       <c r="Y26" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Z26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD26" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="9">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AG26" s="1">
         <v>16</v>
       </c>
-      <c r="AH26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI26" s="1">
+      <c r="AH26" s="1"/>
+      <c r="AI26">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27">
-        <v>5</v>
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="8">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F27" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>4500</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" ref="H27:H36" si="3">PRODUCT(AF27:AH27)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I27" s="10">
-        <f t="shared" ref="I27:I36" si="4">PRODUCT(AF27,AG27,AI27)</f>
-        <v>2400000000</v>
+      <c r="H27" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="7"/>
+        <v>1600000000</v>
       </c>
       <c r="J27" s="1">
         <v>30</v>
       </c>
       <c r="K27" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N27" s="1">
         <v>10</v>
@@ -4316,7 +4155,7 @@
         <v>0.75</v>
       </c>
       <c r="Q27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R27" s="3">
         <v>3</v>
@@ -4334,68 +4173,68 @@
         <v>0.01</v>
       </c>
       <c r="W27" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X27" s="1">
         <v>1000</v>
       </c>
       <c r="Y27" s="1" t="str">
-        <f t="shared" ref="Y27:Y72" si="5">"1:10:10"</f>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Z27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD27" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="9">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AG27" s="1">
         <v>16</v>
       </c>
-      <c r="AH27" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI27" s="1">
+      <c r="AH27" s="1"/>
+      <c r="AI27">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28">
-        <v>6</v>
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="8">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F28" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>4500</v>
       </c>
-      <c r="H28" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
+      <c r="H28" s="9">
+        <f t="shared" ref="H28" si="8">AF28*AG28*AH28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" ref="I28" si="9">AI28*AG28*AF28</f>
+        <v>1600000000</v>
       </c>
       <c r="J28" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -4404,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="M28" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N28" s="1">
         <v>10</v>
@@ -4413,10 +4252,10 @@
         <v>-0.5</v>
       </c>
       <c r="P28" s="1">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="Q28" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R28" s="3">
         <v>3</v>
@@ -4434,7 +4273,7 @@
         <v>0.01</v>
       </c>
       <c r="W28" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X28" s="1">
         <v>1000</v>
@@ -4444,641 +4283,38 @@
         <v>1:10:10</v>
       </c>
       <c r="Z28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD28" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="9">
-        <v>30000000</v>
+        <v>20000000</v>
       </c>
       <c r="AG28" s="1">
         <v>16</v>
       </c>
-      <c r="AH28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35">
-      <c r="A29">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="8">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J29" s="1">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N29" s="1">
-        <v>10</v>
-      </c>
-      <c r="O29" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>4</v>
-      </c>
-      <c r="R29" s="3">
-        <v>3</v>
-      </c>
-      <c r="S29" s="1">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1">
-        <v>10</v>
-      </c>
-      <c r="U29" s="1">
-        <v>10</v>
-      </c>
-      <c r="V29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W29" s="1">
-        <v>50</v>
-      </c>
-      <c r="X29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y29" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG29" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH29" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35">
-      <c r="A30">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="8">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G30" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J30" s="1">
-        <v>15</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N30" s="1">
-        <v>10</v>
-      </c>
-      <c r="O30" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>4</v>
-      </c>
-      <c r="R30" s="3">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1">
-        <v>1</v>
-      </c>
-      <c r="T30" s="1">
-        <v>10</v>
-      </c>
-      <c r="U30" s="1">
-        <v>10</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W30" s="1">
-        <v>50</v>
-      </c>
-      <c r="X30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y30" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="A31">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="8">
-        <v>31</v>
-      </c>
-      <c r="F31" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G31" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H31" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J31" s="1">
-        <v>30</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N31" s="1">
-        <v>10</v>
-      </c>
-      <c r="O31" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>4</v>
-      </c>
-      <c r="R31" s="3">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1">
-        <v>10</v>
-      </c>
-      <c r="U31" s="1">
-        <v>10</v>
-      </c>
-      <c r="V31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W31" s="1">
-        <v>50</v>
-      </c>
-      <c r="X31" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y31" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="8">
-        <v>32</v>
-      </c>
-      <c r="F32" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G32" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J32" s="1">
-        <v>30</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N32" s="1">
-        <v>10</v>
-      </c>
-      <c r="O32" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
-        <v>3</v>
-      </c>
-      <c r="S32" s="1">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1">
-        <v>10</v>
-      </c>
-      <c r="U32" s="1">
-        <v>10</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W32" s="1">
-        <v>50</v>
-      </c>
-      <c r="X32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y32" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="8">
-        <v>33</v>
-      </c>
-      <c r="F33" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G33" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H33" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I33" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J33" s="1">
-        <v>30</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N33" s="1">
-        <v>10</v>
-      </c>
-      <c r="O33" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
-        <v>3</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1">
-        <v>10</v>
-      </c>
-      <c r="U33" s="1">
-        <v>10</v>
-      </c>
-      <c r="V33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W33" s="1">
-        <v>50</v>
-      </c>
-      <c r="X33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y33" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="8">
-        <v>41</v>
-      </c>
-      <c r="F34" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G34" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="3"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I34" s="10">
-        <f t="shared" si="4"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J34" s="1">
-        <v>40</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N34" s="1">
-        <v>10</v>
-      </c>
-      <c r="O34" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>4</v>
-      </c>
-      <c r="R34" s="3">
-        <v>3</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1">
-        <v>10</v>
-      </c>
-      <c r="U34" s="1">
-        <v>10</v>
-      </c>
-      <c r="V34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W34" s="1">
-        <v>50</v>
-      </c>
-      <c r="X34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y34" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI34" s="1">
+      <c r="AH28" s="1"/>
+      <c r="AI28">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="8">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>7200</v>
@@ -5087,15 +4323,15 @@
         <v>4500</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="3"/>
+        <f>PRODUCT(AF35:AH35)</f>
         <v>2400000000</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="4"/>
+        <f>PRODUCT(AF35,AG35,AI35)</f>
         <v>2400000000</v>
       </c>
       <c r="J35" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -5113,10 +4349,10 @@
         <v>-0.5</v>
       </c>
       <c r="P35" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35" s="3">
         <v>3</v>
@@ -5140,7 +4376,7 @@
         <v>1000</v>
       </c>
       <c r="Y35" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z35" t="s">
@@ -5172,13 +4408,13 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="8">
-        <v>43</v>
+      <c r="D36" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="F36" s="1">
         <v>7200</v>
@@ -5187,15 +4423,15 @@
         <v>4500</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="3"/>
+        <f>PRODUCT(AF36:AH36)</f>
         <v>2400000000</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="4"/>
+        <f>PRODUCT(AF36,AG36,AI36)</f>
         <v>2400000000</v>
       </c>
       <c r="J36" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -5213,10 +4449,10 @@
         <v>-0.5</v>
       </c>
       <c r="P36" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Q36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R36" s="3">
         <v>3</v>
@@ -5231,16 +4467,16 @@
         <v>10</v>
       </c>
       <c r="V36" s="1">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="W36" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="X36" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Y36" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z36" t="s">
@@ -5272,13 +4508,13 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="8">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
         <v>7200</v>
@@ -5287,18 +4523,18 @@
         <v>4500</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" ref="H37:H47" si="6">PRODUCT(AF37:AH37)</f>
+        <f>PRODUCT(AF37:AH37)</f>
         <v>2400000000</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" ref="I37:I47" si="7">PRODUCT(AF37,AG37,AI37)</f>
+        <f>PRODUCT(AF37,AG37,AI37)</f>
         <v>2400000000</v>
       </c>
       <c r="J37" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K37" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -5313,10 +4549,10 @@
         <v>-0.5</v>
       </c>
       <c r="P37" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Q37" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" s="3">
         <v>3</v>
@@ -5334,13 +4570,13 @@
         <v>0.01</v>
       </c>
       <c r="W37" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X37" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y37" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z37" t="s">
@@ -5372,16 +4608,13 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="11">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>66</v>
+      <c r="D38" s="8">
+        <v>3</v>
       </c>
       <c r="F38" s="1">
         <v>7200</v>
@@ -5390,18 +4623,18 @@
         <v>4500</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="6"/>
+        <f>PRODUCT(AF38:AH38)</f>
         <v>2400000000</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="7"/>
+        <f>PRODUCT(AF38,AG38,AI38)</f>
         <v>2400000000</v>
       </c>
       <c r="J38" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K38" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -5416,10 +4649,10 @@
         <v>-0.5</v>
       </c>
       <c r="P38" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Q38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R38" s="3">
         <v>3</v>
@@ -5437,13 +4670,13 @@
         <v>0.01</v>
       </c>
       <c r="W38" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X38" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y38" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z38" t="s">
@@ -5475,16 +4708,13 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="11">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>67</v>
+      <c r="D39" s="8">
+        <v>4</v>
       </c>
       <c r="F39" s="1">
         <v>7200</v>
@@ -5493,18 +4723,18 @@
         <v>4500</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H39:H48" si="10">PRODUCT(AF39:AH39)</f>
         <v>2400000000</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I39:I48" si="11">PRODUCT(AF39,AG39,AI39)</f>
         <v>2400000000</v>
       </c>
       <c r="J39" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L39" s="1">
         <v>1</v>
@@ -5519,10 +4749,10 @@
         <v>-0.5</v>
       </c>
       <c r="P39" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Q39" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" s="3">
         <v>3</v>
@@ -5540,17 +4770,17 @@
         <v>0.01</v>
       </c>
       <c r="W39" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X39" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y39" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="Y39:Y84" si="12">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z39" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
@@ -5578,13 +4808,13 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="11">
-        <v>54</v>
+      <c r="D40" s="8">
+        <v>11</v>
       </c>
       <c r="F40" s="1">
         <v>7200</v>
@@ -5593,18 +4823,18 @@
         <v>4500</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J40" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K40" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -5619,10 +4849,10 @@
         <v>-0.5</v>
       </c>
       <c r="P40" s="1">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="Q40" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R40" s="3">
         <v>3</v>
@@ -5640,17 +4870,17 @@
         <v>0.01</v>
       </c>
       <c r="W40" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X40" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y40" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z40" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
@@ -5678,13 +4908,13 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="11">
-        <v>55</v>
+      <c r="D41" s="8">
+        <v>12</v>
       </c>
       <c r="F41" s="1">
         <v>7200</v>
@@ -5693,18 +4923,18 @@
         <v>4500</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J41" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
@@ -5719,10 +4949,10 @@
         <v>-0.5</v>
       </c>
       <c r="P41" s="1">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q41" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>3</v>
@@ -5740,17 +4970,17 @@
         <v>0.01</v>
       </c>
       <c r="W41" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X41" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y41" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z41" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1" t="s">
@@ -5778,16 +5008,13 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
       </c>
       <c r="D42" s="8">
-        <v>56</v>
-      </c>
-      <c r="E42" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F42" s="1">
         <v>7200</v>
@@ -5796,18 +5023,18 @@
         <v>4500</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J42" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K42" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>1</v>
@@ -5825,7 +5052,7 @@
         <v>0.6</v>
       </c>
       <c r="Q42" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>3</v>
@@ -5843,17 +5070,17 @@
         <v>0.01</v>
       </c>
       <c r="W42" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X42" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y42" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z42" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1" t="s">
@@ -5881,16 +5108,13 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="8">
-        <v>57</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1">
         <v>7200</v>
@@ -5899,36 +5123,36 @@
         <v>4500</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K43" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>1</v>
       </c>
       <c r="M43" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N43" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O43" s="1">
         <v>-0.5</v>
       </c>
       <c r="P43" s="1">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="Q43" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>3</v>
@@ -5946,17 +5170,17 @@
         <v>0.01</v>
       </c>
       <c r="W43" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X43" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y43" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1" t="s">
@@ -5984,16 +5208,13 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="8">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1">
         <v>7200</v>
@@ -6002,18 +5223,18 @@
         <v>4500</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J44" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K44" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1">
         <v>1</v>
@@ -6028,10 +5249,10 @@
         <v>-0.5</v>
       </c>
       <c r="P44" s="1">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="Q44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>3</v>
@@ -6049,17 +5270,17 @@
         <v>0.01</v>
       </c>
       <c r="W44" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X44" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y44" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1" t="s">
@@ -6087,16 +5308,13 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="11">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s">
-        <v>72</v>
+      <c r="D45" s="8">
+        <v>33</v>
       </c>
       <c r="F45" s="1">
         <v>7200</v>
@@ -6105,18 +5323,18 @@
         <v>4500</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J45" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K45" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
@@ -6134,7 +5352,7 @@
         <v>0.6</v>
       </c>
       <c r="Q45" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>3</v>
@@ -6152,13 +5370,13 @@
         <v>0.01</v>
       </c>
       <c r="W45" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X45" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y45" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z45" t="s">
@@ -6190,16 +5408,13 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="11">
-        <v>60</v>
-      </c>
-      <c r="E46" t="s">
-        <v>73</v>
+      <c r="D46" s="8">
+        <v>41</v>
       </c>
       <c r="F46" s="1">
         <v>7200</v>
@@ -6208,18 +5423,18 @@
         <v>4500</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J46" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K46" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1">
         <v>1</v>
@@ -6234,7 +5449,7 @@
         <v>-0.5</v>
       </c>
       <c r="P46" s="1">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="Q46" s="1">
         <v>4</v>
@@ -6255,17 +5470,17 @@
         <v>0.01</v>
       </c>
       <c r="W46" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X46" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y46" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1" t="s">
@@ -6293,16 +5508,13 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="11">
-        <v>61</v>
-      </c>
-      <c r="E47" t="s">
-        <v>74</v>
+      <c r="D47" s="8">
+        <v>42</v>
       </c>
       <c r="F47" s="1">
         <v>7200</v>
@@ -6311,18 +5523,18 @@
         <v>4500</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J47" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K47" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
@@ -6337,10 +5549,10 @@
         <v>-0.5</v>
       </c>
       <c r="P47" s="1">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q47" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>3</v>
@@ -6358,13 +5570,13 @@
         <v>0.01</v>
       </c>
       <c r="W47" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X47" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y47" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z47" t="s">
@@ -6396,16 +5608,13 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="8">
-        <v>356</v>
-      </c>
-      <c r="E48" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F48" s="1">
         <v>7200</v>
@@ -6414,18 +5623,18 @@
         <v>4500</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48:H58" si="8">PRODUCT(AF48:AH48)</f>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" ref="I48:I58" si="9">PRODUCT(AF48,AG48,AI48)</f>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="J48" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K48" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1">
         <v>1</v>
@@ -6443,7 +5652,7 @@
         <v>0.6</v>
       </c>
       <c r="Q48" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>3</v>
@@ -6461,17 +5670,17 @@
         <v>0.01</v>
       </c>
       <c r="W48" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X48" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y48" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1" t="s">
@@ -6499,16 +5708,13 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="8">
-        <v>361</v>
-      </c>
-      <c r="E49" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1">
         <v>7200</v>
@@ -6517,18 +5723,18 @@
         <v>4500</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H49:H59" si="13">PRODUCT(AF49:AH49)</f>
         <v>2400000000</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I49:I59" si="14">PRODUCT(AF49,AG49,AI49)</f>
         <v>2400000000</v>
       </c>
       <c r="J49" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K49" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1">
         <v>1</v>
@@ -6546,7 +5752,7 @@
         <v>0.6</v>
       </c>
       <c r="Q49" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>3</v>
@@ -6570,7 +5776,7 @@
         <v>20</v>
       </c>
       <c r="Y49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z49" t="s">
@@ -6602,16 +5808,16 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="8">
-        <v>456</v>
+      <c r="D50" s="11">
+        <v>52</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F50" s="1">
         <v>7200</v>
@@ -6620,18 +5826,18 @@
         <v>4500</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J50" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K50" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
@@ -6649,7 +5855,7 @@
         <v>0.6</v>
       </c>
       <c r="Q50" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R50" s="3">
         <v>3</v>
@@ -6673,11 +5879,11 @@
         <v>20</v>
       </c>
       <c r="Y50" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z50" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1" t="s">
@@ -6705,16 +5911,16 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="8">
-        <v>461</v>
+      <c r="D51" s="11">
+        <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F51" s="1">
         <v>7200</v>
@@ -6723,18 +5929,18 @@
         <v>4500</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J51" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K51" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1">
         <v>1</v>
@@ -6752,7 +5958,7 @@
         <v>0.6</v>
       </c>
       <c r="Q51" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R51" s="3">
         <v>3</v>
@@ -6776,11 +5982,11 @@
         <v>20</v>
       </c>
       <c r="Y51" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z51" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1" t="s">
@@ -6808,16 +6014,13 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="8">
-        <v>62</v>
-      </c>
-      <c r="E52" t="s">
-        <v>79</v>
+      <c r="D52" s="11">
+        <v>54</v>
       </c>
       <c r="F52" s="1">
         <v>7200</v>
@@ -6826,18 +6029,18 @@
         <v>4500</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J52" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K52" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -6849,13 +6052,13 @@
         <v>10</v>
       </c>
       <c r="O52" s="1">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="P52" s="1">
         <v>0.6</v>
       </c>
       <c r="Q52" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>3</v>
@@ -6879,11 +6082,11 @@
         <v>20</v>
       </c>
       <c r="Y52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z52" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1" t="s">
@@ -6911,16 +6114,13 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="8">
-        <v>63</v>
-      </c>
-      <c r="E53" t="s">
-        <v>80</v>
+      <c r="D53" s="11">
+        <v>55</v>
       </c>
       <c r="F53" s="1">
         <v>7200</v>
@@ -6929,15 +6129,15 @@
         <v>4500</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K53" s="1">
         <v>2.5000000000000001E-3</v>
@@ -6952,13 +6152,13 @@
         <v>10</v>
       </c>
       <c r="O53" s="1">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P53" s="1">
         <v>0.6</v>
       </c>
       <c r="Q53" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R53" s="3">
         <v>3</v>
@@ -6982,11 +6182,11 @@
         <v>20</v>
       </c>
       <c r="Y53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z53" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1" t="s">
@@ -7013,11 +6213,17 @@
       </c>
     </row>
     <row r="54" spans="1:35">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
       <c r="D54" s="8">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1">
         <v>7200</v>
@@ -7026,15 +6232,15 @@
         <v>4500</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J54" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K54" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7079,11 +6285,11 @@
         <v>20</v>
       </c>
       <c r="Y54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z54" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1" t="s">
@@ -7110,11 +6316,17 @@
       </c>
     </row>
     <row r="55" spans="1:35">
-      <c r="D55" s="11" t="s">
-        <v>83</v>
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="8">
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1">
         <v>7200</v>
@@ -7123,27 +6335,27 @@
         <v>4500</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J55" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K55" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
       </c>
       <c r="M55" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N55" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O55" s="1">
         <v>-0.5</v>
@@ -7152,7 +6364,7 @@
         <v>0.6</v>
       </c>
       <c r="Q55" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R55" s="3">
         <v>3</v>
@@ -7176,11 +6388,11 @@
         <v>20</v>
       </c>
       <c r="Y55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z55" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1" t="s">
@@ -7207,11 +6419,17 @@
       </c>
     </row>
     <row r="56" spans="1:35">
+      <c r="A56">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
       <c r="D56" s="8">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F56" s="1">
         <v>7200</v>
@@ -7220,15 +6438,15 @@
         <v>4500</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J56" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K56" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7246,10 +6464,10 @@
         <v>-0.5</v>
       </c>
       <c r="P56" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Q56" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R56" s="3">
         <v>3</v>
@@ -7273,11 +6491,11 @@
         <v>20</v>
       </c>
       <c r="Y56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z56" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1" t="s">
@@ -7304,11 +6522,17 @@
       </c>
     </row>
     <row r="57" spans="1:35">
-      <c r="D57" s="8">
-        <v>71</v>
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="11">
+        <v>59</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F57" s="1">
         <v>7200</v>
@@ -7317,15 +6541,15 @@
         <v>4500</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J57" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K57" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7337,7 +6561,7 @@
         <v>0.05</v>
       </c>
       <c r="N57" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="O57" s="1">
         <v>-0.5</v>
@@ -7346,7 +6570,7 @@
         <v>0.6</v>
       </c>
       <c r="Q57" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
@@ -7370,7 +6594,7 @@
         <v>20</v>
       </c>
       <c r="Y57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z57" t="s">
@@ -7401,11 +6625,17 @@
       </c>
     </row>
     <row r="58" spans="1:35">
-      <c r="D58" s="8">
-        <v>72</v>
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="11">
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F58" s="1">
         <v>7200</v>
@@ -7414,15 +6644,15 @@
         <v>4500</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J58" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K58" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7434,7 +6664,7 @@
         <v>0.05</v>
       </c>
       <c r="N58" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="O58" s="1">
         <v>-0.5</v>
@@ -7443,7 +6673,7 @@
         <v>0.6</v>
       </c>
       <c r="Q58" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>3</v>
@@ -7467,7 +6697,7 @@
         <v>20</v>
       </c>
       <c r="Y58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z58" t="s">
@@ -7497,9 +6727,121 @@
         <v>5</v>
       </c>
     </row>
+    <row r="59" spans="1:35">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="11">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="13"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="14"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J59" s="1">
+        <v>20</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N59" s="1">
+        <v>10</v>
+      </c>
+      <c r="O59" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>6</v>
+      </c>
+      <c r="R59" s="3">
+        <v>3</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1">
+        <v>10</v>
+      </c>
+      <c r="U59" s="1">
+        <v>10</v>
+      </c>
+      <c r="V59" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W59" s="1">
+        <v>10</v>
+      </c>
+      <c r="X59" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y59" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="60" spans="1:35">
-      <c r="D60" s="8" t="s">
-        <v>89</v>
+      <c r="A60">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="8">
+        <v>356</v>
+      </c>
+      <c r="E60" t="s">
+        <v>75</v>
       </c>
       <c r="F60" s="1">
         <v>7200</v>
@@ -7508,18 +6850,18 @@
         <v>4500</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" ref="H60:H65" si="10">PRODUCT(AF60:AH60)</f>
+        <f t="shared" ref="H60:H70" si="15">PRODUCT(AF60:AH60)</f>
         <v>2400000000</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" ref="I60:I65" si="11">PRODUCT(AF60,AG60,AI60)</f>
+        <f t="shared" ref="I60:I70" si="16">PRODUCT(AF60,AG60,AI60)</f>
         <v>2400000000</v>
       </c>
       <c r="J60" s="1">
         <v>30</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L60" s="1">
         <v>1</v>
@@ -7561,11 +6903,11 @@
         <v>20</v>
       </c>
       <c r="Y60" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z60" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1" t="s">
@@ -7592,8 +6934,17 @@
       </c>
     </row>
     <row r="61" spans="1:35">
-      <c r="D61" s="8" t="s">
-        <v>90</v>
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="8">
+        <v>361</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
       </c>
       <c r="F61" s="1">
         <v>7200</v>
@@ -7602,11 +6953,11 @@
         <v>4500</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J61" s="1">
@@ -7631,7 +6982,7 @@
         <v>0.6</v>
       </c>
       <c r="Q61" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R61" s="3">
         <v>3</v>
@@ -7655,11 +7006,11 @@
         <v>20</v>
       </c>
       <c r="Y61" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z61" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
@@ -7686,8 +7037,17 @@
       </c>
     </row>
     <row r="62" spans="1:35">
-      <c r="D62" s="8" t="s">
-        <v>91</v>
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="8">
+        <v>456</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
       </c>
       <c r="F62" s="1">
         <v>7200</v>
@@ -7696,15 +7056,15 @@
         <v>4500</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J62" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K62" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7725,7 +7085,7 @@
         <v>0.6</v>
       </c>
       <c r="Q62" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
@@ -7749,11 +7109,11 @@
         <v>20</v>
       </c>
       <c r="Y62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z62" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1" t="s">
@@ -7780,8 +7140,17 @@
       </c>
     </row>
     <row r="63" spans="1:35">
-      <c r="D63" s="8" t="s">
-        <v>92</v>
+      <c r="A63">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="8">
+        <v>461</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
       </c>
       <c r="F63" s="1">
         <v>7200</v>
@@ -7790,15 +7159,15 @@
         <v>4500</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J63" s="1">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="K63" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7843,11 +7212,11 @@
         <v>20</v>
       </c>
       <c r="Y63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z63" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1" t="s">
@@ -7874,8 +7243,17 @@
       </c>
     </row>
     <row r="64" spans="1:35">
-      <c r="D64" s="8" t="s">
-        <v>93</v>
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="8">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>79</v>
       </c>
       <c r="F64" s="1">
         <v>7200</v>
@@ -7884,15 +7262,15 @@
         <v>4500</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J64" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K64" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7907,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="O64" s="1">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P64" s="1">
         <v>0.6</v>
@@ -7937,11 +7315,11 @@
         <v>20</v>
       </c>
       <c r="Y64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z64" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1" t="s">
@@ -7967,9 +7345,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="3:35">
-      <c r="D65" s="8" t="s">
-        <v>94</v>
+    <row r="65" spans="1:35">
+      <c r="A65">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="8">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>80</v>
       </c>
       <c r="F65" s="1">
         <v>7200</v>
@@ -7978,15 +7365,15 @@
         <v>4500</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J65" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K65" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8001,7 +7388,7 @@
         <v>10</v>
       </c>
       <c r="O65" s="1">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="P65" s="1">
         <v>0.6</v>
@@ -8031,11 +7418,11 @@
         <v>20</v>
       </c>
       <c r="Y65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z65" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1" t="s">
@@ -8061,9 +7448,109 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="3:35">
-      <c r="D67" s="8" t="s">
-        <v>95</v>
+    <row r="66" spans="1:35">
+      <c r="D66" s="8">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" si="15"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I66" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J66" s="1">
+        <v>30</v>
+      </c>
+      <c r="K66" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N66" s="1">
+        <v>10</v>
+      </c>
+      <c r="O66" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P66" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>6</v>
+      </c>
+      <c r="R66" s="3">
+        <v>3</v>
+      </c>
+      <c r="S66" s="1">
+        <v>1</v>
+      </c>
+      <c r="T66" s="1">
+        <v>10</v>
+      </c>
+      <c r="U66" s="1">
+        <v>10</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W66" s="1">
+        <v>10</v>
+      </c>
+      <c r="X66" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y66" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35">
+      <c r="D67" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
       </c>
       <c r="F67" s="1">
         <v>7200</v>
@@ -8072,18 +7559,18 @@
         <v>4500</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" ref="H67:H72" si="12">PRODUCT(AF67:AH67)</f>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" ref="I67:I72" si="13">PRODUCT(AF67,AG67,AI67)</f>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J67" s="1">
         <v>30</v>
       </c>
       <c r="K67" s="1">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -8125,11 +7612,11 @@
         <v>20</v>
       </c>
       <c r="Y67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z67" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1" t="s">
@@ -8155,9 +7642,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="3:35">
-      <c r="D68" s="8" t="s">
-        <v>96</v>
+    <row r="68" spans="1:35">
+      <c r="D68" s="8">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
       </c>
       <c r="F68" s="1">
         <v>7200</v>
@@ -8166,11 +7656,11 @@
         <v>4500</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J68" s="1">
@@ -8195,7 +7685,7 @@
         <v>0.6</v>
       </c>
       <c r="Q68" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R68" s="3">
         <v>3</v>
@@ -8219,7 +7709,7 @@
         <v>20</v>
       </c>
       <c r="Y68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z68" t="s">
@@ -8249,9 +7739,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="3:35">
-      <c r="D69" s="8" t="s">
-        <v>97</v>
+    <row r="69" spans="1:35">
+      <c r="D69" s="8">
+        <v>71</v>
+      </c>
+      <c r="E69" t="s">
+        <v>87</v>
       </c>
       <c r="F69" s="1">
         <v>7200</v>
@@ -8260,11 +7753,11 @@
         <v>4500</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J69" s="1">
@@ -8280,7 +7773,7 @@
         <v>0.05</v>
       </c>
       <c r="N69" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="O69" s="1">
         <v>-0.5</v>
@@ -8289,7 +7782,7 @@
         <v>0.6</v>
       </c>
       <c r="Q69" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R69" s="3">
         <v>3</v>
@@ -8313,11 +7806,11 @@
         <v>20</v>
       </c>
       <c r="Y69" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z69" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1" t="s">
@@ -8343,9 +7836,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="3:35">
-      <c r="D70" s="8" t="s">
-        <v>98</v>
+    <row r="70" spans="1:35">
+      <c r="D70" s="8">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>88</v>
       </c>
       <c r="F70" s="1">
         <v>7200</v>
@@ -8354,15 +7850,15 @@
         <v>4500</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J70" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K70" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8374,7 +7870,7 @@
         <v>0.05</v>
       </c>
       <c r="N70" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="O70" s="1">
         <v>-0.5</v>
@@ -8407,11 +7903,11 @@
         <v>20</v>
       </c>
       <c r="Y70" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z70" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1" t="s">
@@ -8437,103 +7933,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="3:35">
-      <c r="D71" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F71" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G71" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H71" s="10">
-        <f t="shared" si="12"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I71" s="10">
-        <f t="shared" si="13"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J71" s="1">
-        <v>60</v>
-      </c>
-      <c r="K71" s="1">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N71" s="1">
-        <v>10</v>
-      </c>
-      <c r="O71" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P71" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>6</v>
-      </c>
-      <c r="R71" s="3">
-        <v>3</v>
-      </c>
-      <c r="S71" s="1">
-        <v>1</v>
-      </c>
-      <c r="T71" s="1">
-        <v>10</v>
-      </c>
-      <c r="U71" s="1">
-        <v>10</v>
-      </c>
-      <c r="V71" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W71" s="1">
-        <v>10</v>
-      </c>
-      <c r="X71" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG71" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH71" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI71" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="3:35">
+    <row r="72" spans="1:35">
       <c r="D72" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F72" s="1">
         <v>7200</v>
@@ -8542,18 +7944,18 @@
         <v>4500</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H72:H77" si="17">PRODUCT(AF72:AH72)</f>
         <v>2400000000</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I72:I77" si="18">PRODUCT(AF72,AG72,AI72)</f>
         <v>2400000000</v>
       </c>
       <c r="J72" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K72" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -8595,11 +7997,11 @@
         <v>20</v>
       </c>
       <c r="Y72" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z72" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1" t="s">
@@ -8625,15 +8027,197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="3:35">
-      <c r="C75" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="8">
-        <v>64</v>
-      </c>
-      <c r="E75" t="s">
-        <v>102</v>
+    <row r="73" spans="1:35">
+      <c r="D73" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="17"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="18"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J73" s="1">
+        <v>30</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N73" s="1">
+        <v>10</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>4</v>
+      </c>
+      <c r="R73" s="3">
+        <v>3</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1</v>
+      </c>
+      <c r="T73" s="1">
+        <v>10</v>
+      </c>
+      <c r="U73" s="1">
+        <v>10</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W73" s="1">
+        <v>10</v>
+      </c>
+      <c r="X73" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y73" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35">
+      <c r="D74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="17"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="18"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J74" s="1">
+        <v>30</v>
+      </c>
+      <c r="K74" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N74" s="1">
+        <v>10</v>
+      </c>
+      <c r="O74" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>5</v>
+      </c>
+      <c r="R74" s="3">
+        <v>3</v>
+      </c>
+      <c r="S74" s="1">
+        <v>1</v>
+      </c>
+      <c r="T74" s="1">
+        <v>10</v>
+      </c>
+      <c r="U74" s="1">
+        <v>10</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W74" s="1">
+        <v>10</v>
+      </c>
+      <c r="X74" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y74" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35">
+      <c r="D75" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="F75" s="1">
         <v>7200</v>
@@ -8642,15 +8226,15 @@
         <v>4500</v>
       </c>
       <c r="H75" s="10">
-        <f>PRODUCT(AF75:AH75)</f>
+        <f t="shared" si="17"/>
         <v>2400000000</v>
       </c>
       <c r="I75" s="10">
-        <f>PRODUCT(AF75,AG75,AI75)</f>
+        <f t="shared" si="18"/>
         <v>2400000000</v>
       </c>
       <c r="J75" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K75" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8695,11 +8279,11 @@
         <v>20</v>
       </c>
       <c r="Y75" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="12"/>
         <v>1:10:10</v>
       </c>
       <c r="Z75" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1" t="s">
@@ -8722,6 +8306,858 @@
         <v>5</v>
       </c>
       <c r="AI75" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35">
+      <c r="D76" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G76" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="17"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="18"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J76" s="1">
+        <v>60</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N76" s="1">
+        <v>10</v>
+      </c>
+      <c r="O76" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>6</v>
+      </c>
+      <c r="R76" s="3">
+        <v>3</v>
+      </c>
+      <c r="S76" s="1">
+        <v>1</v>
+      </c>
+      <c r="T76" s="1">
+        <v>10</v>
+      </c>
+      <c r="U76" s="1">
+        <v>10</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W76" s="1">
+        <v>10</v>
+      </c>
+      <c r="X76" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y76" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH76" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
+      <c r="D77" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F77" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G77" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="17"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="18"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J77" s="1">
+        <v>100</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N77" s="1">
+        <v>10</v>
+      </c>
+      <c r="O77" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>6</v>
+      </c>
+      <c r="R77" s="3">
+        <v>3</v>
+      </c>
+      <c r="S77" s="1">
+        <v>1</v>
+      </c>
+      <c r="T77" s="1">
+        <v>10</v>
+      </c>
+      <c r="U77" s="1">
+        <v>10</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W77" s="1">
+        <v>10</v>
+      </c>
+      <c r="X77" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y77" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH77" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="D79" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H79" s="10">
+        <f t="shared" ref="H79:H84" si="19">PRODUCT(AF79:AH79)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" ref="I79:I84" si="20">PRODUCT(AF79,AG79,AI79)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J79" s="1">
+        <v>30</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N79" s="1">
+        <v>10</v>
+      </c>
+      <c r="O79" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P79" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>6</v>
+      </c>
+      <c r="R79" s="3">
+        <v>3</v>
+      </c>
+      <c r="S79" s="1">
+        <v>1</v>
+      </c>
+      <c r="T79" s="1">
+        <v>10</v>
+      </c>
+      <c r="U79" s="1">
+        <v>10</v>
+      </c>
+      <c r="V79" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W79" s="1">
+        <v>10</v>
+      </c>
+      <c r="X79" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y79" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH79" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="D80" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H80" s="10">
+        <f t="shared" si="19"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J80" s="1">
+        <v>30</v>
+      </c>
+      <c r="K80" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N80" s="1">
+        <v>10</v>
+      </c>
+      <c r="O80" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>4</v>
+      </c>
+      <c r="R80" s="3">
+        <v>3</v>
+      </c>
+      <c r="S80" s="1">
+        <v>1</v>
+      </c>
+      <c r="T80" s="1">
+        <v>10</v>
+      </c>
+      <c r="U80" s="1">
+        <v>10</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W80" s="1">
+        <v>10</v>
+      </c>
+      <c r="X80" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y80" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="3:35">
+      <c r="D81" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H81" s="10">
+        <f t="shared" si="19"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J81" s="1">
+        <v>30</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N81" s="1">
+        <v>10</v>
+      </c>
+      <c r="O81" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P81" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
+        <v>3</v>
+      </c>
+      <c r="S81" s="1">
+        <v>1</v>
+      </c>
+      <c r="T81" s="1">
+        <v>10</v>
+      </c>
+      <c r="U81" s="1">
+        <v>10</v>
+      </c>
+      <c r="V81" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W81" s="1">
+        <v>10</v>
+      </c>
+      <c r="X81" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y81" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH81" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:35">
+      <c r="D82" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H82" s="10">
+        <f t="shared" si="19"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J82" s="1">
+        <v>5</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N82" s="1">
+        <v>10</v>
+      </c>
+      <c r="O82" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>6</v>
+      </c>
+      <c r="R82" s="3">
+        <v>3</v>
+      </c>
+      <c r="S82" s="1">
+        <v>1</v>
+      </c>
+      <c r="T82" s="1">
+        <v>10</v>
+      </c>
+      <c r="U82" s="1">
+        <v>10</v>
+      </c>
+      <c r="V82" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W82" s="1">
+        <v>10</v>
+      </c>
+      <c r="X82" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y82" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH82" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="3:35">
+      <c r="D83" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H83" s="10">
+        <f t="shared" si="19"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J83" s="1">
+        <v>60</v>
+      </c>
+      <c r="K83" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N83" s="1">
+        <v>10</v>
+      </c>
+      <c r="O83" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>6</v>
+      </c>
+      <c r="R83" s="3">
+        <v>3</v>
+      </c>
+      <c r="S83" s="1">
+        <v>1</v>
+      </c>
+      <c r="T83" s="1">
+        <v>10</v>
+      </c>
+      <c r="U83" s="1">
+        <v>10</v>
+      </c>
+      <c r="V83" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W83" s="1">
+        <v>10</v>
+      </c>
+      <c r="X83" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y83" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH83" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:35">
+      <c r="D84" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H84" s="10">
+        <f t="shared" si="19"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="20"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J84" s="1">
+        <v>100</v>
+      </c>
+      <c r="K84" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N84" s="1">
+        <v>10</v>
+      </c>
+      <c r="O84" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>6</v>
+      </c>
+      <c r="R84" s="3">
+        <v>3</v>
+      </c>
+      <c r="S84" s="1">
+        <v>1</v>
+      </c>
+      <c r="T84" s="1">
+        <v>10</v>
+      </c>
+      <c r="U84" s="1">
+        <v>10</v>
+      </c>
+      <c r="V84" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W84" s="1">
+        <v>10</v>
+      </c>
+      <c r="X84" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y84" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG84" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH84" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:35">
+      <c r="C87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="8">
+        <v>64</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+      <c r="F87" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G87" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H87" s="10">
+        <f>PRODUCT(AF87:AH87)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I87" s="10">
+        <f>PRODUCT(AF87,AG87,AI87)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J87" s="1">
+        <v>30</v>
+      </c>
+      <c r="K87" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N87" s="1">
+        <v>10</v>
+      </c>
+      <c r="O87" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P87" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>6</v>
+      </c>
+      <c r="R87" s="3">
+        <v>3</v>
+      </c>
+      <c r="S87" s="1">
+        <v>1</v>
+      </c>
+      <c r="T87" s="1">
+        <v>10</v>
+      </c>
+      <c r="U87" s="1">
+        <v>10</v>
+      </c>
+      <c r="V87" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W87" s="1">
+        <v>10</v>
+      </c>
+      <c r="X87" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y87" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI87" s="1">
         <v>5</v>
       </c>
     </row>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="18520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="21800" windowHeight="23560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,8 +487,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -789,7 +793,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="271">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -923,6 +927,8 @@
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1056,6 +1062,8 @@
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2137,7 +2145,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
+++ b/PHONON1D/SCRIPTS_CEES/LIST_PSPACE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="21800" windowHeight="23560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$3:$P$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$C$35:$Z$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet1 (2)'!$C$41:$Z$62</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="139">
   <si>
     <t>COMMENT</t>
   </si>
@@ -411,6 +411,36 @@
   </si>
   <si>
     <t>Baseline model + crust, dreceiver is 1.25km</t>
+  </si>
+  <si>
+    <t>021_rd025_4MAX</t>
+  </si>
+  <si>
+    <t>021_rd050_4MAX</t>
+  </si>
+  <si>
+    <t>021_rd100_4MAX</t>
+  </si>
+  <si>
+    <t>021_rd125_4MAX</t>
+  </si>
+  <si>
+    <t>021_rd025_7MAX</t>
+  </si>
+  <si>
+    <t>021_rd050_7MAX</t>
+  </si>
+  <si>
+    <t>021_rd100_7MAX</t>
+  </si>
+  <si>
+    <t>021_rd125_7MAX</t>
+  </si>
+  <si>
+    <t>001x</t>
+  </si>
+  <si>
+    <t>021x</t>
   </si>
 </sst>
 </file>
@@ -487,8 +517,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -793,277 +851,305 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="271">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+  <cellStyles count="299">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="298" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2139,23 +2225,23 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI87"/>
+  <dimension ref="A1:AI93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="16" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -3934,12 +4020,12 @@
         <v>4500</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" ref="H25" si="3">AF25*AG25*AH25</f>
+        <f t="shared" ref="H25:H38" si="3">AF25*AG25*AH25</f>
         <v>0</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" ref="I25" si="4">AI25*AG25*AF25</f>
-        <v>1600000000</v>
+        <f t="shared" ref="I25:I38" si="4">AI25*AG25*AF25</f>
+        <v>4800000000</v>
       </c>
       <c r="J25" s="1">
         <v>30</v>
@@ -3987,7 +4073,7 @@
         <v>1000</v>
       </c>
       <c r="Y25" s="1" t="str">
-        <f t="shared" ref="Y25:Y28" si="5">"1:10:10"</f>
+        <f t="shared" ref="Y25:Y38" si="5">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z25" t="s">
@@ -4001,14 +4087,14 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="9">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG25" s="1">
         <v>16</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -4022,10 +4108,10 @@
         <v>31</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -4034,12 +4120,12 @@
         <v>4500</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26:H27" si="6">AF26*AG26*AH26</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" ref="I26:I27" si="7">AI26*AG26*AF26</f>
-        <v>1600000000</v>
+        <f t="shared" si="4"/>
+        <v>1920000000</v>
       </c>
       <c r="J26" s="1">
         <v>30</v>
@@ -4101,14 +4187,14 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="9">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG26" s="1">
         <v>16</v>
       </c>
       <c r="AH26" s="1"/>
       <c r="AI26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -4122,10 +4208,10 @@
         <v>31</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -4134,12 +4220,12 @@
         <v>4500</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="7"/>
-        <v>1600000000</v>
+        <f t="shared" si="4"/>
+        <v>3360000000</v>
       </c>
       <c r="J27" s="1">
         <v>30</v>
@@ -4201,14 +4287,14 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="9">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG27" s="1">
         <v>16</v>
       </c>
       <c r="AH27" s="1"/>
       <c r="AI27">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -4222,10 +4308,10 @@
         <v>31</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -4234,12 +4320,12 @@
         <v>4500</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28" si="8">AF28*AG28*AH28</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" ref="I28" si="9">AI28*AG28*AF28</f>
-        <v>1600000000</v>
+        <f t="shared" si="4"/>
+        <v>4800000000</v>
       </c>
       <c r="J28" s="1">
         <v>30</v>
@@ -4301,42 +4387,645 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="9">
-        <v>20000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG28" s="1">
         <v>16</v>
       </c>
       <c r="AH28" s="1"/>
       <c r="AI28">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>4500</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="4"/>
+        <v>1920000000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>30</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>10</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>3</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>10</v>
+      </c>
+      <c r="U29" s="1">
+        <v>10</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W29" s="1">
+        <v>30</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>4500</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="4"/>
+        <v>3360000000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="1">
+        <v>10</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>3</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1">
+        <v>10</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W30" s="1">
+        <v>30</v>
+      </c>
+      <c r="X30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4500</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="4"/>
+        <v>4800000000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>30</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>10</v>
+      </c>
+      <c r="U31" s="1">
+        <v>10</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W31" s="1">
+        <v>30</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4500</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="4"/>
+        <v>1920000000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>30</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>10</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>10</v>
+      </c>
+      <c r="U32" s="1">
+        <v>10</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W32" s="1">
+        <v>30</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>4500</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="4"/>
+        <v>3360000000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>30</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>10</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>10</v>
+      </c>
+      <c r="U33" s="1">
+        <v>10</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W33" s="1">
+        <v>30</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>4500</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="4"/>
+        <v>4800000000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>30</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>10</v>
+      </c>
+      <c r="O34" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>3</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>10</v>
+      </c>
+      <c r="U34" s="1">
+        <v>10</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W34" s="1">
+        <v>30</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y34" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35">
-        <v>1</v>
+      <c r="A35" t="s">
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F35" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>4500</v>
       </c>
-      <c r="H35" s="10">
-        <f>PRODUCT(AF35:AH35)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I35" s="10">
-        <f>PRODUCT(AF35,AG35,AI35)</f>
-        <v>2400000000</v>
+      <c r="H35" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="4"/>
+        <v>1920000000</v>
       </c>
       <c r="J35" s="1">
         <v>30</v>
@@ -4348,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="M35" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N35" s="1">
         <v>10</v>
@@ -4360,7 +5049,7 @@
         <v>0.75</v>
       </c>
       <c r="Q35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R35" s="3">
         <v>3</v>
@@ -4378,28 +5067,24 @@
         <v>0.01</v>
       </c>
       <c r="W35" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X35" s="1">
         <v>1000</v>
       </c>
       <c r="Y35" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Z35" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD35" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="9">
         <v>30000000</v>
@@ -4407,36 +5092,40 @@
       <c r="AG35" s="1">
         <v>16</v>
       </c>
-      <c r="AH35" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI35" s="1">
-        <v>5</v>
+      <c r="AH35" s="1"/>
+      <c r="AI35">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36">
-        <v>2</v>
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F36" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>4500</v>
       </c>
-      <c r="H36" s="10">
-        <f>PRODUCT(AF36:AH36)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I36" s="10">
-        <f>PRODUCT(AF36,AG36,AI36)</f>
-        <v>2400000000</v>
+      <c r="H36" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="4"/>
+        <v>3360000000</v>
       </c>
       <c r="J36" s="1">
         <v>30</v>
@@ -4448,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="1">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="N36" s="1">
         <v>10</v>
@@ -4460,7 +5149,7 @@
         <v>0.75</v>
       </c>
       <c r="Q36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R36" s="3">
         <v>3</v>
@@ -4475,31 +5164,27 @@
         <v>10</v>
       </c>
       <c r="V36" s="1">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="W36" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="X36" s="1">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Y36" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Z36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA36" s="1"/>
-      <c r="AB36" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB36" s="1"/>
       <c r="AC36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD36" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="9">
         <v>30000000</v>
@@ -4507,60 +5192,64 @@
       <c r="AG36" s="1">
         <v>16</v>
       </c>
-      <c r="AH36" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI36" s="1">
-        <v>5</v>
+      <c r="AH36" s="1"/>
+      <c r="AI36">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37">
-        <v>3</v>
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="8">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F37" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>4500</v>
       </c>
-      <c r="H37" s="10">
-        <f>PRODUCT(AF37:AH37)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I37" s="10">
-        <f>PRODUCT(AF37,AG37,AI37)</f>
-        <v>2400000000</v>
+      <c r="H37" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="4"/>
+        <v>3360000000</v>
       </c>
       <c r="J37" s="1">
         <v>30</v>
       </c>
       <c r="K37" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>0.05</v>
+        <v>3.4453</v>
       </c>
       <c r="N37" s="1">
-        <v>10</v>
+        <v>3.4453</v>
       </c>
       <c r="O37" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P37" s="1">
         <v>0.75</v>
       </c>
       <c r="Q37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" s="3">
         <v>3</v>
@@ -4578,28 +5267,24 @@
         <v>0.01</v>
       </c>
       <c r="W37" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X37" s="1">
         <v>1000</v>
       </c>
       <c r="Y37" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Z37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="9">
         <v>30000000</v>
@@ -4607,39 +5292,43 @@
       <c r="AG37" s="1">
         <v>16</v>
       </c>
-      <c r="AH37" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI37" s="1">
-        <v>5</v>
+      <c r="AH37" s="1"/>
+      <c r="AI37">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38">
-        <v>4</v>
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="8">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F38" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>4500</v>
       </c>
-      <c r="H38" s="10">
-        <f>PRODUCT(AF38:AH38)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I38" s="10">
-        <f>PRODUCT(AF38,AG38,AI38)</f>
-        <v>2400000000</v>
+      <c r="H38" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="4"/>
+        <v>3360000000</v>
       </c>
       <c r="J38" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -4648,19 +5337,19 @@
         <v>1</v>
       </c>
       <c r="M38" s="1">
-        <v>0.05</v>
+        <v>3.4453</v>
       </c>
       <c r="N38" s="1">
-        <v>10</v>
+        <v>3.4453</v>
       </c>
       <c r="O38" s="1">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="P38" s="1">
         <v>0.75</v>
       </c>
       <c r="Q38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R38" s="3">
         <v>3</v>
@@ -4678,28 +5367,24 @@
         <v>0.01</v>
       </c>
       <c r="W38" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="X38" s="1">
         <v>1000</v>
       </c>
       <c r="Y38" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="5"/>
         <v>1:10:10</v>
       </c>
       <c r="Z38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="AB38" s="1"/>
       <c r="AC38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AD38" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="9">
         <v>30000000</v>
@@ -4707,222 +5392,23 @@
       <c r="AG38" s="1">
         <v>16</v>
       </c>
-      <c r="AH38" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="8">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G39" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H39" s="10">
-        <f t="shared" ref="H39:H48" si="10">PRODUCT(AF39:AH39)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="I39" s="10">
-        <f t="shared" ref="I39:I48" si="11">PRODUCT(AF39,AG39,AI39)</f>
-        <v>2400000000</v>
-      </c>
-      <c r="J39" s="1">
-        <v>30</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N39" s="1">
-        <v>10</v>
-      </c>
-      <c r="O39" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>4</v>
-      </c>
-      <c r="R39" s="3">
-        <v>3</v>
-      </c>
-      <c r="S39" s="1">
-        <v>1</v>
-      </c>
-      <c r="T39" s="1">
-        <v>10</v>
-      </c>
-      <c r="U39" s="1">
-        <v>10</v>
-      </c>
-      <c r="V39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W39" s="1">
-        <v>50</v>
-      </c>
-      <c r="X39" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y39" s="1" t="str">
-        <f t="shared" ref="Y39:Y84" si="12">"1:10:10"</f>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE39" s="1"/>
-      <c r="AF39" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="8">
-        <v>11</v>
-      </c>
-      <c r="F40" s="1">
-        <v>7200</v>
-      </c>
-      <c r="G40" s="1">
-        <v>4500</v>
-      </c>
-      <c r="H40" s="10">
-        <f t="shared" si="10"/>
-        <v>2400000000</v>
-      </c>
-      <c r="I40" s="10">
-        <f t="shared" si="11"/>
-        <v>2400000000</v>
-      </c>
-      <c r="J40" s="1">
-        <v>15</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>1</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="N40" s="1">
-        <v>10</v>
-      </c>
-      <c r="O40" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>4</v>
-      </c>
-      <c r="R40" s="3">
-        <v>3</v>
-      </c>
-      <c r="S40" s="1">
-        <v>1</v>
-      </c>
-      <c r="T40" s="1">
-        <v>10</v>
-      </c>
-      <c r="U40" s="1">
-        <v>10</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="W40" s="1">
-        <v>50</v>
-      </c>
-      <c r="X40" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Y40" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>1:10:10</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE40" s="1"/>
-      <c r="AF40" s="9">
-        <v>30000000</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>16</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>5</v>
+      <c r="AH38" s="1"/>
+      <c r="AI38">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
       </c>
       <c r="D41" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>7200</v>
@@ -4931,15 +5417,15 @@
         <v>4500</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="10"/>
+        <f>PRODUCT(AF41:AH41)</f>
         <v>2400000000</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="11"/>
+        <f>PRODUCT(AF41,AG41,AI41)</f>
         <v>2400000000</v>
       </c>
       <c r="J41" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -4957,10 +5443,10 @@
         <v>-0.5</v>
       </c>
       <c r="P41" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R41" s="3">
         <v>3</v>
@@ -4984,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="Y41" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z41" t="s">
@@ -5016,13 +5502,13 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="8">
-        <v>13</v>
+      <c r="D42" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="F42" s="1">
         <v>7200</v>
@@ -5031,15 +5517,15 @@
         <v>4500</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="10"/>
+        <f>PRODUCT(AF42:AH42)</f>
         <v>2400000000</v>
       </c>
       <c r="I42" s="10">
-        <f t="shared" si="11"/>
+        <f>PRODUCT(AF42,AG42,AI42)</f>
         <v>2400000000</v>
       </c>
       <c r="J42" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -5057,10 +5543,10 @@
         <v>-0.5</v>
       </c>
       <c r="P42" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Q42" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>3</v>
@@ -5075,16 +5561,16 @@
         <v>10</v>
       </c>
       <c r="V42" s="1">
-        <v>0.01</v>
+        <v>20</v>
       </c>
       <c r="W42" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="X42" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Y42" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z42" t="s">
@@ -5116,13 +5602,13 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="8">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1">
         <v>7200</v>
@@ -5131,18 +5617,18 @@
         <v>4500</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="10"/>
+        <f>PRODUCT(AF43:AH43)</f>
         <v>2400000000</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" si="11"/>
+        <f>PRODUCT(AF43,AG43,AI43)</f>
         <v>2400000000</v>
       </c>
       <c r="J43" s="1">
         <v>30</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L43" s="1">
         <v>1</v>
@@ -5157,10 +5643,10 @@
         <v>-0.5</v>
       </c>
       <c r="P43" s="1">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="Q43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>3</v>
@@ -5184,7 +5670,7 @@
         <v>1000</v>
       </c>
       <c r="Y43" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z43" t="s">
@@ -5216,13 +5702,13 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="8">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1">
         <v>7200</v>
@@ -5231,15 +5717,15 @@
         <v>4500</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="10"/>
+        <f>PRODUCT(AF44:AH44)</f>
         <v>2400000000</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" si="11"/>
+        <f>PRODUCT(AF44,AG44,AI44)</f>
         <v>2400000000</v>
       </c>
       <c r="J44" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -5257,10 +5743,10 @@
         <v>-0.5</v>
       </c>
       <c r="P44" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q44" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>3</v>
@@ -5284,7 +5770,7 @@
         <v>1000</v>
       </c>
       <c r="Y44" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f>"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z44" t="s">
@@ -5316,13 +5802,13 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="8">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1">
         <v>7200</v>
@@ -5331,18 +5817,18 @@
         <v>4500</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="H45:H54" si="6">PRODUCT(AF45:AH45)</f>
         <v>2400000000</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I45:I54" si="7">PRODUCT(AF45,AG45,AI45)</f>
         <v>2400000000</v>
       </c>
       <c r="J45" s="1">
         <v>30</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
@@ -5357,7 +5843,7 @@
         <v>-0.5</v>
       </c>
       <c r="P45" s="1">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="Q45" s="1">
         <v>4</v>
@@ -5384,7 +5870,7 @@
         <v>1000</v>
       </c>
       <c r="Y45" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Y45:Y90" si="8">"1:10:10"</f>
         <v>1:10:10</v>
       </c>
       <c r="Z45" t="s">
@@ -5416,13 +5902,13 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="8">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1">
         <v>7200</v>
@@ -5431,15 +5917,15 @@
         <v>4500</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J46" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -5484,7 +5970,7 @@
         <v>1000</v>
       </c>
       <c r="Y46" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z46" t="s">
@@ -5516,13 +6002,13 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1">
         <v>7200</v>
@@ -5531,15 +6017,15 @@
         <v>4500</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J47" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -5584,7 +6070,7 @@
         <v>1000</v>
       </c>
       <c r="Y47" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z47" t="s">
@@ -5616,13 +6102,13 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="8">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1">
         <v>7200</v>
@@ -5631,15 +6117,15 @@
         <v>4500</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J48" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -5684,7 +6170,7 @@
         <v>1000</v>
       </c>
       <c r="Y48" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z48" t="s">
@@ -5716,13 +6202,13 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1">
         <v>7200</v>
@@ -5731,15 +6217,15 @@
         <v>4500</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" ref="H49:H59" si="13">PRODUCT(AF49:AH49)</f>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" ref="I49:I59" si="14">PRODUCT(AF49,AG49,AI49)</f>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J49" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -5757,10 +6243,10 @@
         <v>-0.5</v>
       </c>
       <c r="P49" s="1">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="Q49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>3</v>
@@ -5778,13 +6264,13 @@
         <v>0.01</v>
       </c>
       <c r="W49" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X49" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y49" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z49" t="s">
@@ -5816,16 +6302,13 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="11">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>66</v>
+      <c r="D50" s="8">
+        <v>32</v>
       </c>
       <c r="F50" s="1">
         <v>7200</v>
@@ -5834,18 +6317,18 @@
         <v>4500</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J50" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K50" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
@@ -5860,10 +6343,10 @@
         <v>-0.5</v>
       </c>
       <c r="P50" s="1">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R50" s="3">
         <v>3</v>
@@ -5881,13 +6364,13 @@
         <v>0.01</v>
       </c>
       <c r="W50" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X50" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y50" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z50" t="s">
@@ -5919,16 +6402,13 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="11">
-        <v>53</v>
-      </c>
-      <c r="E51" t="s">
-        <v>67</v>
+      <c r="D51" s="8">
+        <v>33</v>
       </c>
       <c r="F51" s="1">
         <v>7200</v>
@@ -5937,15 +6417,15 @@
         <v>4500</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -5966,7 +6446,7 @@
         <v>0.6</v>
       </c>
       <c r="Q51" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R51" s="3">
         <v>3</v>
@@ -5984,17 +6464,17 @@
         <v>0.01</v>
       </c>
       <c r="W51" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X51" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y51" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1" t="s">
@@ -6022,13 +6502,13 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="11">
-        <v>54</v>
+      <c r="D52" s="8">
+        <v>41</v>
       </c>
       <c r="F52" s="1">
         <v>7200</v>
@@ -6037,18 +6517,18 @@
         <v>4500</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J52" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K52" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1">
         <v>1</v>
@@ -6063,10 +6543,10 @@
         <v>-0.5</v>
       </c>
       <c r="P52" s="1">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="Q52" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>3</v>
@@ -6084,17 +6564,17 @@
         <v>0.01</v>
       </c>
       <c r="W52" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X52" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y52" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z52" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1" t="s">
@@ -6122,13 +6602,13 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="11">
-        <v>55</v>
+      <c r="D53" s="8">
+        <v>42</v>
       </c>
       <c r="F53" s="1">
         <v>7200</v>
@@ -6137,18 +6617,18 @@
         <v>4500</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J53" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K53" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1">
         <v>1</v>
@@ -6163,10 +6643,10 @@
         <v>-0.5</v>
       </c>
       <c r="P53" s="1">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q53" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" s="3">
         <v>3</v>
@@ -6184,17 +6664,17 @@
         <v>0.01</v>
       </c>
       <c r="W53" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X53" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y53" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z53" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1" t="s">
@@ -6222,16 +6702,13 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="8">
-        <v>56</v>
-      </c>
-      <c r="E54" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F54" s="1">
         <v>7200</v>
@@ -6240,18 +6717,18 @@
         <v>4500</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>2400000000</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2400000000</v>
       </c>
       <c r="J54" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K54" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
         <v>1</v>
@@ -6269,7 +6746,7 @@
         <v>0.6</v>
       </c>
       <c r="Q54" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>3</v>
@@ -6287,17 +6764,17 @@
         <v>0.01</v>
       </c>
       <c r="W54" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="X54" s="1">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y54" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z54" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1" t="s">
@@ -6325,16 +6802,13 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="8">
-        <v>57</v>
-      </c>
-      <c r="E55" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F55" s="1">
         <v>7200</v>
@@ -6343,27 +6817,27 @@
         <v>4500</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H55:H65" si="9">PRODUCT(AF55:AH55)</f>
         <v>2400000000</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="I55:I65" si="10">PRODUCT(AF55,AG55,AI55)</f>
         <v>2400000000</v>
       </c>
       <c r="J55" s="1">
         <v>20</v>
       </c>
       <c r="K55" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
         <v>1</v>
       </c>
       <c r="M55" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N55" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O55" s="1">
         <v>-0.5</v>
@@ -6396,11 +6870,11 @@
         <v>20</v>
       </c>
       <c r="Y55" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1" t="s">
@@ -6428,16 +6902,16 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="8">
-        <v>58</v>
+      <c r="D56" s="11">
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1">
         <v>7200</v>
@@ -6446,18 +6920,18 @@
         <v>4500</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J56" s="1">
         <v>20</v>
       </c>
       <c r="K56" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
@@ -6472,7 +6946,7 @@
         <v>-0.5</v>
       </c>
       <c r="P56" s="1">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="Q56" s="1">
         <v>5</v>
@@ -6499,11 +6973,11 @@
         <v>20</v>
       </c>
       <c r="Y56" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z56" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1" t="s">
@@ -6531,16 +7005,16 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="11">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1">
         <v>7200</v>
@@ -6549,18 +7023,18 @@
         <v>4500</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J57" s="1">
         <v>20</v>
       </c>
       <c r="K57" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
@@ -6602,11 +7076,11 @@
         <v>20</v>
       </c>
       <c r="Y57" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z57" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1" t="s">
@@ -6634,16 +7108,13 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="11">
-        <v>60</v>
-      </c>
-      <c r="E58" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F58" s="1">
         <v>7200</v>
@@ -6652,18 +7123,18 @@
         <v>4500</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I58" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J58" s="1">
         <v>20</v>
       </c>
       <c r="K58" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
@@ -6681,7 +7152,7 @@
         <v>0.6</v>
       </c>
       <c r="Q58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>3</v>
@@ -6705,7 +7176,7 @@
         <v>20</v>
       </c>
       <c r="Y58" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z58" t="s">
@@ -6737,16 +7208,13 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="11">
-        <v>61</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F59" s="1">
         <v>7200</v>
@@ -6755,11 +7223,11 @@
         <v>4500</v>
       </c>
       <c r="H59" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I59" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J59" s="1">
@@ -6784,7 +7252,7 @@
         <v>0.6</v>
       </c>
       <c r="Q59" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>3</v>
@@ -6808,11 +7276,11 @@
         <v>20</v>
       </c>
       <c r="Y59" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z59" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1" t="s">
@@ -6840,16 +7308,16 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="8">
-        <v>356</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1">
         <v>7200</v>
@@ -6858,15 +7326,15 @@
         <v>4500</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" ref="H60:H70" si="15">PRODUCT(AF60:AH60)</f>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I60" s="10">
-        <f t="shared" ref="I60:I70" si="16">PRODUCT(AF60,AG60,AI60)</f>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J60" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K60" s="1">
         <v>2.5000000000000001E-3</v>
@@ -6911,7 +7379,7 @@
         <v>20</v>
       </c>
       <c r="Y60" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z60" t="s">
@@ -6943,16 +7411,16 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
       </c>
       <c r="D61" s="8">
-        <v>361</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F61" s="1">
         <v>7200</v>
@@ -6961,15 +7429,15 @@
         <v>4500</v>
       </c>
       <c r="H61" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I61" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J61" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K61" s="1">
         <v>2.5000000000000001E-3</v>
@@ -6978,10 +7446,10 @@
         <v>1</v>
       </c>
       <c r="M61" s="1">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="N61" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O61" s="1">
         <v>-0.5</v>
@@ -6990,7 +7458,7 @@
         <v>0.6</v>
       </c>
       <c r="Q61" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R61" s="3">
         <v>3</v>
@@ -7014,11 +7482,11 @@
         <v>20</v>
       </c>
       <c r="Y61" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z61" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
@@ -7046,16 +7514,16 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>61</v>
       </c>
       <c r="D62" s="8">
-        <v>456</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F62" s="1">
         <v>7200</v>
@@ -7064,15 +7532,15 @@
         <v>4500</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J62" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K62" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7090,10 +7558,10 @@
         <v>-0.5</v>
       </c>
       <c r="P62" s="1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Q62" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>3</v>
@@ -7117,7 +7585,7 @@
         <v>20</v>
       </c>
       <c r="Y62" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z62" t="s">
@@ -7149,16 +7617,16 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="8">
-        <v>461</v>
+      <c r="D63" s="11">
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F63" s="1">
         <v>7200</v>
@@ -7167,15 +7635,15 @@
         <v>4500</v>
       </c>
       <c r="H63" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J63" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K63" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7196,7 +7664,7 @@
         <v>0.6</v>
       </c>
       <c r="Q63" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R63" s="3">
         <v>3</v>
@@ -7220,7 +7688,7 @@
         <v>20</v>
       </c>
       <c r="Y63" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z63" t="s">
@@ -7252,16 +7720,16 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="8">
-        <v>62</v>
+      <c r="D64" s="11">
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F64" s="1">
         <v>7200</v>
@@ -7270,15 +7738,15 @@
         <v>4500</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J64" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K64" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7293,13 +7761,13 @@
         <v>10</v>
       </c>
       <c r="O64" s="1">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="P64" s="1">
         <v>0.6</v>
       </c>
       <c r="Q64" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R64" s="3">
         <v>3</v>
@@ -7323,11 +7791,11 @@
         <v>20</v>
       </c>
       <c r="Y64" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z64" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1" t="s">
@@ -7355,16 +7823,16 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="8">
-        <v>63</v>
+      <c r="D65" s="11">
+        <v>61</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F65" s="1">
         <v>7200</v>
@@ -7373,15 +7841,15 @@
         <v>4500</v>
       </c>
       <c r="H65" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2400000000</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2400000000</v>
       </c>
       <c r="J65" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K65" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7396,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="O65" s="1">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="P65" s="1">
         <v>0.6</v>
@@ -7426,7 +7894,7 @@
         <v>20</v>
       </c>
       <c r="Y65" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z65" t="s">
@@ -7457,11 +7925,17 @@
       </c>
     </row>
     <row r="66" spans="1:35">
+      <c r="A66">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
       <c r="D66" s="8">
-        <v>64</v>
+        <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F66" s="1">
         <v>7200</v>
@@ -7470,11 +7944,11 @@
         <v>4500</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H66:H76" si="11">PRODUCT(AF66:AH66)</f>
         <v>2400000000</v>
       </c>
       <c r="I66" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I66:I76" si="12">PRODUCT(AF66,AG66,AI66)</f>
         <v>2400000000</v>
       </c>
       <c r="J66" s="1">
@@ -7523,11 +7997,11 @@
         <v>20</v>
       </c>
       <c r="Y66" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z66" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1" t="s">
@@ -7554,11 +8028,17 @@
       </c>
     </row>
     <row r="67" spans="1:35">
-      <c r="D67" s="11" t="s">
-        <v>83</v>
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="8">
+        <v>361</v>
       </c>
       <c r="E67" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F67" s="1">
         <v>7200</v>
@@ -7567,18 +8047,18 @@
         <v>4500</v>
       </c>
       <c r="H67" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I67" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J67" s="1">
         <v>30</v>
       </c>
       <c r="K67" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -7620,11 +8100,11 @@
         <v>20</v>
       </c>
       <c r="Y67" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z67" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1" t="s">
@@ -7651,11 +8131,17 @@
       </c>
     </row>
     <row r="68" spans="1:35">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
       <c r="D68" s="8">
-        <v>65</v>
+        <v>456</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F68" s="1">
         <v>7200</v>
@@ -7664,15 +8150,15 @@
         <v>4500</v>
       </c>
       <c r="H68" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J68" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K68" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7717,11 +8203,11 @@
         <v>20</v>
       </c>
       <c r="Y68" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z68" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1" t="s">
@@ -7748,11 +8234,17 @@
       </c>
     </row>
     <row r="69" spans="1:35">
+      <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
       <c r="D69" s="8">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="E69" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1">
         <v>7200</v>
@@ -7761,15 +8253,15 @@
         <v>4500</v>
       </c>
       <c r="H69" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I69" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J69" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K69" s="1">
         <v>2.5000000000000001E-3</v>
@@ -7781,7 +8273,7 @@
         <v>0.05</v>
       </c>
       <c r="N69" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="O69" s="1">
         <v>-0.5</v>
@@ -7814,7 +8306,7 @@
         <v>20</v>
       </c>
       <c r="Y69" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z69" t="s">
@@ -7845,11 +8337,17 @@
       </c>
     </row>
     <row r="70" spans="1:35">
+      <c r="A70">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
       <c r="D70" s="8">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F70" s="1">
         <v>7200</v>
@@ -7858,11 +8356,11 @@
         <v>4500</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J70" s="1">
@@ -7878,10 +8376,10 @@
         <v>0.05</v>
       </c>
       <c r="N70" s="1">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="O70" s="1">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="P70" s="1">
         <v>0.6</v>
@@ -7911,11 +8409,11 @@
         <v>20</v>
       </c>
       <c r="Y70" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z70" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1" t="s">
@@ -7941,9 +8439,115 @@
         <v>5</v>
       </c>
     </row>
+    <row r="71" spans="1:35">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="8">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G71" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="11"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="12"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J71" s="1">
+        <v>30</v>
+      </c>
+      <c r="K71" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N71" s="1">
+        <v>10</v>
+      </c>
+      <c r="O71" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="P71" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>6</v>
+      </c>
+      <c r="R71" s="3">
+        <v>3</v>
+      </c>
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
+      <c r="T71" s="1">
+        <v>10</v>
+      </c>
+      <c r="U71" s="1">
+        <v>10</v>
+      </c>
+      <c r="V71" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W71" s="1">
+        <v>10</v>
+      </c>
+      <c r="X71" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y71" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="72" spans="1:35">
-      <c r="D72" s="8" t="s">
-        <v>89</v>
+      <c r="D72" s="8">
+        <v>64</v>
+      </c>
+      <c r="E72" t="s">
+        <v>81</v>
       </c>
       <c r="F72" s="1">
         <v>7200</v>
@@ -7952,18 +8556,18 @@
         <v>4500</v>
       </c>
       <c r="H72" s="10">
-        <f t="shared" ref="H72:H77" si="17">PRODUCT(AF72:AH72)</f>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" ref="I72:I77" si="18">PRODUCT(AF72,AG72,AI72)</f>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J72" s="1">
         <v>30</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -8005,7 +8609,7 @@
         <v>20</v>
       </c>
       <c r="Y72" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z72" t="s">
@@ -8036,8 +8640,11 @@
       </c>
     </row>
     <row r="73" spans="1:35">
-      <c r="D73" s="8" t="s">
-        <v>90</v>
+      <c r="D73" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" t="s">
+        <v>84</v>
       </c>
       <c r="F73" s="1">
         <v>7200</v>
@@ -8046,18 +8653,18 @@
         <v>4500</v>
       </c>
       <c r="H73" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J73" s="1">
         <v>30</v>
       </c>
       <c r="K73" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L73" s="1">
         <v>1</v>
@@ -8075,7 +8682,7 @@
         <v>0.6</v>
       </c>
       <c r="Q73" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R73" s="3">
         <v>3</v>
@@ -8099,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="Y73" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z73" t="s">
@@ -8130,8 +8737,11 @@
       </c>
     </row>
     <row r="74" spans="1:35">
-      <c r="D74" s="8" t="s">
-        <v>91</v>
+      <c r="D74" s="8">
+        <v>65</v>
+      </c>
+      <c r="E74" t="s">
+        <v>85</v>
       </c>
       <c r="F74" s="1">
         <v>7200</v>
@@ -8140,11 +8750,11 @@
         <v>4500</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J74" s="1">
@@ -8169,7 +8779,7 @@
         <v>0.6</v>
       </c>
       <c r="Q74" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R74" s="3">
         <v>3</v>
@@ -8193,11 +8803,11 @@
         <v>20</v>
       </c>
       <c r="Y74" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1" t="s">
@@ -8224,8 +8834,11 @@
       </c>
     </row>
     <row r="75" spans="1:35">
-      <c r="D75" s="8" t="s">
-        <v>92</v>
+      <c r="D75" s="8">
+        <v>71</v>
+      </c>
+      <c r="E75" t="s">
+        <v>87</v>
       </c>
       <c r="F75" s="1">
         <v>7200</v>
@@ -8234,15 +8847,15 @@
         <v>4500</v>
       </c>
       <c r="H75" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J75" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K75" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8254,7 +8867,7 @@
         <v>0.05</v>
       </c>
       <c r="N75" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="O75" s="1">
         <v>-0.5</v>
@@ -8287,11 +8900,11 @@
         <v>20</v>
       </c>
       <c r="Y75" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z75" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1" t="s">
@@ -8318,8 +8931,11 @@
       </c>
     </row>
     <row r="76" spans="1:35">
-      <c r="D76" s="8" t="s">
-        <v>93</v>
+      <c r="D76" s="8">
+        <v>72</v>
+      </c>
+      <c r="E76" t="s">
+        <v>88</v>
       </c>
       <c r="F76" s="1">
         <v>7200</v>
@@ -8328,15 +8944,15 @@
         <v>4500</v>
       </c>
       <c r="H76" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2400000000</v>
       </c>
       <c r="I76" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2400000000</v>
       </c>
       <c r="J76" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K76" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8348,7 +8964,7 @@
         <v>0.05</v>
       </c>
       <c r="N76" s="1">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="O76" s="1">
         <v>-0.5</v>
@@ -8381,11 +8997,11 @@
         <v>20</v>
       </c>
       <c r="Y76" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z76" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1" t="s">
@@ -8411,103 +9027,103 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
-      <c r="D77" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F77" s="1">
+    <row r="78" spans="1:35">
+      <c r="D78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" s="1">
         <v>7200</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G78" s="1">
         <v>4500</v>
       </c>
-      <c r="H77" s="10">
-        <f t="shared" si="17"/>
+      <c r="H78" s="10">
+        <f t="shared" ref="H78:H83" si="13">PRODUCT(AF78:AH78)</f>
         <v>2400000000</v>
       </c>
-      <c r="I77" s="10">
-        <f t="shared" si="18"/>
+      <c r="I78" s="10">
+        <f t="shared" ref="I78:I83" si="14">PRODUCT(AF78,AG78,AI78)</f>
         <v>2400000000</v>
       </c>
-      <c r="J77" s="1">
-        <v>100</v>
-      </c>
-      <c r="K77" s="1">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L77" s="1">
-        <v>1</v>
-      </c>
-      <c r="M77" s="1">
+      <c r="J78" s="1">
+        <v>30</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1">
         <v>0.05</v>
       </c>
-      <c r="N77" s="1">
-        <v>10</v>
-      </c>
-      <c r="O77" s="1">
+      <c r="N78" s="1">
+        <v>10</v>
+      </c>
+      <c r="O78" s="1">
         <v>-0.5</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P78" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q77" s="1">
+      <c r="Q78" s="1">
         <v>6</v>
       </c>
-      <c r="R77" s="3">
+      <c r="R78" s="3">
         <v>3</v>
       </c>
-      <c r="S77" s="1">
-        <v>1</v>
-      </c>
-      <c r="T77" s="1">
-        <v>10</v>
-      </c>
-      <c r="U77" s="1">
-        <v>10</v>
-      </c>
-      <c r="V77" s="1">
+      <c r="S78" s="1">
+        <v>1</v>
+      </c>
+      <c r="T78" s="1">
+        <v>10</v>
+      </c>
+      <c r="U78" s="1">
+        <v>10</v>
+      </c>
+      <c r="V78" s="1">
         <v>0.01</v>
       </c>
-      <c r="W77" s="1">
-        <v>10</v>
-      </c>
-      <c r="X77" s="1">
+      <c r="W78" s="1">
+        <v>10</v>
+      </c>
+      <c r="X78" s="1">
         <v>20</v>
       </c>
-      <c r="Y77" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="Y78" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Z78" t="s">
         <v>82</v>
       </c>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC77" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD77" s="1" t="s">
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="9">
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="9">
         <v>30000000</v>
       </c>
-      <c r="AG77" s="1">
+      <c r="AG78" s="1">
         <v>16</v>
       </c>
-      <c r="AH77" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI77" s="1">
+      <c r="AH78" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI78" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:35">
       <c r="D79" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F79" s="1">
         <v>7200</v>
@@ -8516,18 +9132,18 @@
         <v>4500</v>
       </c>
       <c r="H79" s="10">
-        <f t="shared" ref="H79:H84" si="19">PRODUCT(AF79:AH79)</f>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" ref="I79:I84" si="20">PRODUCT(AF79,AG79,AI79)</f>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J79" s="1">
         <v>30</v>
       </c>
       <c r="K79" s="1">
-        <v>0</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L79" s="1">
         <v>1</v>
@@ -8545,7 +9161,7 @@
         <v>0.6</v>
       </c>
       <c r="Q79" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R79" s="3">
         <v>3</v>
@@ -8569,11 +9185,11 @@
         <v>20</v>
       </c>
       <c r="Y79" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1" t="s">
@@ -8601,7 +9217,7 @@
     </row>
     <row r="80" spans="1:35">
       <c r="D80" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F80" s="1">
         <v>7200</v>
@@ -8610,11 +9226,11 @@
         <v>4500</v>
       </c>
       <c r="H80" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J80" s="1">
@@ -8639,7 +9255,7 @@
         <v>0.6</v>
       </c>
       <c r="Q80" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R80" s="3">
         <v>3</v>
@@ -8663,11 +9279,11 @@
         <v>20</v>
       </c>
       <c r="Y80" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z80" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1" t="s">
@@ -8695,7 +9311,7 @@
     </row>
     <row r="81" spans="3:35">
       <c r="D81" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F81" s="1">
         <v>7200</v>
@@ -8704,15 +9320,15 @@
         <v>4500</v>
       </c>
       <c r="H81" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J81" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K81" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8733,7 +9349,7 @@
         <v>0.6</v>
       </c>
       <c r="Q81" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R81" s="3">
         <v>3</v>
@@ -8757,11 +9373,11 @@
         <v>20</v>
       </c>
       <c r="Y81" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z81" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1" t="s">
@@ -8789,7 +9405,7 @@
     </row>
     <row r="82" spans="3:35">
       <c r="D82" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F82" s="1">
         <v>7200</v>
@@ -8798,15 +9414,15 @@
         <v>4500</v>
       </c>
       <c r="H82" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I82" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J82" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K82" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8851,11 +9467,11 @@
         <v>20</v>
       </c>
       <c r="Y82" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z82" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1" t="s">
@@ -8883,7 +9499,7 @@
     </row>
     <row r="83" spans="3:35">
       <c r="D83" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F83" s="1">
         <v>7200</v>
@@ -8892,15 +9508,15 @@
         <v>4500</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2400000000</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2400000000</v>
       </c>
       <c r="J83" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K83" s="1">
         <v>2.5000000000000001E-3</v>
@@ -8945,11 +9561,11 @@
         <v>20</v>
       </c>
       <c r="Y83" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1" t="s">
@@ -8975,109 +9591,197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:35">
-      <c r="D84" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F84" s="1">
+    <row r="85" spans="3:35">
+      <c r="D85" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="1">
         <v>7200</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G85" s="1">
         <v>4500</v>
       </c>
-      <c r="H84" s="10">
-        <f t="shared" si="19"/>
+      <c r="H85" s="10">
+        <f t="shared" ref="H85:H90" si="15">PRODUCT(AF85:AH85)</f>
         <v>2400000000</v>
       </c>
-      <c r="I84" s="10">
-        <f t="shared" si="20"/>
+      <c r="I85" s="10">
+        <f t="shared" ref="I85:I90" si="16">PRODUCT(AF85,AG85,AI85)</f>
         <v>2400000000</v>
       </c>
-      <c r="J84" s="1">
-        <v>100</v>
-      </c>
-      <c r="K84" s="1">
+      <c r="J85" s="1">
+        <v>30</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N85" s="1">
+        <v>10</v>
+      </c>
+      <c r="O85" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>6</v>
+      </c>
+      <c r="R85" s="3">
+        <v>3</v>
+      </c>
+      <c r="S85" s="1">
+        <v>1</v>
+      </c>
+      <c r="T85" s="1">
+        <v>10</v>
+      </c>
+      <c r="U85" s="1">
+        <v>10</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W85" s="1">
+        <v>10</v>
+      </c>
+      <c r="X85" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y85" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG85" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH85" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="3:35">
+      <c r="D86" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F86" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G86" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H86" s="10">
+        <f t="shared" si="15"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J86" s="1">
+        <v>30</v>
+      </c>
+      <c r="K86" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="L84" s="1">
-        <v>1</v>
-      </c>
-      <c r="M84" s="1">
+      <c r="L86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
         <v>0.05</v>
       </c>
-      <c r="N84" s="1">
-        <v>10</v>
-      </c>
-      <c r="O84" s="1">
+      <c r="N86" s="1">
+        <v>10</v>
+      </c>
+      <c r="O86" s="1">
         <v>-0.5</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P86" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q84" s="1">
-        <v>6</v>
-      </c>
-      <c r="R84" s="3">
+      <c r="Q86" s="1">
+        <v>4</v>
+      </c>
+      <c r="R86" s="3">
         <v>3</v>
       </c>
-      <c r="S84" s="1">
-        <v>1</v>
-      </c>
-      <c r="T84" s="1">
-        <v>10</v>
-      </c>
-      <c r="U84" s="1">
-        <v>10</v>
-      </c>
-      <c r="V84" s="1">
+      <c r="S86" s="1">
+        <v>1</v>
+      </c>
+      <c r="T86" s="1">
+        <v>10</v>
+      </c>
+      <c r="U86" s="1">
+        <v>10</v>
+      </c>
+      <c r="V86" s="1">
         <v>0.01</v>
       </c>
-      <c r="W84" s="1">
-        <v>10</v>
-      </c>
-      <c r="X84" s="1">
+      <c r="W86" s="1">
+        <v>10</v>
+      </c>
+      <c r="X86" s="1">
         <v>20</v>
       </c>
-      <c r="Y84" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="Y86" s="1" t="str">
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Z86" t="s">
         <v>86</v>
       </c>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD84" s="1" t="s">
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD86" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="9">
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="9">
         <v>30000000</v>
       </c>
-      <c r="AG84" s="1">
+      <c r="AG86" s="1">
         <v>16</v>
       </c>
-      <c r="AH84" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI84" s="1">
+      <c r="AH86" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI86" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="3:35">
-      <c r="C87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="8">
-        <v>64</v>
-      </c>
-      <c r="E87" t="s">
-        <v>102</v>
+      <c r="D87" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="F87" s="1">
         <v>7200</v>
@@ -9086,11 +9790,11 @@
         <v>4500</v>
       </c>
       <c r="H87" s="10">
-        <f>PRODUCT(AF87:AH87)</f>
+        <f t="shared" si="15"/>
         <v>2400000000</v>
       </c>
       <c r="I87" s="10">
-        <f>PRODUCT(AF87,AG87,AI87)</f>
+        <f t="shared" si="16"/>
         <v>2400000000</v>
       </c>
       <c r="J87" s="1">
@@ -9115,7 +9819,7 @@
         <v>0.6</v>
       </c>
       <c r="Q87" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R87" s="3">
         <v>3</v>
@@ -9139,11 +9843,11 @@
         <v>20</v>
       </c>
       <c r="Y87" s="1" t="str">
-        <f>"1:10:10"</f>
+        <f t="shared" si="8"/>
         <v>1:10:10</v>
       </c>
       <c r="Z87" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1" t="s">
@@ -9166,6 +9870,388 @@
         <v>5</v>
       </c>
       <c r="AI87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:35">
+      <c r="D88" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G88" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H88" s="10">
+        <f t="shared" si="15"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J88" s="1">
+        <v>5</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N88" s="1">
+        <v>10</v>
+      </c>
+      <c r="O88" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P88" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>6</v>
+      </c>
+      <c r="R88" s="3">
+        <v>3</v>
+      </c>
+      <c r="S88" s="1">
+        <v>1</v>
+      </c>
+      <c r="T88" s="1">
+        <v>10</v>
+      </c>
+      <c r="U88" s="1">
+        <v>10</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W88" s="1">
+        <v>10</v>
+      </c>
+      <c r="X88" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y88" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="3:35">
+      <c r="D89" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H89" s="10">
+        <f t="shared" si="15"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J89" s="1">
+        <v>60</v>
+      </c>
+      <c r="K89" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N89" s="1">
+        <v>10</v>
+      </c>
+      <c r="O89" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P89" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>6</v>
+      </c>
+      <c r="R89" s="3">
+        <v>3</v>
+      </c>
+      <c r="S89" s="1">
+        <v>1</v>
+      </c>
+      <c r="T89" s="1">
+        <v>10</v>
+      </c>
+      <c r="U89" s="1">
+        <v>10</v>
+      </c>
+      <c r="V89" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W89" s="1">
+        <v>10</v>
+      </c>
+      <c r="X89" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y89" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:35">
+      <c r="D90" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H90" s="10">
+        <f t="shared" si="15"/>
+        <v>2400000000</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="16"/>
+        <v>2400000000</v>
+      </c>
+      <c r="J90" s="1">
+        <v>100</v>
+      </c>
+      <c r="K90" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N90" s="1">
+        <v>10</v>
+      </c>
+      <c r="O90" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P90" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>6</v>
+      </c>
+      <c r="R90" s="3">
+        <v>3</v>
+      </c>
+      <c r="S90" s="1">
+        <v>1</v>
+      </c>
+      <c r="T90" s="1">
+        <v>10</v>
+      </c>
+      <c r="U90" s="1">
+        <v>10</v>
+      </c>
+      <c r="V90" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W90" s="1">
+        <v>10</v>
+      </c>
+      <c r="X90" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y90" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="3:35">
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="8">
+        <v>64</v>
+      </c>
+      <c r="E93" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="1">
+        <v>7200</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H93" s="10">
+        <f>PRODUCT(AF93:AH93)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="I93" s="10">
+        <f>PRODUCT(AF93,AG93,AI93)</f>
+        <v>2400000000</v>
+      </c>
+      <c r="J93" s="1">
+        <v>30</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N93" s="1">
+        <v>10</v>
+      </c>
+      <c r="O93" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P93" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>6</v>
+      </c>
+      <c r="R93" s="3">
+        <v>3</v>
+      </c>
+      <c r="S93" s="1">
+        <v>1</v>
+      </c>
+      <c r="T93" s="1">
+        <v>10</v>
+      </c>
+      <c r="U93" s="1">
+        <v>10</v>
+      </c>
+      <c r="V93" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="W93" s="1">
+        <v>10</v>
+      </c>
+      <c r="X93" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y93" s="1" t="str">
+        <f>"1:10:10"</f>
+        <v>1:10:10</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD93" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI93" s="1">
         <v>5</v>
       </c>
     </row>
